--- a/result/life_2019_result.xlsx
+++ b/result/life_2019_result.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tungwu/Documents/GitHub/ORA_final_project/result/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD2A68F-49C5-D340-B9B2-56B543886EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -13,7 +19,7 @@
     <sheet name="VRS" sheetId="4" r:id="rId4"/>
     <sheet name="VRS_Z1split" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -152,12 +158,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -165,8 +171,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -212,15 +225,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -262,7 +283,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -294,9 +315,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -328,6 +367,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -503,12 +560,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
@@ -1317,34 +1374,34 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>7906898.727272728</v>
+        <v>7906898.7272727285</v>
       </c>
       <c r="C24">
-        <v>6450292.272727272</v>
+        <v>6450292.2727272715</v>
       </c>
       <c r="D24">
-        <v>3225146.136363636</v>
+        <v>3225146.1363636358</v>
       </c>
       <c r="E24">
-        <v>3225146.136363636</v>
+        <v>3225146.1363636358</v>
       </c>
       <c r="F24">
-        <v>135781097.4090909</v>
+        <v>135781097.40909091</v>
       </c>
       <c r="G24">
-        <v>980680.5909090909</v>
+        <v>980680.59090909094</v>
       </c>
       <c r="H24">
-        <v>134800416.8181818</v>
+        <v>134800416.81818181</v>
       </c>
       <c r="I24">
-        <v>1932334.454545455</v>
+        <v>1932334.4545454551</v>
       </c>
       <c r="J24">
         <v>163910509.1363636</v>
       </c>
       <c r="K24">
-        <v>44613073.95454545</v>
+        <v>44613073.954545453</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1352,16 +1409,16 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>9560529.304833516</v>
+        <v>9560529.3048335165</v>
       </c>
       <c r="C25">
-        <v>8199764.716936965</v>
+        <v>8199764.7169369645</v>
       </c>
       <c r="D25">
-        <v>4099882.358468483</v>
+        <v>4099882.3584684832</v>
       </c>
       <c r="E25">
-        <v>4099882.358468483</v>
+        <v>4099882.3584684832</v>
       </c>
       <c r="F25">
         <v>171390772.8406916</v>
@@ -1373,27 +1430,33 @@
         <v>170864227.6476731</v>
       </c>
       <c r="I25">
-        <v>2392903.153852054</v>
+        <v>2392903.1538520539</v>
       </c>
       <c r="J25">
-        <v>53241579.6633374</v>
+        <v>53241579.663337402</v>
       </c>
       <c r="K25">
-        <v>64110568.03288296</v>
+        <v>64110568.032882959</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="16.19921875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
@@ -1435,25 +1498,25 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.03367955980608883</v>
+        <v>3.3679559806088832E-2</v>
       </c>
       <c r="E2">
-        <v>0.4178738642493248</v>
+        <v>0.41787386424932482</v>
       </c>
       <c r="F2">
-        <v>0.542233295546705</v>
+        <v>0.54223329554670496</v>
       </c>
       <c r="G2">
-        <v>0.4178738642493248</v>
+        <v>0.41787386424932482</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.457766704453295</v>
+        <v>0.45776670445329498</v>
       </c>
       <c r="J2">
-        <v>0.3156481730119572</v>
+        <v>0.31564817301195719</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1461,28 +1524,28 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.2769519959944267</v>
+        <v>0.27695199599442671</v>
       </c>
       <c r="C3">
-        <v>0.6853837985207542</v>
+        <v>0.68538379852075415</v>
       </c>
       <c r="D3">
-        <v>0.08285445532113048</v>
+        <v>8.2854455321130477E-2</v>
       </c>
       <c r="E3">
-        <v>0.6865526295573567</v>
+        <v>0.68655262955735674</v>
       </c>
       <c r="F3">
-        <v>0.4033951427336122</v>
+        <v>0.40339514273361221</v>
       </c>
       <c r="G3">
-        <v>0.6865526295573567</v>
+        <v>0.68655262955735674</v>
       </c>
       <c r="H3">
-        <v>0.168593567864334</v>
+        <v>0.16859356786433399</v>
       </c>
       <c r="I3">
-        <v>0.4280112894020537</v>
+        <v>0.42801128940205369</v>
       </c>
       <c r="J3">
         <v>0.1264431467391855</v>
@@ -1493,7 +1556,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.1010676107785674</v>
+        <v>0.10106761077856739</v>
       </c>
       <c r="C4">
         <v>0.2144844378013733</v>
@@ -1502,22 +1565,22 @@
         <v>0.1176527144379093</v>
       </c>
       <c r="E4">
-        <v>0.6048943754504205</v>
+        <v>0.60489437545042046</v>
       </c>
       <c r="F4">
-        <v>0.1670830724840346</v>
+        <v>0.16708307248403459</v>
       </c>
       <c r="G4">
-        <v>0.6048943754504205</v>
+        <v>0.60489437545042046</v>
       </c>
       <c r="H4">
-        <v>0.4096164147555681</v>
+        <v>0.40961641475556809</v>
       </c>
       <c r="I4">
-        <v>0.4233005127603974</v>
+        <v>0.42330051276039737</v>
       </c>
       <c r="J4">
-        <v>0.06601546170546715</v>
+        <v>6.6015461705467154E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1525,28 +1588,28 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.2636959644809203</v>
+        <v>0.26369596448092031</v>
       </c>
       <c r="C5">
-        <v>0.4280358716591826</v>
+        <v>0.42803587165918261</v>
       </c>
       <c r="D5">
-        <v>0.08169294237082632</v>
+        <v>8.1692942370826319E-2</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.2636959644809203</v>
+        <v>0.26369596448092031</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>0.3017429529142102</v>
+        <v>0.30174295291421022</v>
       </c>
       <c r="I5">
-        <v>0.4345610826048696</v>
+        <v>0.43456108260486959</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1557,31 +1620,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.2883184918993117</v>
+        <v>0.28831849189931169</v>
       </c>
       <c r="C6">
-        <v>0.8876900638198028</v>
+        <v>0.88769006381980275</v>
       </c>
       <c r="D6">
-        <v>0.0607093044990628</v>
+        <v>6.0709304499062797E-2</v>
       </c>
       <c r="E6">
-        <v>0.5718302021993595</v>
+        <v>0.57183020219935954</v>
       </c>
       <c r="F6">
-        <v>0.5042029798188135</v>
+        <v>0.50420297981881346</v>
       </c>
       <c r="G6">
-        <v>0.5718302021993595</v>
+        <v>0.57183020219935954</v>
       </c>
       <c r="H6">
-        <v>0.0605410463507503</v>
+        <v>6.0541046350750298E-2</v>
       </c>
       <c r="I6">
-        <v>0.4352559738304363</v>
+        <v>0.43525597383043629</v>
       </c>
       <c r="J6">
-        <v>0.2158844879195017</v>
+        <v>0.21588448791950171</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1592,28 +1655,28 @@
         <v>0.17764773667358</v>
       </c>
       <c r="C7">
-        <v>0.385710687605066</v>
+        <v>0.38571068760506599</v>
       </c>
       <c r="D7">
-        <v>0.05026835093286388</v>
+        <v>5.026835093286388E-2</v>
       </c>
       <c r="E7">
-        <v>0.7993335161019015</v>
+        <v>0.79933351610190151</v>
       </c>
       <c r="F7">
-        <v>0.2222448240878379</v>
+        <v>0.22224482408783791</v>
       </c>
       <c r="G7">
-        <v>0.7993335161019015</v>
+        <v>0.79933351610190151</v>
       </c>
       <c r="H7">
-        <v>0.3178143298696239</v>
+        <v>0.31781432986962388</v>
       </c>
       <c r="I7">
-        <v>0.4599408460425383</v>
+        <v>0.45994084604253832</v>
       </c>
       <c r="J7">
-        <v>0.04459708741425786</v>
+        <v>4.4597087414257858E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1621,31 +1684,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.1818488311368577</v>
+        <v>0.18184883113685771</v>
       </c>
       <c r="C8">
-        <v>0.4066562491371959</v>
+        <v>0.40665624913719589</v>
       </c>
       <c r="D8">
-        <v>0.01317280087040199</v>
+        <v>1.317280087040199E-2</v>
       </c>
       <c r="E8">
-        <v>0.847805427850975</v>
+        <v>0.84780542785097501</v>
       </c>
       <c r="F8">
         <v>0.2144935915281998</v>
       </c>
       <c r="G8">
-        <v>0.847805427850975</v>
+        <v>0.84780542785097501</v>
       </c>
       <c r="H8">
-        <v>0.3049538973119787</v>
+        <v>0.30495389731197869</v>
       </c>
       <c r="I8">
-        <v>0.4805525111598214</v>
+        <v>0.48055251115982139</v>
       </c>
       <c r="J8">
-        <v>0.03264476039134209</v>
+        <v>3.2644760391342093E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1656,28 +1719,28 @@
         <v>0.1945505541323003</v>
       </c>
       <c r="C9">
-        <v>0.5976631892307389</v>
+        <v>0.59766318923073891</v>
       </c>
       <c r="D9">
-        <v>0.04611722239791143</v>
+        <v>4.6117222397911432E-2</v>
       </c>
       <c r="E9">
-        <v>0.5795682350406238</v>
+        <v>0.57956823504062382</v>
       </c>
       <c r="F9">
-        <v>0.3356818789743775</v>
+        <v>0.33568187897437751</v>
       </c>
       <c r="G9">
-        <v>0.5795682350406238</v>
+        <v>0.57956823504062382</v>
       </c>
       <c r="H9">
-        <v>0.2119317337691854</v>
+        <v>0.21193173376918539</v>
       </c>
       <c r="I9">
-        <v>0.4523863872564371</v>
+        <v>0.45238638725643709</v>
       </c>
       <c r="J9">
-        <v>0.1411313248420772</v>
+        <v>0.14113132484207719</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1685,31 +1748,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.2024256898666892</v>
+        <v>0.20242568986668921</v>
       </c>
       <c r="C10">
-        <v>0.4971748401555001</v>
+        <v>0.49717484015550012</v>
       </c>
       <c r="D10">
-        <v>0.07876313946688294</v>
+        <v>7.8763139466882945E-2</v>
       </c>
       <c r="E10">
-        <v>0.6793820464219753</v>
+        <v>0.67938204642197531</v>
       </c>
       <c r="F10">
-        <v>0.2979556067646794</v>
+        <v>0.29795560676467941</v>
       </c>
       <c r="G10">
-        <v>0.6793820464219753</v>
+        <v>0.67938204642197531</v>
       </c>
       <c r="H10">
-        <v>0.267736269633753</v>
+        <v>0.26773626963375302</v>
       </c>
       <c r="I10">
-        <v>0.4343081236015677</v>
+        <v>0.43430812360156767</v>
       </c>
       <c r="J10">
-        <v>0.09552991689799015</v>
+        <v>9.5529916897990147E-2</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1717,31 +1780,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.1563739466801723</v>
+        <v>0.15637394668017229</v>
       </c>
       <c r="C11">
-        <v>0.7302738117007496</v>
+        <v>0.73027381170074956</v>
       </c>
       <c r="D11">
-        <v>0.01097653634891144</v>
+        <v>1.097653634891144E-2</v>
       </c>
       <c r="E11">
-        <v>0.4250260343089518</v>
+        <v>0.42502603430895181</v>
       </c>
       <c r="F11">
-        <v>0.3679161605580706</v>
+        <v>0.36791616055807058</v>
       </c>
       <c r="G11">
-        <v>0.4250260343089518</v>
+        <v>0.42502603430895181</v>
       </c>
       <c r="H11">
-        <v>0.1348719944597531</v>
+        <v>0.13487199445975309</v>
       </c>
       <c r="I11">
-        <v>0.4972118449821762</v>
+        <v>0.49721184498217619</v>
       </c>
       <c r="J11">
-        <v>0.2115422138778983</v>
+        <v>0.21154221387789829</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1749,28 +1812,28 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.3404603241972285</v>
+        <v>0.34046032419722849</v>
       </c>
       <c r="C12">
         <v>0.6299890169268596</v>
       </c>
       <c r="D12">
-        <v>0.005728200489344206</v>
+        <v>5.7282004893442059E-3</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.3404603241972284</v>
+        <v>0.34046032419722838</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12">
-        <v>0.200888911223791</v>
+        <v>0.20088891122379099</v>
       </c>
       <c r="I12">
-        <v>0.4586507645789806</v>
+        <v>0.45865076457898057</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1781,19 +1844,19 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.04692071852005738</v>
+        <v>4.6920718520057379E-2</v>
       </c>
       <c r="C13">
         <v>0.1538207114543502</v>
       </c>
       <c r="D13">
-        <v>0.737694807404546</v>
+        <v>0.73769480740454596</v>
       </c>
       <c r="E13">
         <v>0.111089340294623</v>
       </c>
       <c r="F13">
-        <v>0.4223692245864246</v>
+        <v>0.42236922458642462</v>
       </c>
       <c r="G13">
         <v>0.111089340294623</v>
@@ -1802,7 +1865,7 @@
         <v>0.4544326079689146</v>
       </c>
       <c r="I13">
-        <v>0.1231981674446608</v>
+        <v>0.12319816744466081</v>
       </c>
       <c r="J13">
         <v>0.3754485060663672</v>
@@ -1813,22 +1876,22 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.3037254697826166</v>
+        <v>0.30372546978261661</v>
       </c>
       <c r="C14">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>0.3037254697826166</v>
+        <v>0.30372546978261661</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3037254697826166</v>
+        <v>0.30372546978261661</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1837,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.6962745302173834</v>
+        <v>0.69627453021738339</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1845,10 +1908,10 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.1713208898773143</v>
+        <v>0.17132088987731431</v>
       </c>
       <c r="C15">
-        <v>0.4327330585453191</v>
+        <v>0.43273305854531913</v>
       </c>
       <c r="D15">
         <v>0.1147304513458401</v>
@@ -1857,16 +1920,16 @@
         <v>0.6094210493276665</v>
       </c>
       <c r="F15">
-        <v>0.2811207293648967</v>
+        <v>0.28112072936489668</v>
       </c>
       <c r="G15">
         <v>0.6094210493276665</v>
       </c>
       <c r="H15">
-        <v>0.2984203076591525</v>
+        <v>0.29842030765915251</v>
       </c>
       <c r="I15">
-        <v>0.4204589629759509</v>
+        <v>0.42045896297595092</v>
       </c>
       <c r="J15">
         <v>0.1097998394875824</v>
@@ -1877,31 +1940,31 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.1340494885684805</v>
+        <v>0.13404948856848051</v>
       </c>
       <c r="C16">
-        <v>0.09560766950377669</v>
+        <v>9.5607669503776693E-2</v>
       </c>
       <c r="D16">
         <v>0.3612890001565815</v>
       </c>
       <c r="E16">
-        <v>0.6184902577964075</v>
+        <v>0.61849025779640754</v>
       </c>
       <c r="F16">
-        <v>0.2167366209551622</v>
+        <v>0.21673662095516219</v>
       </c>
       <c r="G16">
-        <v>0.6184902577964075</v>
+        <v>0.61849025779640754</v>
       </c>
       <c r="H16">
         <v>0.4864306833508647</v>
       </c>
       <c r="I16">
-        <v>0.2968326956939731</v>
+        <v>0.29683269569397308</v>
       </c>
       <c r="J16">
-        <v>0.08268713238668168</v>
+        <v>8.2687132386681683E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1909,13 +1972,13 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.08461464482471621</v>
+        <v>8.4614644824716215E-2</v>
       </c>
       <c r="C17">
-        <v>0.1911339301550249</v>
+        <v>0.19113393015502489</v>
       </c>
       <c r="D17">
-        <v>0.08892368827750907</v>
+        <v>8.8923688277509072E-2</v>
       </c>
       <c r="E17">
         <v>0.610909048804127</v>
@@ -1927,13 +1990,13 @@
         <v>0.610909048804127</v>
       </c>
       <c r="H17">
-        <v>0.4150770382017193</v>
+        <v>0.41507703820171932</v>
       </c>
       <c r="I17">
-        <v>0.446416837211729</v>
+        <v>0.44641683721172898</v>
       </c>
       <c r="J17">
-        <v>0.05389147976183549</v>
+        <v>5.389147976183549E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1941,28 +2004,28 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.0525060127937453</v>
+        <v>5.2506012793745303E-2</v>
       </c>
       <c r="C18">
-        <v>0.08089001625070683</v>
+        <v>8.0890016250706825E-2</v>
       </c>
       <c r="D18">
-        <v>0.0305247442240196</v>
+        <v>3.0524744224019601E-2</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>0.0525060127937453</v>
+        <v>5.2506012793745303E-2</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>0.4667995239016409</v>
+        <v>0.46679952390164092</v>
       </c>
       <c r="I18">
-        <v>0.4806944633046137</v>
+        <v>0.48069446330461368</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1973,31 +2036,31 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.1327758779020131</v>
+        <v>0.13277587790201309</v>
       </c>
       <c r="C19">
-        <v>0.6283180109068268</v>
+        <v>0.62831801090682682</v>
       </c>
       <c r="D19">
-        <v>0.02323160852745669</v>
+        <v>2.323160852745669E-2</v>
       </c>
       <c r="E19">
         <v>0.3796084167738028</v>
       </c>
       <c r="F19">
-        <v>0.3497706374122107</v>
+        <v>0.34977063741221071</v>
       </c>
       <c r="G19">
         <v>0.3796084167738028</v>
       </c>
       <c r="H19">
-        <v>0.2042015220138186</v>
+        <v>0.20420152201381861</v>
       </c>
       <c r="I19">
-        <v>0.4460278405739707</v>
+        <v>0.44602784057397071</v>
       </c>
       <c r="J19">
-        <v>0.2169947595101976</v>
+        <v>0.21699475951019759</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2008,28 +2071,28 @@
         <v>0.2452229358540019</v>
       </c>
       <c r="C20">
-        <v>0.4733336230416609</v>
+        <v>0.47333362304166088</v>
       </c>
       <c r="D20">
-        <v>0.02069596920067582</v>
+        <v>2.0695969200675821E-2</v>
       </c>
       <c r="E20">
         <v>0.9496984792962575</v>
       </c>
       <c r="F20">
-        <v>0.2582113599210101</v>
+        <v>0.25821135992101008</v>
       </c>
       <c r="G20">
         <v>0.9496984792962575</v>
       </c>
       <c r="H20">
-        <v>0.2782835208304184</v>
+        <v>0.27828352083041841</v>
       </c>
       <c r="I20">
-        <v>0.4635051192485715</v>
+        <v>0.46350511924857152</v>
       </c>
       <c r="J20">
-        <v>0.0129884240670082</v>
+        <v>1.2988424067008199E-2</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2037,28 +2100,28 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0.06505624804797761</v>
+        <v>6.5056248047977605E-2</v>
       </c>
       <c r="C21">
-        <v>0.1243349098295441</v>
+        <v>0.12433490982954409</v>
       </c>
       <c r="D21">
-        <v>0.009254256661935361</v>
+        <v>9.2542566619353613E-3</v>
       </c>
       <c r="E21">
-        <v>0.9999999999999998</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="F21">
-        <v>0.06505624804797762</v>
+        <v>6.5056248047977619E-2</v>
       </c>
       <c r="G21">
-        <v>0.9999999999999998</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="H21">
-        <v>0.454550291773222</v>
+        <v>0.45455029177322198</v>
       </c>
       <c r="I21">
-        <v>0.4803934601788004</v>
+        <v>0.48039346017880041</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2069,10 +2132,10 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0.06301143701556665</v>
+        <v>6.3011437015566649E-2</v>
       </c>
       <c r="C22">
-        <v>0.06419632518796425</v>
+        <v>6.4196325187964254E-2</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2081,19 +2144,19 @@
         <v>0.1184264788248296</v>
       </c>
       <c r="F22">
-        <v>0.532072199062593</v>
+        <v>0.53207219906259295</v>
       </c>
       <c r="G22">
         <v>0.1184264788248296</v>
       </c>
       <c r="H22">
-        <v>0.4679278009374072</v>
+        <v>0.46792780093740721</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4690607620470262</v>
+        <v>0.46906076204702618</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2104,25 +2167,25 @@
         <v>0.1089113892655123</v>
       </c>
       <c r="C23">
-        <v>0.06052364782296744</v>
+        <v>6.0523647822967437E-2</v>
       </c>
       <c r="D23">
-        <v>0.9593916506718768</v>
+        <v>0.95939165067187682</v>
       </c>
       <c r="E23">
         <v>0.2296392929454045</v>
       </c>
       <c r="F23">
-        <v>0.4742715755156303</v>
+        <v>0.47427157551563032</v>
       </c>
       <c r="G23">
         <v>0.2296392929454045</v>
       </c>
       <c r="H23">
-        <v>0.5063874584683571</v>
+        <v>0.50638745846835709</v>
       </c>
       <c r="I23">
-        <v>0.01934096601601271</v>
+        <v>1.934096601601271E-2</v>
       </c>
       <c r="J23">
         <v>0.3653601862501179</v>
@@ -2133,31 +2196,31 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0.1735473354921274</v>
+        <v>0.17354733549212739</v>
       </c>
       <c r="C24">
-        <v>0.4439979031479712</v>
+        <v>0.44399790314797122</v>
       </c>
       <c r="D24">
-        <v>0.2239705183368988</v>
+        <v>0.22397051833689879</v>
       </c>
       <c r="E24">
         <v>0.6156033711375738</v>
       </c>
       <c r="F24">
-        <v>0.3386356169736673</v>
+        <v>0.33863561697366729</v>
       </c>
       <c r="G24">
         <v>0.6156033711375738</v>
       </c>
       <c r="H24">
-        <v>0.2914182669662937</v>
+        <v>0.29141826696629369</v>
       </c>
       <c r="I24">
-        <v>0.369946116060039</v>
+        <v>0.36994611606003902</v>
       </c>
       <c r="J24">
-        <v>0.1650882814815399</v>
+        <v>0.16508828148153989</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2165,45 +2228,51 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0.08383354300863312</v>
+        <v>8.3833543008633118E-2</v>
       </c>
       <c r="C25">
-        <v>0.2877144266339148</v>
+        <v>0.28771442663391478</v>
       </c>
       <c r="D25">
-        <v>0.3334936959749158</v>
+        <v>0.33349369597491579</v>
       </c>
       <c r="E25">
-        <v>0.2704185363556625</v>
+        <v>0.27041853635566249</v>
       </c>
       <c r="F25">
-        <v>0.1935192291954649</v>
+        <v>0.19351922919546491</v>
       </c>
       <c r="G25">
-        <v>0.2704185363556625</v>
+        <v>0.27041853635566249</v>
       </c>
       <c r="H25">
-        <v>0.1496720116632186</v>
+        <v>0.14967201166321861</v>
       </c>
       <c r="I25">
         <v>0.1598895208528513</v>
       </c>
       <c r="J25">
-        <v>0.1734762420564313</v>
+        <v>0.17347624205643131</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
@@ -2239,31 +2308,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.2268368987314698</v>
+        <v>0.22683689873146981</v>
       </c>
       <c r="C2">
-        <v>0.9999999999999998</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="D2">
-        <v>0.03353229637857793</v>
+        <v>3.3532296378577929E-2</v>
       </c>
       <c r="E2">
-        <v>0.4179306501127882</v>
+        <v>0.41793065011278818</v>
       </c>
       <c r="F2">
-        <v>0.5427620555473801</v>
+        <v>0.54276205554738011</v>
       </c>
       <c r="G2">
-        <v>0.4179306501127882</v>
+        <v>0.41793065011278818</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4572379444526197</v>
+        <v>0.45723794445261973</v>
       </c>
       <c r="J2">
-        <v>0.3159251568159102</v>
+        <v>0.31592515681591021</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2271,31 +2340,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.2772194564907606</v>
+        <v>0.27721945649076057</v>
       </c>
       <c r="C3">
-        <v>0.6829916501381195</v>
+        <v>0.68299165013811947</v>
       </c>
       <c r="D3">
-        <v>0.08270514041016666</v>
+        <v>8.2705140410166661E-2</v>
       </c>
       <c r="E3">
-        <v>0.6865364057546534</v>
+        <v>0.68653640575465336</v>
       </c>
       <c r="F3">
-        <v>0.4037942549980812</v>
+        <v>0.40379425499808119</v>
       </c>
       <c r="G3">
-        <v>0.6865364057546534</v>
+        <v>0.68653640575465336</v>
       </c>
       <c r="H3">
-        <v>0.1695726503841828</v>
+        <v>0.16957265038418279</v>
       </c>
       <c r="I3">
-        <v>0.426633094617736</v>
+        <v>0.42663309461773602</v>
       </c>
       <c r="J3">
-        <v>0.1265747985073206</v>
+        <v>0.12657479850732059</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2306,28 +2375,28 @@
         <v>0.1024466776396321</v>
       </c>
       <c r="C4">
-        <v>0.1507496279756851</v>
+        <v>0.15074962797568511</v>
       </c>
       <c r="D4">
-        <v>-0.0002161797337389088</v>
+        <v>-2.1617973373890879E-4</v>
       </c>
       <c r="E4">
-        <v>0.9027490321184098</v>
+        <v>0.90274903211840984</v>
       </c>
       <c r="F4">
         <v>0.1134830102218205</v>
       </c>
       <c r="G4">
-        <v>0.9027490321184098</v>
+        <v>0.90274903211840984</v>
       </c>
       <c r="H4">
-        <v>0.4265536287563321</v>
+        <v>0.42655362875633213</v>
       </c>
       <c r="I4">
-        <v>0.4599633610218474</v>
+        <v>0.45996336102184737</v>
       </c>
       <c r="J4">
-        <v>0.01103633258218843</v>
+        <v>1.1036332582188431E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2335,31 +2404,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.1635073764795213</v>
+        <v>0.16350737647952129</v>
       </c>
       <c r="C5">
-        <v>0.4191267237389544</v>
+        <v>0.41912672373895438</v>
       </c>
       <c r="D5">
-        <v>0.02308370458708987</v>
+        <v>2.308370458708987E-2</v>
       </c>
       <c r="E5">
-        <v>0.6749766866597037</v>
+        <v>0.67497668665970367</v>
       </c>
       <c r="F5">
-        <v>0.2422415169458366</v>
+        <v>0.24224151694583659</v>
       </c>
       <c r="G5">
-        <v>0.6749766866597037</v>
+        <v>0.67497668665970367</v>
       </c>
       <c r="H5">
-        <v>0.2960374653970032</v>
+        <v>0.29603746539700321</v>
       </c>
       <c r="I5">
-        <v>0.4617210176571601</v>
+        <v>0.46172101765716012</v>
       </c>
       <c r="J5">
-        <v>0.07873414046631536</v>
+        <v>7.8734140466315355E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2367,31 +2436,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.2886500811449846</v>
+        <v>0.28865008114498458</v>
       </c>
       <c r="C6">
-        <v>0.8864984897924035</v>
+        <v>0.88649848979240353</v>
       </c>
       <c r="D6">
-        <v>0.0605882390657452</v>
+        <v>6.0588239065745203E-2</v>
       </c>
       <c r="E6">
-        <v>0.5716613012550844</v>
+        <v>0.57166130125508441</v>
       </c>
       <c r="F6">
-        <v>0.5049319947165435</v>
+        <v>0.50493199471654349</v>
       </c>
       <c r="G6">
-        <v>0.5716613012550844</v>
+        <v>0.57166130125508441</v>
       </c>
       <c r="H6">
-        <v>0.06106609245485806</v>
+        <v>6.1066092454858063E-2</v>
       </c>
       <c r="I6">
-        <v>0.4340019128285985</v>
+        <v>0.43400191282859851</v>
       </c>
       <c r="J6">
-        <v>0.2162819135715588</v>
+        <v>0.21628191357155879</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2399,31 +2468,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.179546741968282</v>
+        <v>0.17954674196828199</v>
       </c>
       <c r="C7">
-        <v>0.3144928792935622</v>
+        <v>0.31449287929356218</v>
       </c>
       <c r="D7">
-        <v>0.009665159140852728</v>
+        <v>9.6651591408527283E-3</v>
       </c>
       <c r="E7">
-        <v>0.8743265199837851</v>
+        <v>0.87432651998378508</v>
       </c>
       <c r="F7">
-        <v>0.2053543360112327</v>
+        <v>0.20535433601123271</v>
       </c>
       <c r="G7">
-        <v>0.8743265199837851</v>
+        <v>0.87432651998378508</v>
       </c>
       <c r="H7">
-        <v>0.3458579558274698</v>
+        <v>0.34585795582746981</v>
       </c>
       <c r="I7">
-        <v>0.4487877081612975</v>
+        <v>0.44878770816129748</v>
       </c>
       <c r="J7">
-        <v>0.02580759404295074</v>
+        <v>2.580759404295074E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2431,31 +2500,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.1842041715877921</v>
+        <v>0.18420417158779209</v>
       </c>
       <c r="C8">
-        <v>0.455423803620318</v>
+        <v>0.45542380362031798</v>
       </c>
       <c r="D8">
-        <v>0.01572529439086132</v>
+        <v>1.572529439086132E-2</v>
       </c>
       <c r="E8">
-        <v>0.8647315941127883</v>
+        <v>0.86473159411278833</v>
       </c>
       <c r="F8">
-        <v>0.21301889839793</v>
+        <v>0.21301889839793001</v>
       </c>
       <c r="G8">
-        <v>0.8647315941127883</v>
+        <v>0.86473159411278833</v>
       </c>
       <c r="H8">
-        <v>0.2878941120043481</v>
+        <v>0.28789411200434811</v>
       </c>
       <c r="I8">
-        <v>0.4990869895977219</v>
+        <v>0.49908698959772191</v>
       </c>
       <c r="J8">
-        <v>0.0288147268101379</v>
+        <v>2.88147268101379E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2463,31 +2532,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.1946715118708842</v>
+        <v>0.19467151187088419</v>
       </c>
       <c r="C9">
-        <v>0.5969858399201433</v>
+        <v>0.59698583992014331</v>
       </c>
       <c r="D9">
-        <v>0.04573344018902618</v>
+        <v>4.5733440189026177E-2</v>
       </c>
       <c r="E9">
-        <v>0.5792923761432628</v>
+        <v>0.57929237614326279</v>
       </c>
       <c r="F9">
-        <v>0.3360505331814357</v>
+        <v>0.33605053318143568</v>
       </c>
       <c r="G9">
-        <v>0.5792923761432628</v>
+        <v>0.57929237614326279</v>
       </c>
       <c r="H9">
-        <v>0.2118126919865896</v>
+        <v>0.21181269198658961</v>
       </c>
       <c r="I9">
-        <v>0.4521367748319747</v>
+        <v>0.45213677483197467</v>
       </c>
       <c r="J9">
-        <v>0.1413790213105515</v>
+        <v>0.14137902131055149</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2495,31 +2564,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.2025967889809434</v>
+        <v>0.20259678898094341</v>
       </c>
       <c r="C10">
-        <v>0.491390692459187</v>
+        <v>0.49139069245918698</v>
       </c>
       <c r="D10">
-        <v>0.07884364931139941</v>
+        <v>7.8843649311399408E-2</v>
       </c>
       <c r="E10">
-        <v>0.6795497727529148</v>
+        <v>0.67954977275291484</v>
       </c>
       <c r="F10">
-        <v>0.2981338484747134</v>
+        <v>0.29813384847471341</v>
       </c>
       <c r="G10">
-        <v>0.6795497727529148</v>
+        <v>0.67954977275291484</v>
       </c>
       <c r="H10">
-        <v>0.2703728162183996</v>
+        <v>0.27037281621839959</v>
       </c>
       <c r="I10">
-        <v>0.4314933353068869</v>
+        <v>0.43149333530688688</v>
       </c>
       <c r="J10">
-        <v>0.09553705949376996</v>
+        <v>9.5537059493769963E-2</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2527,31 +2596,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.1574099728303398</v>
+        <v>0.15740997283033981</v>
       </c>
       <c r="C11">
-        <v>0.8619626924562159</v>
+        <v>0.86196269245621593</v>
       </c>
       <c r="D11">
-        <v>0.01096540017160358</v>
+        <v>1.096540017160358E-2</v>
       </c>
       <c r="E11">
-        <v>0.4271037136161696</v>
+        <v>0.42710371361616961</v>
       </c>
       <c r="F11">
-        <v>0.3685521052898202</v>
+        <v>0.36855210528982019</v>
       </c>
       <c r="G11">
-        <v>0.4271037136161696</v>
+        <v>0.42710371361616961</v>
       </c>
       <c r="H11">
-        <v>0.0580038963574408</v>
+        <v>5.8003896357440798E-2</v>
       </c>
       <c r="I11">
-        <v>0.573443998352739</v>
+        <v>0.57344399835273896</v>
       </c>
       <c r="J11">
-        <v>0.2111421324594805</v>
+        <v>0.21114213245948049</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2559,19 +2628,19 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.3411433070340816</v>
+        <v>0.34114330703408158</v>
       </c>
       <c r="C12">
         <v>0.6248055426452882</v>
       </c>
       <c r="D12">
-        <v>0.005739092094087749</v>
+        <v>5.7390920940877492E-3</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.3411433070340816</v>
+        <v>0.34114330703408158</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -2580,7 +2649,7 @@
         <v>0.2032784918971812</v>
       </c>
       <c r="I12">
-        <v>0.4555782010687373</v>
+        <v>0.45557820106873731</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -2591,31 +2660,31 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.04698104744614357</v>
+        <v>4.6981047446143571E-2</v>
       </c>
       <c r="C13">
-        <v>0.1418477522810175</v>
+        <v>0.14184775228101751</v>
       </c>
       <c r="D13">
-        <v>0.7429478599096254</v>
+        <v>0.74294785990962542</v>
       </c>
       <c r="E13">
         <v>0.1116675951923084</v>
       </c>
       <c r="F13">
-        <v>0.4207222996540324</v>
+        <v>0.42072229965403241</v>
       </c>
       <c r="G13">
         <v>0.1116675951923084</v>
       </c>
       <c r="H13">
-        <v>0.4600152834698049</v>
+        <v>0.46001528346980491</v>
       </c>
       <c r="I13">
-        <v>0.1192624168761627</v>
+        <v>0.11926241687616269</v>
       </c>
       <c r="J13">
-        <v>0.3737412522078888</v>
+        <v>0.37374125220788879</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2655,31 +2724,31 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.1714259270880475</v>
+        <v>0.17142592708804749</v>
       </c>
       <c r="C15">
-        <v>0.4318531929974611</v>
+        <v>0.43185319299746111</v>
       </c>
       <c r="D15">
-        <v>0.1141419261488597</v>
+        <v>0.11414192614885969</v>
       </c>
       <c r="E15">
-        <v>0.6099426583518859</v>
+        <v>0.60994265835188588</v>
       </c>
       <c r="F15">
-        <v>0.2810525296775505</v>
+        <v>0.28105252967755051</v>
       </c>
       <c r="G15">
-        <v>0.6099426583518859</v>
+        <v>0.60994265835188588</v>
       </c>
       <c r="H15">
-        <v>0.2984786282017203</v>
+        <v>0.29847862820172028</v>
       </c>
       <c r="I15">
-        <v>0.4204688421207292</v>
+        <v>0.42046884212072921</v>
       </c>
       <c r="J15">
-        <v>0.109626602589503</v>
+        <v>0.10962660258950301</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2687,31 +2756,31 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.1342228376798882</v>
+        <v>0.13422283767988821</v>
       </c>
       <c r="C16">
-        <v>0.09112574841126249</v>
+        <v>9.1125748411262489E-2</v>
       </c>
       <c r="D16">
-        <v>0.3606760489836846</v>
+        <v>0.36067604898368461</v>
       </c>
       <c r="E16">
-        <v>0.6214936847997322</v>
+        <v>0.62149368479973222</v>
       </c>
       <c r="F16">
         <v>0.2159681441061459</v>
       </c>
       <c r="G16">
-        <v>0.6214936847997322</v>
+        <v>0.62149368479973222</v>
       </c>
       <c r="H16">
-        <v>0.4879244068806156</v>
+        <v>0.48792440688061561</v>
       </c>
       <c r="I16">
-        <v>0.2961074490132385</v>
+        <v>0.29610744901323849</v>
       </c>
       <c r="J16">
-        <v>0.08174530642625771</v>
+        <v>8.1745306426257713E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2719,31 +2788,31 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.08462201788609364</v>
+        <v>8.4622017886093637E-2</v>
       </c>
       <c r="C17">
         <v>0.1815335340507955</v>
       </c>
       <c r="D17">
-        <v>0.08880187442577661</v>
+        <v>8.8801874425776611E-2</v>
       </c>
       <c r="E17">
-        <v>0.6127585569374324</v>
+        <v>0.61275855693743242</v>
       </c>
       <c r="F17">
-        <v>0.138100099832199</v>
+        <v>0.13810009983219901</v>
       </c>
       <c r="G17">
-        <v>0.6127585569374324</v>
+        <v>0.61275855693743242</v>
       </c>
       <c r="H17">
-        <v>0.4195151889547761</v>
+        <v>0.41951518895477607</v>
       </c>
       <c r="I17">
-        <v>0.4423847112130248</v>
+        <v>0.44238471121302481</v>
       </c>
       <c r="J17">
-        <v>0.05347808194610541</v>
+        <v>5.3478081946105413E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2751,31 +2820,31 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.04345971027892451</v>
+        <v>4.3459710278924507E-2</v>
       </c>
       <c r="C18">
-        <v>0.353369636712293</v>
+        <v>0.35336963671229299</v>
       </c>
       <c r="D18">
-        <v>0.03032026941478206</v>
+        <v>3.032026941478206E-2</v>
       </c>
       <c r="E18">
-        <v>0.770812961730917</v>
+        <v>0.77081296173091696</v>
       </c>
       <c r="F18">
-        <v>0.05638165474193967</v>
+        <v>5.6381654741939673E-2</v>
       </c>
       <c r="G18">
-        <v>0.770812961730917</v>
+        <v>0.77081296173091696</v>
       </c>
       <c r="H18">
-        <v>0.333918884793916</v>
+        <v>0.33391888479391602</v>
       </c>
       <c r="I18">
-        <v>0.6096994604641444</v>
+        <v>0.60969946046414436</v>
       </c>
       <c r="J18">
-        <v>0.01292194446301515</v>
+        <v>1.292194446301515E-2</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2783,31 +2852,31 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.133082866660589</v>
+        <v>0.13308286666058899</v>
       </c>
       <c r="C19">
-        <v>0.6203001885926759</v>
+        <v>0.62030018859267588</v>
       </c>
       <c r="D19">
-        <v>0.0233715430407432</v>
+        <v>2.3371543040743199E-2</v>
       </c>
       <c r="E19">
-        <v>0.3796418908690378</v>
+        <v>0.37964189086903782</v>
       </c>
       <c r="F19">
-        <v>0.3505484243478746</v>
+        <v>0.35054842434787459</v>
       </c>
       <c r="G19">
-        <v>0.3796418908690378</v>
+        <v>0.37964189086903782</v>
       </c>
       <c r="H19">
         <v>0.2081191403069414</v>
       </c>
       <c r="I19">
-        <v>0.441332435345184</v>
+        <v>0.44133243534518402</v>
       </c>
       <c r="J19">
-        <v>0.2174655576872856</v>
+        <v>0.21746555768728559</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2815,31 +2884,31 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.2453718782202678</v>
+        <v>0.24537187822026779</v>
       </c>
       <c r="C20">
-        <v>0.4714104655895706</v>
+        <v>0.47141046558957062</v>
       </c>
       <c r="D20">
-        <v>0.02061945614135863</v>
+        <v>2.0619456141358631E-2</v>
       </c>
       <c r="E20">
-        <v>0.949367245224541</v>
+        <v>0.94936724522454097</v>
       </c>
       <c r="F20">
-        <v>0.2584583357541826</v>
+        <v>0.25845833575418259</v>
       </c>
       <c r="G20">
-        <v>0.949367245224541</v>
+        <v>0.94936724522454097</v>
       </c>
       <c r="H20">
-        <v>0.2788930979890649</v>
+        <v>0.27889309798906492</v>
       </c>
       <c r="I20">
-        <v>0.4626485662567525</v>
+        <v>0.46264856625675249</v>
       </c>
       <c r="J20">
-        <v>0.01308645753391477</v>
+        <v>1.3086457533914769E-2</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2847,28 +2916,28 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0.06506995864935353</v>
+        <v>6.5069958649353526E-2</v>
       </c>
       <c r="C21">
-        <v>0.1168931122066258</v>
+        <v>0.11689311220662579</v>
       </c>
       <c r="D21">
-        <v>0.009262912373442012</v>
+        <v>9.2629123734420116E-3</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21">
-        <v>0.06506995864935353</v>
+        <v>6.5069958649353526E-2</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>0.4579465690677654</v>
+        <v>0.45794656906776537</v>
       </c>
       <c r="I21">
-        <v>0.476983472282881</v>
+        <v>0.47698347228288102</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2879,31 +2948,31 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0.06313181328414963</v>
+        <v>6.3131813284149629E-2</v>
       </c>
       <c r="C22">
-        <v>0.05780813650340148</v>
+        <v>5.7808136503401483E-2</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22">
-        <v>0.1193693478279196</v>
+        <v>0.11936934782791959</v>
       </c>
       <c r="F22">
-        <v>0.5288779274823482</v>
+        <v>0.52887792748234819</v>
       </c>
       <c r="G22">
-        <v>0.1193693478279196</v>
+        <v>0.11936934782791959</v>
       </c>
       <c r="H22">
-        <v>0.471122072517652</v>
+        <v>0.47112207251765198</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4657461141981984</v>
+        <v>0.46574611419819839</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2914,28 +2983,28 @@
         <v>0.1090594948946657</v>
       </c>
       <c r="C23">
-        <v>0.03230226993235325</v>
+        <v>3.2302269932353252E-2</v>
       </c>
       <c r="D23">
-        <v>0.9839919703171001</v>
+        <v>0.98399197031710006</v>
       </c>
       <c r="E23">
-        <v>0.231054329855447</v>
+        <v>0.23105432985544699</v>
       </c>
       <c r="F23">
-        <v>0.4720080119809739</v>
+        <v>0.47200801198097392</v>
       </c>
       <c r="G23">
-        <v>0.231054329855447</v>
+        <v>0.23105432985544699</v>
       </c>
       <c r="H23">
-        <v>0.5205956284531116</v>
+        <v>0.52059562845311158</v>
       </c>
       <c r="I23">
-        <v>0.007396359565914445</v>
+        <v>7.3963595659144454E-3</v>
       </c>
       <c r="J23">
-        <v>0.3629485170863082</v>
+        <v>0.36294851708630821</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2946,28 +3015,28 @@
         <v>0.1706414014825173</v>
       </c>
       <c r="C24">
-        <v>0.4537669081507879</v>
+        <v>0.45376690815078791</v>
       </c>
       <c r="D24">
-        <v>0.2154772316709566</v>
+        <v>0.21547723167095659</v>
       </c>
       <c r="E24">
-        <v>0.6102007554121521</v>
+        <v>0.61020075541215213</v>
       </c>
       <c r="F24">
-        <v>0.3343933294111581</v>
+        <v>0.33439332941115812</v>
       </c>
       <c r="G24">
-        <v>0.6102007554121521</v>
+        <v>0.61020075541215213</v>
       </c>
       <c r="H24">
-        <v>0.2848626682690533</v>
+        <v>0.28486266826905332</v>
       </c>
       <c r="I24">
-        <v>0.3807440023197886</v>
+        <v>0.38074400231978861</v>
       </c>
       <c r="J24">
-        <v>0.1637519279286407</v>
+        <v>0.16375192792864071</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2975,25 +3044,25 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0.08506599135152502</v>
+        <v>8.5065991351525025E-2</v>
       </c>
       <c r="C25">
         <v>0.2916358510540773</v>
       </c>
       <c r="D25">
-        <v>0.3408869577929612</v>
+        <v>0.34088695779296119</v>
       </c>
       <c r="E25">
-        <v>0.2564316473078111</v>
+        <v>0.25643164730781109</v>
       </c>
       <c r="F25">
-        <v>0.1963829377096221</v>
+        <v>0.19638293770962209</v>
       </c>
       <c r="G25">
-        <v>0.2564316473078111</v>
+        <v>0.25643164730781109</v>
       </c>
       <c r="H25">
-        <v>0.1520940329061723</v>
+        <v>0.15209403290617229</v>
       </c>
       <c r="I25">
         <v>0.1713074289137802</v>
@@ -3003,17 +3072,23 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
@@ -3055,25 +3130,25 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.03367955980608883</v>
+        <v>3.3679559806088832E-2</v>
       </c>
       <c r="E2">
-        <v>0.4178738642570313</v>
+        <v>0.41787386425703132</v>
       </c>
       <c r="F2">
-        <v>0.5422332955467051</v>
+        <v>0.54223329554670507</v>
       </c>
       <c r="G2">
-        <v>0.4178738642570313</v>
+        <v>0.41787386425703132</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.457766704453295</v>
+        <v>0.45776670445329498</v>
       </c>
       <c r="J2">
-        <v>0.3156481730119572</v>
+        <v>0.31564817301195719</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3081,31 +3156,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.2923767073388502</v>
+        <v>0.29237670733885018</v>
       </c>
       <c r="C3">
-        <v>0.761576656904785</v>
+        <v>0.76157665690478504</v>
       </c>
       <c r="D3">
-        <v>0.07696851197500802</v>
+        <v>7.6968511975008022E-2</v>
       </c>
       <c r="E3">
-        <v>0.6900869768758116</v>
+        <v>0.69008697687581155</v>
       </c>
       <c r="F3">
         <v>0.4236809520192793</v>
       </c>
       <c r="G3">
-        <v>0.6900869768758116</v>
+        <v>0.69008697687581155</v>
       </c>
       <c r="H3">
         <v>0.1219138103597729</v>
       </c>
       <c r="I3">
-        <v>0.4441298928227509</v>
+        <v>0.44412989282275089</v>
       </c>
       <c r="J3">
-        <v>0.1313042446804289</v>
+        <v>0.13130424468042889</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3113,31 +3188,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.1149312645413016</v>
+        <v>0.11493126454130161</v>
       </c>
       <c r="C4">
-        <v>0.2144844378013734</v>
+        <v>0.21448443780137341</v>
       </c>
       <c r="D4">
         <v>0.1176527144379093</v>
       </c>
       <c r="E4">
-        <v>0.6878689913914675</v>
+        <v>0.68786899139146751</v>
       </c>
       <c r="F4">
-        <v>0.1670830724840346</v>
+        <v>0.16708307248403459</v>
       </c>
       <c r="G4">
-        <v>0.6878689913914675</v>
+        <v>0.68786899139146751</v>
       </c>
       <c r="H4">
-        <v>0.4096164147555679</v>
+        <v>0.40961641475556793</v>
       </c>
       <c r="I4">
-        <v>0.4233005127603975</v>
+        <v>0.42330051276039748</v>
       </c>
       <c r="J4">
-        <v>0.05215180794273295</v>
+        <v>5.2151807942732949E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3145,10 +3220,10 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.8646829151140292</v>
+        <v>0.86468291511402917</v>
       </c>
       <c r="C5">
-        <v>0.9999999999999996</v>
+        <v>0.99999999999999956</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -3157,7 +3232,7 @@
         <v>0.999999999999999</v>
       </c>
       <c r="F5">
-        <v>0.8646829151140303</v>
+        <v>0.86468291511403028</v>
       </c>
       <c r="G5">
         <v>0.999999999999999</v>
@@ -3177,31 +3252,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.315945124875991</v>
+        <v>0.31594512487599102</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.05646214453042132</v>
+        <v>5.6462144530421317E-2</v>
       </c>
       <c r="E6">
-        <v>0.5885718866534017</v>
+        <v>0.58857188665340165</v>
       </c>
       <c r="F6">
-        <v>0.5367995516612992</v>
+        <v>0.53679955166129922</v>
       </c>
       <c r="G6">
-        <v>0.5885718866534017</v>
+        <v>0.58857188665340165</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.452394886856504</v>
+        <v>0.45239488685650397</v>
       </c>
       <c r="J6">
-        <v>0.2208544267853085</v>
+        <v>0.22085442678530851</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3209,28 +3284,28 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.4661370428457635</v>
+        <v>0.46613704284576352</v>
       </c>
       <c r="C7">
         <v>0.856172796741832</v>
       </c>
       <c r="D7">
-        <v>1.016582567792225</v>
+        <v>1.0165825677922249</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.4661370428457635</v>
+        <v>0.46613704284576352</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.1442981875447027</v>
+        <v>0.14429818754470269</v>
       </c>
       <c r="I7">
-        <v>0.006240044048573812</v>
+        <v>6.2400440485738118E-3</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -3247,25 +3322,25 @@
         <v>0.4587882446936663</v>
       </c>
       <c r="D8">
-        <v>0.005765322338474699</v>
+        <v>5.7653223384746986E-3</v>
       </c>
       <c r="E8">
-        <v>0.7961601249853916</v>
+        <v>0.79616012498539157</v>
       </c>
       <c r="F8">
         <v>0.2364939248352452</v>
       </c>
       <c r="G8">
-        <v>0.7961601249853916</v>
+        <v>0.79616012498539157</v>
       </c>
       <c r="H8">
-        <v>0.2770925353263973</v>
+        <v>0.27709253532639733</v>
       </c>
       <c r="I8">
-        <v>0.4688631923525716</v>
+        <v>0.46886319235257162</v>
       </c>
       <c r="J8">
-        <v>0.04820689208013058</v>
+        <v>4.8206892080130577E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3282,22 +3357,22 @@
         <v>-0.4550651080926193</v>
       </c>
       <c r="E9">
-        <v>0.3767034446700052</v>
+        <v>0.37670344467000522</v>
       </c>
       <c r="F9">
-        <v>0.5518753316333641</v>
+        <v>0.55187533163336411</v>
       </c>
       <c r="G9">
-        <v>0.3767034446700052</v>
+        <v>0.37670344467000522</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3271700706188647</v>
+        <v>0.32717007061886472</v>
       </c>
       <c r="J9">
-        <v>0.3439819931786743</v>
+        <v>0.34398199317867428</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3305,31 +3380,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.2042834893599179</v>
+        <v>0.20428348935991791</v>
       </c>
       <c r="C10">
-        <v>0.537053801288972</v>
+        <v>0.53705380128897195</v>
       </c>
       <c r="D10">
-        <v>0.07351311902640013</v>
+        <v>7.3513119026400134E-2</v>
       </c>
       <c r="E10">
-        <v>0.6694137055660794</v>
+        <v>0.66941370556607938</v>
       </c>
       <c r="F10">
-        <v>0.3051677724273194</v>
+        <v>0.30516777242731941</v>
       </c>
       <c r="G10">
-        <v>0.6694137055660794</v>
+        <v>0.66941370556607938</v>
       </c>
       <c r="H10">
-        <v>0.2361978318526211</v>
+        <v>0.23619783185262111</v>
       </c>
       <c r="I10">
-        <v>0.4459876002161111</v>
+        <v>0.44598760021611111</v>
       </c>
       <c r="J10">
-        <v>0.1008842830674015</v>
+        <v>0.10088428306740151</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3337,31 +3412,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.1820900907768057</v>
+        <v>0.18209009077680571</v>
       </c>
       <c r="C11">
-        <v>0.8611640697085358</v>
+        <v>0.86116406970853576</v>
       </c>
       <c r="D11">
-        <v>0.01097501994963278</v>
+        <v>1.0975019949632779E-2</v>
       </c>
       <c r="E11">
-        <v>0.4952731954815923</v>
+        <v>0.49527319548159232</v>
       </c>
       <c r="F11">
-        <v>0.3676558562889684</v>
+        <v>0.36765585628896841</v>
       </c>
       <c r="G11">
-        <v>0.4952731954815923</v>
+        <v>0.49527319548159232</v>
       </c>
       <c r="H11">
-        <v>0.05869089967281027</v>
+        <v>5.8690899672810271E-2</v>
       </c>
       <c r="I11">
-        <v>0.5736532440382213</v>
+        <v>0.57365324403822127</v>
       </c>
       <c r="J11">
-        <v>0.1855657655121627</v>
+        <v>0.18556576551216269</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3369,28 +3444,28 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.3404603241972284</v>
+        <v>0.34046032419722838</v>
       </c>
       <c r="C12">
         <v>0.6299890169268596</v>
       </c>
       <c r="D12">
-        <v>0.005728200489344206</v>
+        <v>5.7282004893442059E-3</v>
       </c>
       <c r="E12">
-        <v>1.000000000029372</v>
+        <v>1.0000000000293721</v>
       </c>
       <c r="F12">
-        <v>0.3404603241972284</v>
+        <v>0.34046032419722838</v>
       </c>
       <c r="G12">
-        <v>1.000000000029372</v>
+        <v>1.0000000000293721</v>
       </c>
       <c r="H12">
-        <v>0.200888911223791</v>
+        <v>0.20088891122379099</v>
       </c>
       <c r="I12">
-        <v>0.4586507645789806</v>
+        <v>0.45865076457898057</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -3401,7 +3476,7 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.5798443027082953</v>
+        <v>0.57984430270829534</v>
       </c>
       <c r="C13">
         <v>0.159728618963382</v>
@@ -3413,13 +3488,13 @@
         <v>1.000000000017174</v>
       </c>
       <c r="F13">
-        <v>0.5798443027083369</v>
+        <v>0.57984430270833687</v>
       </c>
       <c r="G13">
         <v>1.000000000017174</v>
       </c>
       <c r="H13">
-        <v>0.420155697291663</v>
+        <v>0.42015569729166302</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -3433,22 +3508,22 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.3037254697826166</v>
+        <v>0.30372546978261661</v>
       </c>
       <c r="C14">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>0.3037254697856538</v>
+        <v>0.30372546978565379</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3037254697856538</v>
+        <v>0.30372546978565379</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -3457,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.6962745302173834</v>
+        <v>0.69627453021738339</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3468,25 +3543,25 @@
         <v>0.1803316826443879</v>
       </c>
       <c r="C15">
-        <v>0.4327330585453192</v>
+        <v>0.43273305854531918</v>
       </c>
       <c r="D15">
         <v>0.1147304513458401</v>
       </c>
       <c r="E15">
-        <v>0.6414741561684369</v>
+        <v>0.64147415616843695</v>
       </c>
       <c r="F15">
-        <v>0.2811207293648967</v>
+        <v>0.28112072936489668</v>
       </c>
       <c r="G15">
-        <v>0.6414741561684369</v>
+        <v>0.64147415616843695</v>
       </c>
       <c r="H15">
-        <v>0.2984203076591525</v>
+        <v>0.29842030765915251</v>
       </c>
       <c r="I15">
-        <v>0.4204589629759509</v>
+        <v>0.42045896297595092</v>
       </c>
       <c r="J15">
         <v>0.1007890467205081</v>
@@ -3500,28 +3575,28 @@
         <v>0.1601721215787926</v>
       </c>
       <c r="C16">
-        <v>0.09560766950377671</v>
+        <v>9.5607669503776707E-2</v>
       </c>
       <c r="D16">
-        <v>0.3612890001565814</v>
+        <v>0.36128900015658139</v>
       </c>
       <c r="E16">
-        <v>0.7390173422483993</v>
+        <v>0.73901734224839932</v>
       </c>
       <c r="F16">
-        <v>0.2167366209551622</v>
+        <v>0.21673662095516219</v>
       </c>
       <c r="G16">
-        <v>0.7390173422483993</v>
+        <v>0.73901734224839932</v>
       </c>
       <c r="H16">
-        <v>0.4864306833508646</v>
+        <v>0.48643068335086459</v>
       </c>
       <c r="I16">
-        <v>0.2968326956939731</v>
+        <v>0.29683269569397308</v>
       </c>
       <c r="J16">
-        <v>0.05656449937636835</v>
+        <v>5.656449937636835E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -3529,31 +3604,31 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.08461464482471621</v>
+        <v>8.4614644824716215E-2</v>
       </c>
       <c r="C17">
-        <v>0.1911339301550249</v>
+        <v>0.19113393015502489</v>
       </c>
       <c r="D17">
-        <v>0.08892368827750904</v>
+        <v>8.8923688277509044E-2</v>
       </c>
       <c r="E17">
-        <v>0.610909048848234</v>
+        <v>0.61090904884823405</v>
       </c>
       <c r="F17">
         <v>0.1385061245865517</v>
       </c>
       <c r="G17">
-        <v>0.610909048848234</v>
+        <v>0.61090904884823405</v>
       </c>
       <c r="H17">
-        <v>0.4150770382017193</v>
+        <v>0.41507703820171932</v>
       </c>
       <c r="I17">
-        <v>0.446416837211729</v>
+        <v>0.44641683721172898</v>
       </c>
       <c r="J17">
-        <v>0.05389147976183549</v>
+        <v>5.389147976183549E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -3561,28 +3636,28 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.05250601279374933</v>
+        <v>5.2506012793749328E-2</v>
       </c>
       <c r="C18">
-        <v>0.08089001625070681</v>
+        <v>8.0890016250706812E-2</v>
       </c>
       <c r="D18">
-        <v>0.0305247442240196</v>
+        <v>3.0524744224019601E-2</v>
       </c>
       <c r="E18">
-        <v>1.000000000190531</v>
+        <v>1.0000000001905309</v>
       </c>
       <c r="F18">
-        <v>0.0525060127937453</v>
+        <v>5.2506012793745303E-2</v>
       </c>
       <c r="G18">
-        <v>1.000000000190531</v>
+        <v>1.0000000001905309</v>
       </c>
       <c r="H18">
-        <v>0.4667995239016409</v>
+        <v>0.46679952390164092</v>
       </c>
       <c r="I18">
-        <v>0.4806944633046138</v>
+        <v>0.48069446330461379</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -3593,31 +3668,31 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.1430104982697666</v>
+        <v>0.14301049826976661</v>
       </c>
       <c r="C19">
-        <v>0.6283180109068268</v>
+        <v>0.62831801090682682</v>
       </c>
       <c r="D19">
-        <v>0.02323160852745669</v>
+        <v>2.323160852745669E-2</v>
       </c>
       <c r="E19">
-        <v>0.4088693645982496</v>
+        <v>0.40886936459824957</v>
       </c>
       <c r="F19">
-        <v>0.3497706374122107</v>
+        <v>0.34977063741221071</v>
       </c>
       <c r="G19">
-        <v>0.4088693645982496</v>
+        <v>0.40886936459824957</v>
       </c>
       <c r="H19">
-        <v>0.2042015220138186</v>
+        <v>0.20420152201381861</v>
       </c>
       <c r="I19">
-        <v>0.4460278405739707</v>
+        <v>0.44602784057397071</v>
       </c>
       <c r="J19">
-        <v>0.206760139142444</v>
+        <v>0.20676013914244401</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3625,31 +3700,31 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.24631839513934</v>
+        <v>0.24631839513934001</v>
       </c>
       <c r="C20">
         <v>0.4992818947879063</v>
       </c>
       <c r="D20">
-        <v>0.01942141923362911</v>
+        <v>1.9421419233629111E-2</v>
       </c>
       <c r="E20">
-        <v>0.9418231809298362</v>
+        <v>0.94182318092983619</v>
       </c>
       <c r="F20">
-        <v>0.2615335873302211</v>
+        <v>0.26153358733022108</v>
       </c>
       <c r="G20">
-        <v>0.9418231809298362</v>
+        <v>0.94182318092983619</v>
       </c>
       <c r="H20">
-        <v>0.2548009134967673</v>
+        <v>0.25480091349676731</v>
       </c>
       <c r="I20">
-        <v>0.4685262511115401</v>
+        <v>0.46852625111154012</v>
       </c>
       <c r="J20">
-        <v>0.01521519219088117</v>
+        <v>1.5215192190881169E-2</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -3657,28 +3732,28 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0.06505624804797762</v>
+        <v>6.5056248047977619E-2</v>
       </c>
       <c r="C21">
-        <v>0.1243349098295441</v>
+        <v>0.12433490982954409</v>
       </c>
       <c r="D21">
-        <v>0.009254256661935361</v>
+        <v>9.2542566619353613E-3</v>
       </c>
       <c r="E21">
         <v>1.000000000153713</v>
       </c>
       <c r="F21">
-        <v>0.06505624804797762</v>
+        <v>6.5056248047977619E-2</v>
       </c>
       <c r="G21">
         <v>1.000000000153713</v>
       </c>
       <c r="H21">
-        <v>0.454550291773222</v>
+        <v>0.45455029177322198</v>
       </c>
       <c r="I21">
-        <v>0.4803934601788004</v>
+        <v>0.48039346017880041</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -3689,10 +3764,10 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0.5320721990625827</v>
+        <v>0.53207219906258274</v>
       </c>
       <c r="C22">
-        <v>0.06419632518796425</v>
+        <v>6.4196325187964254E-2</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -3701,13 +3776,13 @@
         <v>1.000000000018775</v>
       </c>
       <c r="F22">
-        <v>0.532072199062593</v>
+        <v>0.53207219906259295</v>
       </c>
       <c r="G22">
         <v>1.000000000018775</v>
       </c>
       <c r="H22">
-        <v>0.4679278009374072</v>
+        <v>0.46792780093740721</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -3724,28 +3799,28 @@
         <v>0.1245232518644723</v>
       </c>
       <c r="C23">
-        <v>0.06052364782296743</v>
+        <v>6.052364782296743E-2</v>
       </c>
       <c r="D23">
-        <v>0.9593916506718767</v>
+        <v>0.95939165067187671</v>
       </c>
       <c r="E23">
-        <v>0.2625568520139873</v>
+        <v>0.26255685201398732</v>
       </c>
       <c r="F23">
-        <v>0.4742715755156302</v>
+        <v>0.47427157551563021</v>
       </c>
       <c r="G23">
-        <v>0.2625568520139873</v>
+        <v>0.26255685201398732</v>
       </c>
       <c r="H23">
         <v>0.5063874584683572</v>
       </c>
       <c r="I23">
-        <v>0.01934096601601276</v>
+        <v>1.9340966016012762E-2</v>
       </c>
       <c r="J23">
-        <v>0.3497483236511578</v>
+        <v>0.34974832365115782</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -3753,31 +3828,31 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0.2670839672505063</v>
+        <v>0.26708396725050632</v>
       </c>
       <c r="C24">
-        <v>0.529817141182702</v>
+        <v>0.52981714118270196</v>
       </c>
       <c r="D24">
-        <v>0.2976831305159879</v>
+        <v>0.29768313051598788</v>
       </c>
       <c r="E24">
-        <v>0.7104694365855974</v>
+        <v>0.71046943658559736</v>
       </c>
       <c r="F24">
-        <v>0.3978949125832074</v>
+        <v>0.39789491258320742</v>
       </c>
       <c r="G24">
-        <v>0.7104694365855974</v>
+        <v>0.71046943658559736</v>
       </c>
       <c r="H24">
-        <v>0.2465204467195581</v>
+        <v>0.24652044671955811</v>
       </c>
       <c r="I24">
-        <v>0.3234931086278572</v>
+        <v>0.32349310862785718</v>
       </c>
       <c r="J24">
-        <v>0.1308109453326989</v>
+        <v>0.13081094533269891</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -3785,45 +3860,51 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0.1859719752087554</v>
+        <v>0.18597197520875541</v>
       </c>
       <c r="C25">
-        <v>0.3459830254047589</v>
+        <v>0.34598302540475889</v>
       </c>
       <c r="D25">
-        <v>0.4371167943740896</v>
+        <v>0.43711679437408962</v>
       </c>
       <c r="E25">
-        <v>0.2450352026364025</v>
+        <v>0.24503520263640249</v>
       </c>
       <c r="F25">
-        <v>0.2249040747191204</v>
+        <v>0.22490407471912041</v>
       </c>
       <c r="G25">
-        <v>0.2450352026364025</v>
+        <v>0.24503520263640249</v>
       </c>
       <c r="H25">
         <v>0.1774044022989662</v>
       </c>
       <c r="I25">
-        <v>0.197650365498072</v>
+        <v>0.19765036549807199</v>
       </c>
       <c r="J25">
-        <v>0.1646529195555093</v>
+        <v>0.16465291955550929</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
@@ -3859,31 +3940,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.2268368987314698</v>
+        <v>0.22683689873146981</v>
       </c>
       <c r="C2">
-        <v>0.9999999999999998</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="D2">
-        <v>0.03353229637857793</v>
+        <v>3.3532296378577929E-2</v>
       </c>
       <c r="E2">
-        <v>0.4179306501127882</v>
+        <v>0.41793065011278818</v>
       </c>
       <c r="F2">
-        <v>0.5427620555473801</v>
+        <v>0.54276205554738011</v>
       </c>
       <c r="G2">
-        <v>0.4179306501127882</v>
+        <v>0.41793065011278818</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4572379444526197</v>
+        <v>0.45723794445261973</v>
       </c>
       <c r="J2">
-        <v>0.3159251568159102</v>
+        <v>0.31592515681591021</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3891,28 +3972,28 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.2925978636662717</v>
+        <v>0.29259786366627172</v>
       </c>
       <c r="C3">
-        <v>0.7624547788586593</v>
+        <v>0.76245477885865931</v>
       </c>
       <c r="D3">
-        <v>0.07818496587787566</v>
+        <v>7.8184965877875656E-2</v>
       </c>
       <c r="E3">
-        <v>0.6902270680721218</v>
+        <v>0.69022706807212175</v>
       </c>
       <c r="F3">
-        <v>0.4239153710438058</v>
+        <v>0.42391537104380578</v>
       </c>
       <c r="G3">
-        <v>0.6902270680721218</v>
+        <v>0.69022706807212175</v>
       </c>
       <c r="H3">
-        <v>0.1216092031423509</v>
+        <v>0.12160920314235089</v>
       </c>
       <c r="I3">
-        <v>0.4442456442330519</v>
+        <v>0.44424564423305191</v>
       </c>
       <c r="J3">
         <v>0.131317507377534</v>
@@ -3923,31 +4004,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.1150063422704461</v>
+        <v>0.11500634227044609</v>
       </c>
       <c r="C4">
-        <v>0.2114164609021162</v>
+        <v>0.21141646090211619</v>
       </c>
       <c r="D4">
-        <v>0.116746196266856</v>
+        <v>0.11674619626685601</v>
       </c>
       <c r="E4">
-        <v>0.6899862296234017</v>
+        <v>0.68998622962340173</v>
       </c>
       <c r="F4">
-        <v>0.1666791847907128</v>
+        <v>0.16667918479071281</v>
       </c>
       <c r="G4">
-        <v>0.6899862296234017</v>
+        <v>0.68998622962340173</v>
       </c>
       <c r="H4">
-        <v>0.4104613121921818</v>
+        <v>0.41046131219218179</v>
       </c>
       <c r="I4">
-        <v>0.4228595030171053</v>
+        <v>0.42285950301710529</v>
       </c>
       <c r="J4">
-        <v>0.05167284252026664</v>
+        <v>5.1672842520266639E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3958,19 +4039,19 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0.9999999999999994</v>
+        <v>0.99999999999999944</v>
       </c>
       <c r="D5">
-        <v>1.000000000000001</v>
+        <v>1.0000000000000011</v>
       </c>
       <c r="E5">
-        <v>0.9999999999999991</v>
+        <v>0.99999999999999911</v>
       </c>
       <c r="F5">
-        <v>1.000000000000001</v>
+        <v>1.0000000000000011</v>
       </c>
       <c r="G5">
-        <v>0.9999999999999991</v>
+        <v>0.99999999999999911</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -3987,31 +4068,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.3162186850917625</v>
+        <v>0.31621868509176249</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.05735966118742666</v>
+        <v>5.7359661187426657E-2</v>
       </c>
       <c r="E6">
-        <v>0.5892366366822526</v>
+        <v>0.58923663668225257</v>
       </c>
       <c r="F6">
-        <v>0.5366582208334142</v>
+        <v>0.53665822083341419</v>
       </c>
       <c r="G6">
-        <v>0.5892366366822526</v>
+        <v>0.58923663668225257</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4525853879548236</v>
+        <v>0.45258538795482361</v>
       </c>
       <c r="J6">
-        <v>0.220439535741652</v>
+        <v>0.22043953574165201</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4019,25 +4100,25 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.4677348510714621</v>
+        <v>0.46773485107146212</v>
       </c>
       <c r="C7">
-        <v>0.8525556198384919</v>
+        <v>0.85255561983849193</v>
       </c>
       <c r="D7">
-        <v>1.000385923303538</v>
+        <v>1.0003859233035379</v>
       </c>
       <c r="E7">
-        <v>0.9999131555795637</v>
+        <v>0.99991315557956373</v>
       </c>
       <c r="F7">
-        <v>0.4676259558147718</v>
+        <v>0.46762595581477179</v>
       </c>
       <c r="G7">
-        <v>0.9999131555795637</v>
+        <v>0.99991315557956373</v>
       </c>
       <c r="H7">
-        <v>0.1473451135768473</v>
+        <v>0.14734511357684729</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -4051,31 +4132,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.1935646823115225</v>
+        <v>0.19356468231152249</v>
       </c>
       <c r="C8">
         <v>0.5258894051712526</v>
       </c>
       <c r="D8">
-        <v>0.01307194533459269</v>
+        <v>1.307194533459269E-2</v>
       </c>
       <c r="E8">
-        <v>0.8255819277892105</v>
+        <v>0.82558192778921047</v>
       </c>
       <c r="F8">
         <v>0.2344584780699607</v>
       </c>
       <c r="G8">
-        <v>0.8255819277892105</v>
+        <v>0.82558192778921047</v>
       </c>
       <c r="H8">
-        <v>0.2562122316333741</v>
+        <v>0.25621223163337409</v>
       </c>
       <c r="I8">
-        <v>0.4917542033211073</v>
+        <v>0.49175420332110731</v>
       </c>
       <c r="J8">
-        <v>0.04089379575843818</v>
+        <v>4.0893795758438177E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4083,31 +4164,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.2096504366835875</v>
+        <v>0.20965043668358749</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>-0.4504133346846882</v>
+        <v>-0.45041333468468819</v>
       </c>
       <c r="E9">
-        <v>0.3780816354678854</v>
+        <v>0.37808163546788542</v>
       </c>
       <c r="F9">
-        <v>0.5545110288790935</v>
+        <v>0.55451102887909354</v>
       </c>
       <c r="G9">
-        <v>0.3780816354678854</v>
+        <v>0.37808163546788542</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3235668400896107</v>
+        <v>0.32356684008961067</v>
       </c>
       <c r="J9">
-        <v>0.3448605921955061</v>
+        <v>0.34486059219550608</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4115,28 +4196,28 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.2044321393156127</v>
+        <v>0.20443213931561269</v>
       </c>
       <c r="C10">
-        <v>0.5399667314922216</v>
+        <v>0.53996673149222163</v>
       </c>
       <c r="D10">
-        <v>0.07456629810837172</v>
+        <v>7.4566298108371717E-2</v>
       </c>
       <c r="E10">
-        <v>0.6690554423510102</v>
+        <v>0.66905544235101022</v>
       </c>
       <c r="F10">
-        <v>0.3055533613137554</v>
+        <v>0.30555336131375538</v>
       </c>
       <c r="G10">
-        <v>0.6690554423510102</v>
+        <v>0.66905544235101022</v>
       </c>
       <c r="H10">
-        <v>0.234964084996438</v>
+        <v>0.23496408499643801</v>
       </c>
       <c r="I10">
-        <v>0.4468902784227242</v>
+        <v>0.44689027842272422</v>
       </c>
       <c r="J10">
         <v>0.1011212219981427</v>
@@ -4147,31 +4228,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.182469300987421</v>
+        <v>0.18246930098742101</v>
       </c>
       <c r="C11">
-        <v>0.8619626924562157</v>
+        <v>0.86196269245621571</v>
       </c>
       <c r="D11">
-        <v>0.01096540017160359</v>
+        <v>1.0965400171603591E-2</v>
       </c>
       <c r="E11">
-        <v>0.4950977036040307</v>
+        <v>0.49509770360403071</v>
       </c>
       <c r="F11">
-        <v>0.3685521052898204</v>
+        <v>0.36855210528982041</v>
       </c>
       <c r="G11">
-        <v>0.4950977036040307</v>
+        <v>0.49509770360403071</v>
       </c>
       <c r="H11">
-        <v>0.05800389635744091</v>
+        <v>5.8003896357440909E-2</v>
       </c>
       <c r="I11">
-        <v>0.5734439983527387</v>
+        <v>0.57344399835273874</v>
       </c>
       <c r="J11">
-        <v>0.1860828043023992</v>
+        <v>0.18608280430239921</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4179,19 +4260,19 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.3411433070340816</v>
+        <v>0.34114330703408158</v>
       </c>
       <c r="C12">
         <v>0.6248055426452882</v>
       </c>
       <c r="D12">
-        <v>0.005739092094087749</v>
+        <v>5.7390920940877492E-3</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.3411433070340816</v>
+        <v>0.34114330703408158</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -4200,7 +4281,7 @@
         <v>0.2032784918971812</v>
       </c>
       <c r="I12">
-        <v>0.4555782010687373</v>
+        <v>0.45557820106873731</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -4211,25 +4292,25 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.7782691380261895</v>
+        <v>0.77826913802618947</v>
       </c>
       <c r="C13">
-        <v>0.5565593926011178</v>
+        <v>0.55655939260111775</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>0.9999999999999122</v>
+        <v>0.99999999999991218</v>
       </c>
       <c r="F13">
-        <v>0.7782691380262579</v>
+        <v>0.77826913802625786</v>
       </c>
       <c r="G13">
-        <v>0.9999999999999122</v>
+        <v>0.99999999999991218</v>
       </c>
       <c r="H13">
-        <v>0.221730861973742</v>
+        <v>0.22173086197374201</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -4275,28 +4356,28 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.1803692800995877</v>
+        <v>0.18036928009958769</v>
       </c>
       <c r="C15">
-        <v>0.4318531929974612</v>
+        <v>0.43185319299746122</v>
       </c>
       <c r="D15">
         <v>0.1141419261488596</v>
       </c>
       <c r="E15">
-        <v>0.6417635888441356</v>
+        <v>0.64176358884413565</v>
       </c>
       <c r="F15">
-        <v>0.2810525296775505</v>
+        <v>0.28105252967755051</v>
       </c>
       <c r="G15">
-        <v>0.6417635888441356</v>
+        <v>0.64176358884413565</v>
       </c>
       <c r="H15">
-        <v>0.2984786282017201</v>
+        <v>0.29847862820172011</v>
       </c>
       <c r="I15">
-        <v>0.4204688421207293</v>
+        <v>0.42046884212072932</v>
       </c>
       <c r="J15">
         <v>0.1006832495779626</v>
@@ -4310,28 +4391,28 @@
         <v>0.1602147890343559</v>
       </c>
       <c r="C16">
-        <v>0.09112574841126249</v>
+        <v>9.1125748411262489E-2</v>
       </c>
       <c r="D16">
-        <v>0.3606760489836846</v>
+        <v>0.36067604898368461</v>
       </c>
       <c r="E16">
-        <v>0.7418445423859</v>
+        <v>0.74184454238590003</v>
       </c>
       <c r="F16">
         <v>0.2159681441061459</v>
       </c>
       <c r="G16">
-        <v>0.7418445423859</v>
+        <v>0.74184454238590003</v>
       </c>
       <c r="H16">
-        <v>0.4879244068806156</v>
+        <v>0.48792440688061561</v>
       </c>
       <c r="I16">
-        <v>0.2961074490132384</v>
+        <v>0.29610744901323838</v>
       </c>
       <c r="J16">
-        <v>0.05575335507179011</v>
+        <v>5.5753355071790113E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4339,31 +4420,31 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.08462201788609364</v>
+        <v>8.4622017886093637E-2</v>
       </c>
       <c r="C17">
-        <v>0.1815335340507956</v>
+        <v>0.18153353405079559</v>
       </c>
       <c r="D17">
-        <v>0.0888018744257766</v>
+        <v>8.8801874425776597E-2</v>
       </c>
       <c r="E17">
-        <v>0.6127585569374323</v>
+        <v>0.61275855693743231</v>
       </c>
       <c r="F17">
-        <v>0.1381000998321991</v>
+        <v>0.13810009983219909</v>
       </c>
       <c r="G17">
-        <v>0.6127585569374323</v>
+        <v>0.61275855693743231</v>
       </c>
       <c r="H17">
-        <v>0.419515188954776</v>
+        <v>0.41951518895477602</v>
       </c>
       <c r="I17">
-        <v>0.4423847112130249</v>
+        <v>0.44238471121302492</v>
       </c>
       <c r="J17">
-        <v>0.05347808194610543</v>
+        <v>5.3478081946105427E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4371,19 +4452,19 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.06426716573686519</v>
+        <v>6.4267165736865195E-2</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0.02980428997378987</v>
+        <v>2.9804289973789869E-2</v>
       </c>
       <c r="E18">
         <v>0.9999999999999698</v>
       </c>
       <c r="F18">
-        <v>0.06426716573686714</v>
+        <v>6.4267165736867138E-2</v>
       </c>
       <c r="G18">
         <v>0.9999999999999698</v>
@@ -4392,7 +4473,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.9357328342631329</v>
+        <v>0.93573283426313292</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -4403,31 +4484,31 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.1461021170170547</v>
+        <v>0.14610211701705469</v>
       </c>
       <c r="C19">
-        <v>0.4607614867717931</v>
+        <v>0.46076148677179313</v>
       </c>
       <c r="D19">
-        <v>0.01195397735733329</v>
+        <v>1.1953977357333291E-2</v>
       </c>
       <c r="E19">
         <v>0.4050447366898744</v>
       </c>
       <c r="F19">
-        <v>0.3607061239976533</v>
+        <v>0.36070612399765328</v>
       </c>
       <c r="G19">
         <v>0.4050447366898744</v>
       </c>
       <c r="H19">
-        <v>0.2696303343742218</v>
+        <v>0.26963033437422179</v>
       </c>
       <c r="I19">
-        <v>0.3696635416281249</v>
+        <v>0.36966354162812493</v>
       </c>
       <c r="J19">
-        <v>0.2146040069805986</v>
+        <v>0.21460400698059859</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -4438,28 +4519,28 @@
         <v>0.2465346759199781</v>
       </c>
       <c r="C20">
-        <v>0.5001779111880539</v>
+        <v>0.50017791118805388</v>
       </c>
       <c r="D20">
-        <v>0.01974621991297754</v>
+        <v>1.974621991297754E-2</v>
       </c>
       <c r="E20">
         <v>0.9426781250092674</v>
       </c>
       <c r="F20">
-        <v>0.2615258266627906</v>
+        <v>0.26152582666279062</v>
       </c>
       <c r="G20">
         <v>0.9426781250092674</v>
       </c>
       <c r="H20">
-        <v>0.2545840498156248</v>
+        <v>0.25458404981562482</v>
       </c>
       <c r="I20">
-        <v>0.4688139314563146</v>
+        <v>0.46881393145631461</v>
       </c>
       <c r="J20">
-        <v>0.01499115074281249</v>
+        <v>1.499115074281249E-2</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -4467,25 +4548,25 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0.06507844633730261</v>
+        <v>6.5078446337302615E-2</v>
       </c>
       <c r="C21">
         <v>0.1122785851118414</v>
       </c>
       <c r="D21">
-        <v>0.009268333001181423</v>
+        <v>9.2683330011814231E-3</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21">
-        <v>0.06507844633730261</v>
+        <v>6.5078446337302615E-2</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>0.4600490692480451</v>
+        <v>0.46004906924804512</v>
       </c>
       <c r="I21">
         <v>0.4748724844146523</v>
@@ -4499,10 +4580,10 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0.6329380379087297</v>
+        <v>0.63293803790872971</v>
       </c>
       <c r="C22">
-        <v>0.2659168095578585</v>
+        <v>0.26591680955785851</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -4511,13 +4592,13 @@
         <v>0.9999999999999668</v>
       </c>
       <c r="F22">
-        <v>0.6329380379087508</v>
+        <v>0.63293803790875081</v>
       </c>
       <c r="G22">
         <v>0.9999999999999668</v>
       </c>
       <c r="H22">
-        <v>0.3670619620912492</v>
+        <v>0.36706196209124919</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -4531,31 +4612,31 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0.1245926883813318</v>
+        <v>0.12459268838133181</v>
       </c>
       <c r="C23">
-        <v>0.01477237399520406</v>
+        <v>1.477237399520406E-2</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23">
-        <v>0.2647492635672536</v>
+        <v>0.26474926356725359</v>
       </c>
       <c r="F23">
-        <v>0.4706063643107425</v>
+        <v>0.47060636431074249</v>
       </c>
       <c r="G23">
-        <v>0.2647492635672536</v>
+        <v>0.26474926356725359</v>
       </c>
       <c r="H23">
-        <v>0.5293936356892575</v>
+        <v>0.52939363568925746</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3460136759294108</v>
+        <v>0.34601367592941079</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -4563,28 +4644,28 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0.2896405981490769</v>
+        <v>0.28964059814907689</v>
       </c>
       <c r="C24">
-        <v>0.5906377393658924</v>
+        <v>0.59063773936589237</v>
       </c>
       <c r="D24">
-        <v>0.2988423233564481</v>
+        <v>0.29884232335644811</v>
       </c>
       <c r="E24">
-        <v>0.7137908890220246</v>
+        <v>0.71379088902202459</v>
       </c>
       <c r="F24">
-        <v>0.4186532247824117</v>
+        <v>0.41865322478241168</v>
       </c>
       <c r="G24">
-        <v>0.7137908890220246</v>
+        <v>0.71379088902202459</v>
       </c>
       <c r="H24">
-        <v>0.2154655668647757</v>
+        <v>0.21546556686477569</v>
       </c>
       <c r="I24">
-        <v>0.3398275361373516</v>
+        <v>0.33982753613735162</v>
       </c>
       <c r="J24">
         <v>0.1290175764177256</v>
@@ -4595,34 +4676,35 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0.2273908487159041</v>
+        <v>0.22739084871590409</v>
       </c>
       <c r="C25">
-        <v>0.327250431136472</v>
+        <v>0.32725043113647201</v>
       </c>
       <c r="D25">
-        <v>0.4384481369442509</v>
+        <v>0.43844813694425089</v>
       </c>
       <c r="E25">
-        <v>0.2430083229715488</v>
+        <v>0.24300832297154881</v>
       </c>
       <c r="F25">
-        <v>0.2502333911734539</v>
+        <v>0.25023339117345389</v>
       </c>
       <c r="G25">
-        <v>0.2430083229715488</v>
+        <v>0.24300832297154881</v>
       </c>
       <c r="H25">
-        <v>0.1701184190043133</v>
+        <v>0.17011841900431329</v>
       </c>
       <c r="I25">
-        <v>0.2331054354769622</v>
+        <v>0.23310543547696219</v>
       </c>
       <c r="J25">
         <v>0.1596197634539481</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/result/life_2019_result.xlsx
+++ b/result/life_2019_result.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10509"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tungwu/Documents/GitHub/ORA_final_project/result/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD2A68F-49C5-D340-B9B2-56B543886EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -19,7 +13,7 @@
     <sheet name="VRS" sheetId="4" r:id="rId4"/>
     <sheet name="VRS_Z1split" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -158,12 +152,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -171,15 +165,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -225,23 +212,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -283,7 +262,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -315,27 +294,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -367,24 +328,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -560,12 +503,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
@@ -1374,34 +1317,34 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>7906898.7272727285</v>
+        <v>7906898.727272728</v>
       </c>
       <c r="C24">
-        <v>6450292.2727272715</v>
+        <v>6450292.272727272</v>
       </c>
       <c r="D24">
-        <v>3225146.1363636358</v>
+        <v>3225146.136363636</v>
       </c>
       <c r="E24">
-        <v>3225146.1363636358</v>
+        <v>3225146.136363636</v>
       </c>
       <c r="F24">
-        <v>135781097.40909091</v>
+        <v>135781097.4090909</v>
       </c>
       <c r="G24">
-        <v>980680.59090909094</v>
+        <v>980680.5909090909</v>
       </c>
       <c r="H24">
-        <v>134800416.81818181</v>
+        <v>134800416.8181818</v>
       </c>
       <c r="I24">
-        <v>1932334.4545454551</v>
+        <v>1932334.454545455</v>
       </c>
       <c r="J24">
         <v>163910509.1363636</v>
       </c>
       <c r="K24">
-        <v>44613073.954545453</v>
+        <v>44613073.95454545</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1409,16 +1352,16 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>9560529.3048335165</v>
+        <v>9560529.304833516</v>
       </c>
       <c r="C25">
-        <v>8199764.7169369645</v>
+        <v>8199764.716936965</v>
       </c>
       <c r="D25">
-        <v>4099882.3584684832</v>
+        <v>4099882.358468483</v>
       </c>
       <c r="E25">
-        <v>4099882.3584684832</v>
+        <v>4099882.358468483</v>
       </c>
       <c r="F25">
         <v>171390772.8406916</v>
@@ -1430,33 +1373,27 @@
         <v>170864227.6476731</v>
       </c>
       <c r="I25">
-        <v>2392903.1538520539</v>
+        <v>2392903.153852054</v>
       </c>
       <c r="J25">
-        <v>53241579.663337402</v>
+        <v>53241579.6633374</v>
       </c>
       <c r="K25">
-        <v>64110568.032882959</v>
+        <v>64110568.03288296</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="16.19921875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
@@ -1498,25 +1435,25 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>3.3679559806088832E-2</v>
+        <v>0.03367955980608883</v>
       </c>
       <c r="E2">
-        <v>0.41787386424932482</v>
+        <v>0.4178738642493248</v>
       </c>
       <c r="F2">
-        <v>0.54223329554670496</v>
+        <v>0.542233295546705</v>
       </c>
       <c r="G2">
-        <v>0.41787386424932482</v>
+        <v>0.4178738642493248</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.45776670445329498</v>
+        <v>0.457766704453295</v>
       </c>
       <c r="J2">
-        <v>0.31564817301195719</v>
+        <v>0.3156481730119572</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1524,31 +1461,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.27695199599442671</v>
+        <v>0.2656317726284538</v>
       </c>
       <c r="C3">
-        <v>0.68538379852075415</v>
+        <v>0.6853837985207542</v>
       </c>
       <c r="D3">
-        <v>8.2854455321130477E-2</v>
+        <v>0.0828544553211305</v>
       </c>
       <c r="E3">
-        <v>0.68655262955735674</v>
+        <v>0.6584902605132942</v>
       </c>
       <c r="F3">
-        <v>0.40339514273361221</v>
+        <v>0.4033951427336122</v>
       </c>
       <c r="G3">
-        <v>0.68655262955735674</v>
+        <v>0.6584902605132942</v>
       </c>
       <c r="H3">
-        <v>0.16859356786433399</v>
+        <v>0.1685935678643341</v>
       </c>
       <c r="I3">
-        <v>0.42801128940205369</v>
+        <v>0.4280112894020536</v>
       </c>
       <c r="J3">
-        <v>0.1264431467391855</v>
+        <v>0.1377633701051584</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1556,31 +1493,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.10106761077856739</v>
+        <v>0.1008495964209625</v>
       </c>
       <c r="C4">
-        <v>0.2144844378013733</v>
+        <v>0.2144844378013734</v>
       </c>
       <c r="D4">
         <v>0.1176527144379093</v>
       </c>
       <c r="E4">
-        <v>0.60489437545042046</v>
+        <v>0.6035895493279191</v>
       </c>
       <c r="F4">
-        <v>0.16708307248403459</v>
+        <v>0.1670830724840346</v>
       </c>
       <c r="G4">
-        <v>0.60489437545042046</v>
+        <v>0.6035895493279191</v>
       </c>
       <c r="H4">
-        <v>0.40961641475556809</v>
+        <v>0.409616414755568</v>
       </c>
       <c r="I4">
-        <v>0.42330051276039737</v>
+        <v>0.4233005127603974</v>
       </c>
       <c r="J4">
-        <v>6.6015461705467154E-2</v>
+        <v>0.0662334760630721</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1588,31 +1525,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.26369596448092031</v>
+        <v>0.2043992060975436</v>
       </c>
       <c r="C5">
-        <v>0.42803587165918261</v>
+        <v>0.4280358716591826</v>
       </c>
       <c r="D5">
-        <v>8.1692942370826319E-2</v>
+        <v>0.08169294237082632</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0.7751320976788512</v>
       </c>
       <c r="F5">
-        <v>0.26369596448092031</v>
+        <v>0.2636959644809203</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0.7751320976788512</v>
       </c>
       <c r="H5">
-        <v>0.30174295291421022</v>
+        <v>0.3017429529142102</v>
       </c>
       <c r="I5">
-        <v>0.43456108260486959</v>
+        <v>0.4345610826048696</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.0592967583833767</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1620,31 +1557,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.28831849189931169</v>
+        <v>0.2765570780088911</v>
       </c>
       <c r="C6">
-        <v>0.88769006381980275</v>
+        <v>0.887690063819803</v>
       </c>
       <c r="D6">
-        <v>6.0709304499062797E-2</v>
+        <v>0.06070930449906282</v>
       </c>
       <c r="E6">
-        <v>0.57183020219935954</v>
+        <v>0.5485034580879956</v>
       </c>
       <c r="F6">
-        <v>0.50420297981881346</v>
+        <v>0.5042029798188136</v>
       </c>
       <c r="G6">
-        <v>0.57183020219935954</v>
+        <v>0.5485034580879956</v>
       </c>
       <c r="H6">
-        <v>6.0541046350750298E-2</v>
+        <v>0.06054104635075019</v>
       </c>
       <c r="I6">
-        <v>0.43525597383043629</v>
+        <v>0.4352559738304363</v>
       </c>
       <c r="J6">
-        <v>0.21588448791950171</v>
+        <v>0.2276459018099224</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1655,28 +1592,28 @@
         <v>0.17764773667358</v>
       </c>
       <c r="C7">
-        <v>0.38571068760506599</v>
+        <v>0.385710687605066</v>
       </c>
       <c r="D7">
-        <v>5.026835093286388E-2</v>
+        <v>0.05026835093286388</v>
       </c>
       <c r="E7">
-        <v>0.79933351610190151</v>
+        <v>0.7993335161019015</v>
       </c>
       <c r="F7">
-        <v>0.22224482408783791</v>
+        <v>0.2222448240878379</v>
       </c>
       <c r="G7">
-        <v>0.79933351610190151</v>
+        <v>0.7993335161019015</v>
       </c>
       <c r="H7">
-        <v>0.31781432986962388</v>
+        <v>0.3178143298696239</v>
       </c>
       <c r="I7">
-        <v>0.45994084604253832</v>
+        <v>0.4599408460425383</v>
       </c>
       <c r="J7">
-        <v>4.4597087414257858E-2</v>
+        <v>0.04459708741425786</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1684,31 +1621,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.18184883113685771</v>
+        <v>0.1738026136453613</v>
       </c>
       <c r="C8">
-        <v>0.40665624913719589</v>
+        <v>0.4066562491371959</v>
       </c>
       <c r="D8">
-        <v>1.317280087040199E-2</v>
+        <v>0.01317280087040199</v>
       </c>
       <c r="E8">
-        <v>0.84780542785097501</v>
+        <v>0.810292803654748</v>
       </c>
       <c r="F8">
         <v>0.2144935915281998</v>
       </c>
       <c r="G8">
-        <v>0.84780542785097501</v>
+        <v>0.810292803654748</v>
       </c>
       <c r="H8">
-        <v>0.30495389731197869</v>
+        <v>0.3049538973119787</v>
       </c>
       <c r="I8">
-        <v>0.48055251115982139</v>
+        <v>0.4805525111598214</v>
       </c>
       <c r="J8">
-        <v>3.2644760391342093E-2</v>
+        <v>0.04069097788283849</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1716,31 +1653,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.1945505541323003</v>
+        <v>0.1858334231243604</v>
       </c>
       <c r="C9">
-        <v>0.59766318923073891</v>
+        <v>0.5976631892307389</v>
       </c>
       <c r="D9">
-        <v>4.6117222397911432E-2</v>
+        <v>0.04611722239791143</v>
       </c>
       <c r="E9">
-        <v>0.57956823504062382</v>
+        <v>0.5535998061383142</v>
       </c>
       <c r="F9">
-        <v>0.33568187897437751</v>
+        <v>0.3356818789743775</v>
       </c>
       <c r="G9">
-        <v>0.57956823504062382</v>
+        <v>0.5535998061383142</v>
       </c>
       <c r="H9">
-        <v>0.21193173376918539</v>
+        <v>0.2119317337691854</v>
       </c>
       <c r="I9">
-        <v>0.45238638725643709</v>
+        <v>0.4523863872564372</v>
       </c>
       <c r="J9">
-        <v>0.14113132484207719</v>
+        <v>0.149848455850017</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1748,31 +1685,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.20242568986668921</v>
+        <v>0.1951346217965306</v>
       </c>
       <c r="C10">
-        <v>0.49717484015550012</v>
+        <v>0.4971748401555002</v>
       </c>
       <c r="D10">
-        <v>7.8763139466882945E-2</v>
+        <v>0.07876313946688296</v>
       </c>
       <c r="E10">
-        <v>0.67938204642197531</v>
+        <v>0.6549117296881237</v>
       </c>
       <c r="F10">
-        <v>0.29795560676467941</v>
+        <v>0.2979556067646794</v>
       </c>
       <c r="G10">
-        <v>0.67938204642197531</v>
+        <v>0.6549117296881237</v>
       </c>
       <c r="H10">
-        <v>0.26773626963375302</v>
+        <v>0.2677362696337529</v>
       </c>
       <c r="I10">
-        <v>0.43430812360156767</v>
+        <v>0.4343081236015677</v>
       </c>
       <c r="J10">
-        <v>9.5529916897990147E-2</v>
+        <v>0.1028209849681488</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1780,31 +1717,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.15637394668017229</v>
+        <v>0.1535151234667387</v>
       </c>
       <c r="C11">
-        <v>0.73027381170074956</v>
+        <v>0.6634781331343683</v>
       </c>
       <c r="D11">
-        <v>1.097653634891144E-2</v>
+        <v>0.01097783390916218</v>
       </c>
       <c r="E11">
-        <v>0.42502603430895181</v>
+        <v>0.4170592767540635</v>
       </c>
       <c r="F11">
-        <v>0.36791616055807058</v>
+        <v>0.368089458797161</v>
       </c>
       <c r="G11">
-        <v>0.42502603430895181</v>
+        <v>0.4170592767540635</v>
       </c>
       <c r="H11">
-        <v>0.13487199445975309</v>
+        <v>0.1855897549640123</v>
       </c>
       <c r="I11">
-        <v>0.49721184498217619</v>
+        <v>0.4463207862388268</v>
       </c>
       <c r="J11">
-        <v>0.21154221387789829</v>
+        <v>0.2145743353304224</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1812,28 +1749,28 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.34046032419722849</v>
+        <v>0.3404603241972284</v>
       </c>
       <c r="C12">
         <v>0.6299890169268596</v>
       </c>
       <c r="D12">
-        <v>5.7282004893442059E-3</v>
+        <v>0.005728200489344206</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.34046032419722838</v>
+        <v>0.3404603241972284</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12">
-        <v>0.20088891122379099</v>
+        <v>0.200888911223791</v>
       </c>
       <c r="I12">
-        <v>0.45865076457898057</v>
+        <v>0.4586507645789806</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1844,19 +1781,19 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>4.6920718520057379E-2</v>
+        <v>0.04692071852005738</v>
       </c>
       <c r="C13">
         <v>0.1538207114543502</v>
       </c>
       <c r="D13">
-        <v>0.73769480740454596</v>
+        <v>0.737694807404546</v>
       </c>
       <c r="E13">
         <v>0.111089340294623</v>
       </c>
       <c r="F13">
-        <v>0.42236922458642462</v>
+        <v>0.4223692245864246</v>
       </c>
       <c r="G13">
         <v>0.111089340294623</v>
@@ -1865,7 +1802,7 @@
         <v>0.4544326079689146</v>
       </c>
       <c r="I13">
-        <v>0.12319816744466081</v>
+        <v>0.1231981674446608</v>
       </c>
       <c r="J13">
         <v>0.3754485060663672</v>
@@ -1876,22 +1813,22 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.30372546978261661</v>
+        <v>0.3037254697826166</v>
       </c>
       <c r="C14">
-        <v>0.99999999999999989</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>0.30372546978261661</v>
+        <v>0.3037254697826166</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.30372546978261661</v>
+        <v>0.3037254697826166</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1900,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.69627453021738339</v>
+        <v>0.6962745302173834</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1908,10 +1845,10 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.17132088987731431</v>
+        <v>0.1713208898773143</v>
       </c>
       <c r="C15">
-        <v>0.43273305854531913</v>
+        <v>0.4327330585453191</v>
       </c>
       <c r="D15">
         <v>0.1147304513458401</v>
@@ -1920,16 +1857,16 @@
         <v>0.6094210493276665</v>
       </c>
       <c r="F15">
-        <v>0.28112072936489668</v>
+        <v>0.2811207293648967</v>
       </c>
       <c r="G15">
         <v>0.6094210493276665</v>
       </c>
       <c r="H15">
-        <v>0.29842030765915251</v>
+        <v>0.2984203076591525</v>
       </c>
       <c r="I15">
-        <v>0.42045896297595092</v>
+        <v>0.4204589629759509</v>
       </c>
       <c r="J15">
         <v>0.1097998394875824</v>
@@ -1940,31 +1877,31 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.13404948856848051</v>
+        <v>0.1340494885684805</v>
       </c>
       <c r="C16">
-        <v>9.5607669503776693E-2</v>
+        <v>0.09560766950377669</v>
       </c>
       <c r="D16">
         <v>0.3612890001565815</v>
       </c>
       <c r="E16">
-        <v>0.61849025779640754</v>
+        <v>0.6184902577964075</v>
       </c>
       <c r="F16">
-        <v>0.21673662095516219</v>
+        <v>0.2167366209551622</v>
       </c>
       <c r="G16">
-        <v>0.61849025779640754</v>
+        <v>0.6184902577964075</v>
       </c>
       <c r="H16">
         <v>0.4864306833508647</v>
       </c>
       <c r="I16">
-        <v>0.29683269569397308</v>
+        <v>0.2968326956939731</v>
       </c>
       <c r="J16">
-        <v>8.2687132386681683E-2</v>
+        <v>0.08268713238668168</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1972,13 +1909,13 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>8.4614644824716215E-2</v>
+        <v>0.08461464482471621</v>
       </c>
       <c r="C17">
-        <v>0.19113393015502489</v>
+        <v>0.1911339301550249</v>
       </c>
       <c r="D17">
-        <v>8.8923688277509072E-2</v>
+        <v>0.08892368827750907</v>
       </c>
       <c r="E17">
         <v>0.610909048804127</v>
@@ -1990,13 +1927,13 @@
         <v>0.610909048804127</v>
       </c>
       <c r="H17">
-        <v>0.41507703820171932</v>
+        <v>0.4150770382017193</v>
       </c>
       <c r="I17">
-        <v>0.44641683721172898</v>
+        <v>0.446416837211729</v>
       </c>
       <c r="J17">
-        <v>5.389147976183549E-2</v>
+        <v>0.05389147976183549</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2004,31 +1941,31 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>5.2506012793745303E-2</v>
+        <v>0.04276518025877969</v>
       </c>
       <c r="C18">
-        <v>8.0890016250706825E-2</v>
+        <v>0.0808900162507068</v>
       </c>
       <c r="D18">
-        <v>3.0524744224019601E-2</v>
+        <v>0.0305247442240196</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0.8144815799815223</v>
       </c>
       <c r="F18">
-        <v>5.2506012793745303E-2</v>
+        <v>0.0525060127937453</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0.8144815799815223</v>
       </c>
       <c r="H18">
-        <v>0.46679952390164092</v>
+        <v>0.466799523901641</v>
       </c>
       <c r="I18">
-        <v>0.48069446330461368</v>
+        <v>0.4806944633046139</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.00974083253494927</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2036,31 +1973,31 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.13277587790201309</v>
+        <v>0.1327758779020131</v>
       </c>
       <c r="C19">
-        <v>0.62831801090682682</v>
+        <v>0.6283180109068268</v>
       </c>
       <c r="D19">
-        <v>2.323160852745669E-2</v>
+        <v>0.02323160852745669</v>
       </c>
       <c r="E19">
         <v>0.3796084167738028</v>
       </c>
       <c r="F19">
-        <v>0.34977063741221071</v>
+        <v>0.3497706374122107</v>
       </c>
       <c r="G19">
         <v>0.3796084167738028</v>
       </c>
       <c r="H19">
-        <v>0.20420152201381861</v>
+        <v>0.2042015220138186</v>
       </c>
       <c r="I19">
-        <v>0.44602784057397071</v>
+        <v>0.4460278405739707</v>
       </c>
       <c r="J19">
-        <v>0.21699475951019759</v>
+        <v>0.2169947595101976</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2068,31 +2005,31 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.2452229358540019</v>
+        <v>0.2363251110689983</v>
       </c>
       <c r="C20">
-        <v>0.47333362304166088</v>
+        <v>0.4733336230416609</v>
       </c>
       <c r="D20">
-        <v>2.0695969200675821E-2</v>
+        <v>0.02069596920067582</v>
       </c>
       <c r="E20">
-        <v>0.9496984792962575</v>
+        <v>0.9152390163674166</v>
       </c>
       <c r="F20">
-        <v>0.25821135992101008</v>
+        <v>0.2582113599210101</v>
       </c>
       <c r="G20">
-        <v>0.9496984792962575</v>
+        <v>0.9152390163674166</v>
       </c>
       <c r="H20">
-        <v>0.27828352083041841</v>
+        <v>0.2782835208304183</v>
       </c>
       <c r="I20">
-        <v>0.46350511924857152</v>
+        <v>0.4635051192485715</v>
       </c>
       <c r="J20">
-        <v>1.2988424067008199E-2</v>
+        <v>0.02188624885201186</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2100,28 +2037,28 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>6.5056248047977605E-2</v>
+        <v>0.06505624804797761</v>
       </c>
       <c r="C21">
-        <v>0.12433490982954409</v>
+        <v>0.1243349098295441</v>
       </c>
       <c r="D21">
-        <v>9.2542566619353613E-3</v>
+        <v>0.009254256661935361</v>
       </c>
       <c r="E21">
-        <v>0.99999999999999978</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="F21">
-        <v>6.5056248047977619E-2</v>
+        <v>0.06505624804797762</v>
       </c>
       <c r="G21">
-        <v>0.99999999999999978</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="H21">
-        <v>0.45455029177322198</v>
+        <v>0.454550291773222</v>
       </c>
       <c r="I21">
-        <v>0.48039346017880041</v>
+        <v>0.4803934601788004</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2132,10 +2069,10 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>6.3011437015566649E-2</v>
+        <v>0.06301143701556665</v>
       </c>
       <c r="C22">
-        <v>6.4196325187964254E-2</v>
+        <v>0.06419632518796425</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2144,19 +2081,19 @@
         <v>0.1184264788248296</v>
       </c>
       <c r="F22">
-        <v>0.53207219906259295</v>
+        <v>0.532072199062593</v>
       </c>
       <c r="G22">
         <v>0.1184264788248296</v>
       </c>
       <c r="H22">
-        <v>0.46792780093740721</v>
+        <v>0.4679278009374072</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.46906076204702618</v>
+        <v>0.4690607620470262</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2167,25 +2104,25 @@
         <v>0.1089113892655123</v>
       </c>
       <c r="C23">
-        <v>6.0523647822967437E-2</v>
+        <v>0.06052364782296744</v>
       </c>
       <c r="D23">
-        <v>0.95939165067187682</v>
+        <v>0.9593916506718768</v>
       </c>
       <c r="E23">
         <v>0.2296392929454045</v>
       </c>
       <c r="F23">
-        <v>0.47427157551563032</v>
+        <v>0.4742715755156303</v>
       </c>
       <c r="G23">
         <v>0.2296392929454045</v>
       </c>
       <c r="H23">
-        <v>0.50638745846835709</v>
+        <v>0.5063874584683571</v>
       </c>
       <c r="I23">
-        <v>1.934096601601271E-2</v>
+        <v>0.01934096601601271</v>
       </c>
       <c r="J23">
         <v>0.3653601862501179</v>
@@ -2196,31 +2133,31 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0.17354733549212739</v>
+        <v>0.1677224124421105</v>
       </c>
       <c r="C24">
-        <v>0.44399790314797122</v>
+        <v>0.4409617359404084</v>
       </c>
       <c r="D24">
-        <v>0.22397051833689879</v>
+        <v>0.2239705773169103</v>
       </c>
       <c r="E24">
-        <v>0.6156033711375738</v>
+        <v>0.5886280142314978</v>
       </c>
       <c r="F24">
-        <v>0.33863561697366729</v>
+        <v>0.3386434941663532</v>
       </c>
       <c r="G24">
-        <v>0.6156033711375738</v>
+        <v>0.5886280142314978</v>
       </c>
       <c r="H24">
-        <v>0.29141826696629369</v>
+        <v>0.2937236197164874</v>
       </c>
       <c r="I24">
-        <v>0.36994611606003902</v>
+        <v>0.3676328861171594</v>
       </c>
       <c r="J24">
-        <v>0.16508828148153989</v>
+        <v>0.170921081724242</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2228,51 +2165,45 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>8.3833543008633118E-2</v>
+        <v>0.08065420605092044</v>
       </c>
       <c r="C25">
-        <v>0.28771442663391478</v>
+        <v>0.2851350154967618</v>
       </c>
       <c r="D25">
-        <v>0.33349369597491579</v>
+        <v>0.3334936599437626</v>
       </c>
       <c r="E25">
-        <v>0.27041853635566249</v>
+        <v>0.2467234776580238</v>
       </c>
       <c r="F25">
-        <v>0.19351922919546491</v>
+        <v>0.1935203724556758</v>
       </c>
       <c r="G25">
-        <v>0.27041853635566249</v>
+        <v>0.2467234776580238</v>
       </c>
       <c r="H25">
-        <v>0.14967201166321861</v>
+        <v>0.1477093754818533</v>
       </c>
       <c r="I25">
-        <v>0.1598895208528513</v>
+        <v>0.1584580531481681</v>
       </c>
       <c r="J25">
-        <v>0.17347624205643131</v>
+        <v>0.170302448692703</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
@@ -2308,31 +2239,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.22683689873146981</v>
+        <v>0.2268368987314698</v>
       </c>
       <c r="C2">
-        <v>0.99999999999999978</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="D2">
-        <v>3.3532296378577929E-2</v>
+        <v>0.03353229637857793</v>
       </c>
       <c r="E2">
-        <v>0.41793065011278818</v>
+        <v>0.4179306501127882</v>
       </c>
       <c r="F2">
-        <v>0.54276205554738011</v>
+        <v>0.5427620555473801</v>
       </c>
       <c r="G2">
-        <v>0.41793065011278818</v>
+        <v>0.4179306501127882</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.45723794445261973</v>
+        <v>0.4572379444526197</v>
       </c>
       <c r="J2">
-        <v>0.31592515681591021</v>
+        <v>0.3159251568159102</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2340,31 +2271,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.27721945649076057</v>
+        <v>0.2660542064547032</v>
       </c>
       <c r="C3">
-        <v>0.68299165013811947</v>
+        <v>0.6829916501381195</v>
       </c>
       <c r="D3">
-        <v>8.2705140410166661E-2</v>
+        <v>0.08270514041016666</v>
       </c>
       <c r="E3">
-        <v>0.68653640575465336</v>
+        <v>0.6588855665020977</v>
       </c>
       <c r="F3">
-        <v>0.40379425499808119</v>
+        <v>0.4037942549980812</v>
       </c>
       <c r="G3">
-        <v>0.68653640575465336</v>
+        <v>0.6588855665020977</v>
       </c>
       <c r="H3">
-        <v>0.16957265038418279</v>
+        <v>0.169572650384183</v>
       </c>
       <c r="I3">
-        <v>0.42663309461773602</v>
+        <v>0.4266330946177359</v>
       </c>
       <c r="J3">
-        <v>0.12657479850732059</v>
+        <v>0.137740048543378</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2372,31 +2303,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.1024466776396321</v>
+        <v>0.1010042327324856</v>
       </c>
       <c r="C4">
-        <v>0.15074962797568511</v>
+        <v>0.2104296755426386</v>
       </c>
       <c r="D4">
-        <v>-2.1617973373890879E-4</v>
+        <v>0.1148523037091716</v>
       </c>
       <c r="E4">
-        <v>0.90274903211840984</v>
+        <v>0.6092555521451242</v>
       </c>
       <c r="F4">
-        <v>0.1134830102218205</v>
+        <v>0.1657830320575009</v>
       </c>
       <c r="G4">
-        <v>0.90274903211840984</v>
+        <v>0.6092555521451242</v>
       </c>
       <c r="H4">
-        <v>0.42655362875633213</v>
+        <v>0.4107324063749787</v>
       </c>
       <c r="I4">
-        <v>0.45996336102184737</v>
+        <v>0.4234845615675205</v>
       </c>
       <c r="J4">
-        <v>1.1036332582188431E-2</v>
+        <v>0.06477879932501537</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2404,31 +2335,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.16350737647952129</v>
+        <v>0.1594841556333534</v>
       </c>
       <c r="C5">
-        <v>0.41912672373895438</v>
+        <v>0.4272628440298291</v>
       </c>
       <c r="D5">
-        <v>2.308370458708987E-2</v>
+        <v>0.07959929956127493</v>
       </c>
       <c r="E5">
-        <v>0.67497668665970367</v>
+        <v>0.6057940937199495</v>
       </c>
       <c r="F5">
-        <v>0.24224151694583659</v>
+        <v>0.2632646261934023</v>
       </c>
       <c r="G5">
-        <v>0.67497668665970367</v>
+        <v>0.6057940937199495</v>
       </c>
       <c r="H5">
-        <v>0.29603746539700321</v>
+        <v>0.30123205732259</v>
       </c>
       <c r="I5">
-        <v>0.46172101765716012</v>
+        <v>0.4355033164840078</v>
       </c>
       <c r="J5">
-        <v>7.8734140466315355E-2</v>
+        <v>0.1037804705600489</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2436,31 +2367,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.28865008114498458</v>
+        <v>0.2770476027749995</v>
       </c>
       <c r="C6">
-        <v>0.88649848979240353</v>
+        <v>0.8864984897924034</v>
       </c>
       <c r="D6">
-        <v>6.0588239065745203E-2</v>
+        <v>0.0605882390657452</v>
       </c>
       <c r="E6">
-        <v>0.57166130125508441</v>
+        <v>0.5486830022140453</v>
       </c>
       <c r="F6">
-        <v>0.50493199471654349</v>
+        <v>0.5049319947165434</v>
       </c>
       <c r="G6">
-        <v>0.57166130125508441</v>
+        <v>0.5486830022140453</v>
       </c>
       <c r="H6">
-        <v>6.1066092454858063E-2</v>
+        <v>0.06106609245485811</v>
       </c>
       <c r="I6">
-        <v>0.43400191282859851</v>
+        <v>0.4340019128285984</v>
       </c>
       <c r="J6">
-        <v>0.21628191357155879</v>
+        <v>0.2278843919415439</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2468,31 +2399,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.17954674196828199</v>
+        <v>0.1778637196106752</v>
       </c>
       <c r="C7">
-        <v>0.31449287929356218</v>
+        <v>0.3801199713722903</v>
       </c>
       <c r="D7">
-        <v>9.6651591408527283E-3</v>
+        <v>0.04916702153196416</v>
       </c>
       <c r="E7">
-        <v>0.87432651998378508</v>
+        <v>0.801782050320541</v>
       </c>
       <c r="F7">
-        <v>0.20535433601123271</v>
+        <v>0.2218354969901956</v>
       </c>
       <c r="G7">
-        <v>0.87432651998378508</v>
+        <v>0.801782050320541</v>
       </c>
       <c r="H7">
-        <v>0.34585795582746981</v>
+        <v>0.3200673284156472</v>
       </c>
       <c r="I7">
-        <v>0.44878770816129748</v>
+        <v>0.4580971745941572</v>
       </c>
       <c r="J7">
-        <v>2.580759404295074E-2</v>
+        <v>0.04397177737952038</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2500,31 +2431,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.18420417158779209</v>
+        <v>0.1739084438274409</v>
       </c>
       <c r="C8">
-        <v>0.45542380362031798</v>
+        <v>0.4038036932826171</v>
       </c>
       <c r="D8">
-        <v>1.572529439086132E-2</v>
+        <v>0.01284239519762076</v>
       </c>
       <c r="E8">
-        <v>0.86473159411278833</v>
+        <v>0.8107987269368733</v>
       </c>
       <c r="F8">
-        <v>0.21301889839793001</v>
+        <v>0.2144902773644599</v>
       </c>
       <c r="G8">
-        <v>0.86473159411278833</v>
+        <v>0.8107987269368733</v>
       </c>
       <c r="H8">
-        <v>0.28789411200434811</v>
+        <v>0.3059224531958611</v>
       </c>
       <c r="I8">
-        <v>0.49908698959772191</v>
+        <v>0.4795872694396789</v>
       </c>
       <c r="J8">
-        <v>2.88147268101379E-2</v>
+        <v>0.04058183353701898</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2532,31 +2463,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.19467151187088419</v>
+        <v>0.1862396725198475</v>
       </c>
       <c r="C9">
-        <v>0.59698583992014331</v>
+        <v>0.5967677177736495</v>
       </c>
       <c r="D9">
-        <v>4.5733440189026177E-2</v>
+        <v>0.04498254155395445</v>
       </c>
       <c r="E9">
-        <v>0.57929237614326279</v>
+        <v>0.5544965302841777</v>
       </c>
       <c r="F9">
-        <v>0.33605053318143568</v>
+        <v>0.3358716643806595</v>
       </c>
       <c r="G9">
-        <v>0.57929237614326279</v>
+        <v>0.5544965302841777</v>
       </c>
       <c r="H9">
-        <v>0.21181269198658961</v>
+        <v>0.2117744712914371</v>
       </c>
       <c r="I9">
-        <v>0.45213677483197467</v>
+        <v>0.4523538643279034</v>
       </c>
       <c r="J9">
-        <v>0.14137902131055149</v>
+        <v>0.149631991860812</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2564,31 +2495,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.20259678898094341</v>
+        <v>0.1954070521275715</v>
       </c>
       <c r="C10">
-        <v>0.49139069245918698</v>
+        <v>0.491390692459187</v>
       </c>
       <c r="D10">
-        <v>7.8843649311399408E-2</v>
+        <v>0.07884364931139939</v>
       </c>
       <c r="E10">
-        <v>0.67954977275291484</v>
+        <v>0.6554339707728462</v>
       </c>
       <c r="F10">
-        <v>0.29813384847471341</v>
+        <v>0.2981338484747134</v>
       </c>
       <c r="G10">
-        <v>0.67954977275291484</v>
+        <v>0.6554339707728462</v>
       </c>
       <c r="H10">
-        <v>0.27037281621839959</v>
+        <v>0.2703728162183998</v>
       </c>
       <c r="I10">
-        <v>0.43149333530688688</v>
+        <v>0.4314933353068869</v>
       </c>
       <c r="J10">
-        <v>9.5537059493769963E-2</v>
+        <v>0.102726796347142</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2596,31 +2527,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.15740997283033981</v>
+        <v>0.1538985408576969</v>
       </c>
       <c r="C11">
-        <v>0.86196269245621593</v>
+        <v>0.6617455968051515</v>
       </c>
       <c r="D11">
-        <v>1.096540017160358E-2</v>
+        <v>0.01096540649004562</v>
       </c>
       <c r="E11">
-        <v>0.42710371361616961</v>
+        <v>0.4170755175077877</v>
       </c>
       <c r="F11">
-        <v>0.36855210528982019</v>
+        <v>0.3689944252237806</v>
       </c>
       <c r="G11">
-        <v>0.42710371361616961</v>
+        <v>0.4170755175077877</v>
       </c>
       <c r="H11">
-        <v>5.8003896357440798E-2</v>
+        <v>0.1860950648120811</v>
       </c>
       <c r="I11">
-        <v>0.57344399835273896</v>
+        <v>0.4449105099641383</v>
       </c>
       <c r="J11">
-        <v>0.21114213245948049</v>
+        <v>0.2150958843660836</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2628,28 +2559,28 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.34114330703408158</v>
+        <v>0.3411433070340816</v>
       </c>
       <c r="C12">
         <v>0.6248055426452882</v>
       </c>
       <c r="D12">
-        <v>5.7390920940877492E-3</v>
+        <v>0.005739092094087749</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.34114330703408158</v>
+        <v>0.3411433070340816</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12">
-        <v>0.2032784918971812</v>
+        <v>0.2032784918971811</v>
       </c>
       <c r="I12">
-        <v>0.45557820106873731</v>
+        <v>0.4555782010687373</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -2660,31 +2591,31 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>4.6981047446143571E-2</v>
+        <v>0.04698104744614357</v>
       </c>
       <c r="C13">
-        <v>0.14184775228101751</v>
+        <v>0.1418477522810175</v>
       </c>
       <c r="D13">
-        <v>0.74294785990962542</v>
+        <v>0.7429478599096254</v>
       </c>
       <c r="E13">
         <v>0.1116675951923084</v>
       </c>
       <c r="F13">
-        <v>0.42072229965403241</v>
+        <v>0.4207222996540324</v>
       </c>
       <c r="G13">
         <v>0.1116675951923084</v>
       </c>
       <c r="H13">
-        <v>0.46001528346980491</v>
+        <v>0.4600152834698049</v>
       </c>
       <c r="I13">
-        <v>0.11926241687616269</v>
+        <v>0.1192624168761627</v>
       </c>
       <c r="J13">
-        <v>0.37374125220788879</v>
+        <v>0.3737412522078888</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2692,22 +2623,22 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.339450295768566</v>
+        <v>0.3167026105149929</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>1.000000000000156</v>
       </c>
       <c r="E14">
-        <v>0.339450295768566</v>
+        <v>0.3167026105149929</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.339450295768566</v>
+        <v>0.3167026105149929</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -2716,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.660549704231434</v>
+        <v>0.6832973894850071</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2724,31 +2655,31 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.17142592708804749</v>
+        <v>0.1714259270880475</v>
       </c>
       <c r="C15">
-        <v>0.43185319299746111</v>
+        <v>0.4318531929974611</v>
       </c>
       <c r="D15">
-        <v>0.11414192614885969</v>
+        <v>0.1141419261488597</v>
       </c>
       <c r="E15">
-        <v>0.60994265835188588</v>
+        <v>0.6099426583518859</v>
       </c>
       <c r="F15">
-        <v>0.28105252967755051</v>
+        <v>0.2810525296775505</v>
       </c>
       <c r="G15">
-        <v>0.60994265835188588</v>
+        <v>0.6099426583518859</v>
       </c>
       <c r="H15">
-        <v>0.29847862820172028</v>
+        <v>0.2984786282017203</v>
       </c>
       <c r="I15">
-        <v>0.42046884212072921</v>
+        <v>0.4204688421207292</v>
       </c>
       <c r="J15">
-        <v>0.10962660258950301</v>
+        <v>0.109626602589503</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2756,31 +2687,31 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.13422283767988821</v>
+        <v>0.1342228376798882</v>
       </c>
       <c r="C16">
-        <v>9.1125748411262489E-2</v>
+        <v>0.09112574841126249</v>
       </c>
       <c r="D16">
-        <v>0.36067604898368461</v>
+        <v>0.3606760489836846</v>
       </c>
       <c r="E16">
-        <v>0.62149368479973222</v>
+        <v>0.6214936847997322</v>
       </c>
       <c r="F16">
         <v>0.2159681441061459</v>
       </c>
       <c r="G16">
-        <v>0.62149368479973222</v>
+        <v>0.6214936847997322</v>
       </c>
       <c r="H16">
-        <v>0.48792440688061561</v>
+        <v>0.4879244068806156</v>
       </c>
       <c r="I16">
-        <v>0.29610744901323849</v>
+        <v>0.2961074490132385</v>
       </c>
       <c r="J16">
-        <v>8.1745306426257713E-2</v>
+        <v>0.08174530642625771</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2788,31 +2719,31 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>8.4622017886093637E-2</v>
+        <v>0.08462201788609364</v>
       </c>
       <c r="C17">
         <v>0.1815335340507955</v>
       </c>
       <c r="D17">
-        <v>8.8801874425776611E-2</v>
+        <v>0.08880187442577661</v>
       </c>
       <c r="E17">
-        <v>0.61275855693743242</v>
+        <v>0.6127585569374324</v>
       </c>
       <c r="F17">
-        <v>0.13810009983219901</v>
+        <v>0.138100099832199</v>
       </c>
       <c r="G17">
-        <v>0.61275855693743242</v>
+        <v>0.6127585569374324</v>
       </c>
       <c r="H17">
-        <v>0.41951518895477607</v>
+        <v>0.4195151889547761</v>
       </c>
       <c r="I17">
-        <v>0.44238471121302481</v>
+        <v>0.4423847112130248</v>
       </c>
       <c r="J17">
-        <v>5.3478081946105413E-2</v>
+        <v>0.05347808194610541</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2820,31 +2751,31 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>4.3459710278924507E-2</v>
+        <v>0.04345971027892451</v>
       </c>
       <c r="C18">
-        <v>0.35336963671229299</v>
+        <v>0.353369636712293</v>
       </c>
       <c r="D18">
-        <v>3.032026941478206E-2</v>
+        <v>0.03032026941478206</v>
       </c>
       <c r="E18">
-        <v>0.77081296173091696</v>
+        <v>0.770812961730917</v>
       </c>
       <c r="F18">
-        <v>5.6381654741939673E-2</v>
+        <v>0.05638165474193967</v>
       </c>
       <c r="G18">
-        <v>0.77081296173091696</v>
+        <v>0.770812961730917</v>
       </c>
       <c r="H18">
-        <v>0.33391888479391602</v>
+        <v>0.333918884793916</v>
       </c>
       <c r="I18">
-        <v>0.60969946046414436</v>
+        <v>0.6096994604641444</v>
       </c>
       <c r="J18">
-        <v>1.292194446301515E-2</v>
+        <v>0.01292194446301515</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2852,31 +2783,31 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.13308286666058899</v>
+        <v>0.133082866660589</v>
       </c>
       <c r="C19">
-        <v>0.62030018859267588</v>
+        <v>0.6203001885926759</v>
       </c>
       <c r="D19">
-        <v>2.3371543040743199E-2</v>
+        <v>0.0233715430407432</v>
       </c>
       <c r="E19">
-        <v>0.37964189086903782</v>
+        <v>0.3796418908690378</v>
       </c>
       <c r="F19">
-        <v>0.35054842434787459</v>
+        <v>0.3505484243478746</v>
       </c>
       <c r="G19">
-        <v>0.37964189086903782</v>
+        <v>0.3796418908690378</v>
       </c>
       <c r="H19">
         <v>0.2081191403069414</v>
       </c>
       <c r="I19">
-        <v>0.44133243534518402</v>
+        <v>0.441332435345184</v>
       </c>
       <c r="J19">
-        <v>0.21746555768728559</v>
+        <v>0.2174655576872856</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2884,31 +2815,31 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.24537187822026779</v>
+        <v>0.2365998682459777</v>
       </c>
       <c r="C20">
-        <v>0.47141046558957062</v>
+        <v>0.4714104655895706</v>
       </c>
       <c r="D20">
-        <v>2.0619456141358631E-2</v>
+        <v>0.02061945614135863</v>
       </c>
       <c r="E20">
-        <v>0.94936724522454097</v>
+        <v>0.9154275003573716</v>
       </c>
       <c r="F20">
-        <v>0.25845833575418259</v>
+        <v>0.2584583357541826</v>
       </c>
       <c r="G20">
-        <v>0.94936724522454097</v>
+        <v>0.9154275003573716</v>
       </c>
       <c r="H20">
-        <v>0.27889309798906492</v>
+        <v>0.2788930979890649</v>
       </c>
       <c r="I20">
-        <v>0.46264856625675249</v>
+        <v>0.4626485662567525</v>
       </c>
       <c r="J20">
-        <v>1.3086457533914769E-2</v>
+        <v>0.02185846750820495</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2916,28 +2847,28 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>6.5069958649353526E-2</v>
+        <v>0.06506995864935353</v>
       </c>
       <c r="C21">
-        <v>0.11689311220662579</v>
+        <v>0.1168931122066258</v>
       </c>
       <c r="D21">
-        <v>9.2629123734420116E-3</v>
+        <v>0.009262912373442012</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21">
-        <v>6.5069958649353526E-2</v>
+        <v>0.06506995864935353</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>0.45794656906776537</v>
+        <v>0.4579465690677654</v>
       </c>
       <c r="I21">
-        <v>0.47698347228288102</v>
+        <v>0.476983472282881</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2948,31 +2879,31 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>6.3131813284149629E-2</v>
+        <v>0.06313181328414963</v>
       </c>
       <c r="C22">
-        <v>5.7808136503401483E-2</v>
+        <v>0.05780813650340148</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22">
-        <v>0.11936934782791959</v>
+        <v>0.1193693478279196</v>
       </c>
       <c r="F22">
-        <v>0.52887792748234819</v>
+        <v>0.5288779274823482</v>
       </c>
       <c r="G22">
-        <v>0.11936934782791959</v>
+        <v>0.1193693478279196</v>
       </c>
       <c r="H22">
-        <v>0.47112207251765198</v>
+        <v>0.471122072517652</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.46574611419819839</v>
+        <v>0.4657461141981984</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2983,28 +2914,28 @@
         <v>0.1090594948946657</v>
       </c>
       <c r="C23">
-        <v>3.2302269932353252E-2</v>
+        <v>0.03230226993235325</v>
       </c>
       <c r="D23">
-        <v>0.98399197031710006</v>
+        <v>0.9839919703171001</v>
       </c>
       <c r="E23">
-        <v>0.23105432985544699</v>
+        <v>0.231054329855447</v>
       </c>
       <c r="F23">
-        <v>0.47200801198097392</v>
+        <v>0.4720080119809739</v>
       </c>
       <c r="G23">
-        <v>0.23105432985544699</v>
+        <v>0.231054329855447</v>
       </c>
       <c r="H23">
-        <v>0.52059562845311158</v>
+        <v>0.5205956284531116</v>
       </c>
       <c r="I23">
-        <v>7.3963595659144454E-3</v>
+        <v>0.007396359565914445</v>
       </c>
       <c r="J23">
-        <v>0.36294851708630821</v>
+        <v>0.3629485170863082</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -3012,31 +2943,31 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0.1706414014825173</v>
+        <v>0.1665111811333251</v>
       </c>
       <c r="C24">
-        <v>0.45376690815078791</v>
+        <v>0.4483754505053923</v>
       </c>
       <c r="D24">
-        <v>0.21547723167095659</v>
+        <v>0.224906874820888</v>
       </c>
       <c r="E24">
-        <v>0.61020075541215213</v>
+        <v>0.5804093998615125</v>
       </c>
       <c r="F24">
-        <v>0.33439332941115812</v>
+        <v>0.3385541986003364</v>
       </c>
       <c r="G24">
-        <v>0.61020075541215213</v>
+        <v>0.5804093998615125</v>
       </c>
       <c r="H24">
-        <v>0.28486266826905332</v>
+        <v>0.2898473969546629</v>
       </c>
       <c r="I24">
-        <v>0.38074400231978861</v>
+        <v>0.3715984044450008</v>
       </c>
       <c r="J24">
-        <v>0.16375192792864071</v>
+        <v>0.1720430174670113</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -3044,51 +2975,45 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>8.5065991351525025E-2</v>
+        <v>0.08135734005865383</v>
       </c>
       <c r="C25">
-        <v>0.2916358510540773</v>
+        <v>0.2787806889725187</v>
       </c>
       <c r="D25">
-        <v>0.34088695779296119</v>
+        <v>0.3363809425024248</v>
       </c>
       <c r="E25">
-        <v>0.25643164730781109</v>
+        <v>0.2412367173695643</v>
       </c>
       <c r="F25">
-        <v>0.19638293770962209</v>
+        <v>0.1932031485674409</v>
       </c>
       <c r="G25">
-        <v>0.25643164730781109</v>
+        <v>0.2412367173695643</v>
       </c>
       <c r="H25">
-        <v>0.15209403290617229</v>
+        <v>0.1450130383923001</v>
       </c>
       <c r="I25">
-        <v>0.1713074289137802</v>
+        <v>0.1654045414122343</v>
       </c>
       <c r="J25">
-        <v>0.1678569817663827</v>
+        <v>0.1670745367078539</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
@@ -3130,25 +3055,25 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>3.3679559806088832E-2</v>
+        <v>0.03367955980608883</v>
       </c>
       <c r="E2">
-        <v>0.41787386425703132</v>
+        <v>0.4178738642570313</v>
       </c>
       <c r="F2">
-        <v>0.54223329554670507</v>
+        <v>0.5422332955467051</v>
       </c>
       <c r="G2">
-        <v>0.41787386425703132</v>
+        <v>0.4178738642570313</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.45776670445329498</v>
+        <v>0.457766704453295</v>
       </c>
       <c r="J2">
-        <v>0.31564817301195719</v>
+        <v>0.3156481730119572</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3156,31 +3081,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.29237670733885018</v>
+        <v>0.2875518483343993</v>
       </c>
       <c r="C3">
-        <v>0.76157665690478504</v>
+        <v>0.7249321375096639</v>
       </c>
       <c r="D3">
-        <v>7.6968511975008022E-2</v>
+        <v>0.0802846681081795</v>
       </c>
       <c r="E3">
-        <v>0.69008697687581155</v>
+        <v>0.6938225427951678</v>
       </c>
       <c r="F3">
-        <v>0.4236809520192793</v>
+        <v>0.4144458137320729</v>
       </c>
       <c r="G3">
-        <v>0.69008697687581155</v>
+        <v>0.6938225427951678</v>
       </c>
       <c r="H3">
-        <v>0.1219138103597729</v>
+        <v>0.1438185734658923</v>
       </c>
       <c r="I3">
-        <v>0.44412989282275089</v>
+        <v>0.4362820367033906</v>
       </c>
       <c r="J3">
-        <v>0.13130424468042889</v>
+        <v>0.1268939653976736</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3188,31 +3113,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.11493126454130161</v>
+        <v>0.1149312645413016</v>
       </c>
       <c r="C4">
-        <v>0.21448443780137341</v>
+        <v>0.2144844378013734</v>
       </c>
       <c r="D4">
         <v>0.1176527144379093</v>
       </c>
       <c r="E4">
-        <v>0.68786899139146751</v>
+        <v>0.6878689913914675</v>
       </c>
       <c r="F4">
-        <v>0.16708307248403459</v>
+        <v>0.1670830724840346</v>
       </c>
       <c r="G4">
-        <v>0.68786899139146751</v>
+        <v>0.6878689913914675</v>
       </c>
       <c r="H4">
-        <v>0.40961641475556793</v>
+        <v>0.4096164147555679</v>
       </c>
       <c r="I4">
-        <v>0.42330051276039748</v>
+        <v>0.4233005127603975</v>
       </c>
       <c r="J4">
-        <v>5.2151807942732949E-2</v>
+        <v>0.05215180794273295</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3220,31 +3145,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.86468291511402917</v>
+        <v>0.2127813587662671</v>
       </c>
       <c r="C5">
-        <v>0.99999999999999956</v>
+        <v>0.4516302189490696</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.07845532615307817</v>
       </c>
       <c r="E5">
-        <v>0.999999999999999</v>
+        <v>0.7859980644626985</v>
       </c>
       <c r="F5">
-        <v>0.86468291511403028</v>
+        <v>0.2707148635432361</v>
       </c>
       <c r="G5">
-        <v>0.999999999999999</v>
+        <v>0.7859980644626985</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.2837474054612983</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.4443646979063666</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.05793350477696899</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3252,31 +3177,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.31594512487599102</v>
+        <v>0.3074881328582495</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.9457455522424295</v>
       </c>
       <c r="D6">
-        <v>5.6462144530421317E-2</v>
+        <v>0.05886318272886346</v>
       </c>
       <c r="E6">
-        <v>0.58857188665340165</v>
+        <v>0.5894275862553304</v>
       </c>
       <c r="F6">
-        <v>0.53679955166129922</v>
+        <v>0.5216724497265905</v>
       </c>
       <c r="G6">
-        <v>0.58857188665340165</v>
+        <v>0.5894275862553304</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.02848016337998033</v>
       </c>
       <c r="I6">
-        <v>0.45239488685650397</v>
+        <v>0.4441250569537207</v>
       </c>
       <c r="J6">
-        <v>0.22085442678530851</v>
+        <v>0.2141843168683411</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3284,28 +3209,28 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.46613704284576352</v>
+        <v>0.2262630306865474</v>
       </c>
       <c r="C7">
-        <v>0.856172796741832</v>
+        <v>0.3999454415628016</v>
       </c>
       <c r="D7">
-        <v>1.0165825677922249</v>
+        <v>0.0483138151398794</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="F7">
-        <v>0.46613704284576352</v>
+        <v>0.2262630306865475</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="H7">
-        <v>0.14429818754470269</v>
+        <v>0.3065710934227761</v>
       </c>
       <c r="I7">
-        <v>6.2400440485738118E-3</v>
+        <v>0.4655771134233186</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -3316,31 +3241,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.1882870327551146</v>
+        <v>0.1771261140696384</v>
       </c>
       <c r="C8">
-        <v>0.4587882446936663</v>
+        <v>0.4066562491371959</v>
       </c>
       <c r="D8">
-        <v>5.7653223384746986E-3</v>
+        <v>0.01317280087040199</v>
       </c>
       <c r="E8">
-        <v>0.79616012498539157</v>
+        <v>0.8257874410882302</v>
       </c>
       <c r="F8">
-        <v>0.2364939248352452</v>
+        <v>0.2144935915281998</v>
       </c>
       <c r="G8">
-        <v>0.79616012498539157</v>
+        <v>0.8257874410882302</v>
       </c>
       <c r="H8">
-        <v>0.27709253532639733</v>
+        <v>0.3049538973119787</v>
       </c>
       <c r="I8">
-        <v>0.46886319235257162</v>
+        <v>0.4805525111598214</v>
       </c>
       <c r="J8">
-        <v>4.8206892080130577E-2</v>
+        <v>0.03736747745856148</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3348,31 +3273,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.2078933384546898</v>
+        <v>0.1970549404331607</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.6296483847538673</v>
       </c>
       <c r="D9">
-        <v>-0.4550651080926193</v>
+        <v>0.0443425985856688</v>
       </c>
       <c r="E9">
-        <v>0.37670344467000522</v>
+        <v>0.5698240762539818</v>
       </c>
       <c r="F9">
-        <v>0.55187533163336411</v>
+        <v>0.3458171541795812</v>
       </c>
       <c r="G9">
-        <v>0.37670344467000522</v>
+        <v>0.5698240762539818</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.1914417527244346</v>
       </c>
       <c r="I9">
-        <v>0.32717007061886472</v>
+        <v>0.4609838516285392</v>
       </c>
       <c r="J9">
-        <v>0.34398199317867428</v>
+        <v>0.1487622137464206</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3380,31 +3305,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.20428348935991791</v>
+        <v>0.2015056262385533</v>
       </c>
       <c r="C10">
-        <v>0.53705380128897195</v>
+        <v>0.4971748401555001</v>
       </c>
       <c r="D10">
-        <v>7.3513119026400134E-2</v>
+        <v>0.07876313946688294</v>
       </c>
       <c r="E10">
-        <v>0.66941370556607938</v>
+        <v>0.6762941245957562</v>
       </c>
       <c r="F10">
-        <v>0.30516777242731941</v>
+        <v>0.2979556067646794</v>
       </c>
       <c r="G10">
-        <v>0.66941370556607938</v>
+        <v>0.6762941245957562</v>
       </c>
       <c r="H10">
-        <v>0.23619783185262111</v>
+        <v>0.267736269633753</v>
       </c>
       <c r="I10">
-        <v>0.44598760021611111</v>
+        <v>0.4343081236015677</v>
       </c>
       <c r="J10">
-        <v>0.10088428306740151</v>
+        <v>0.09644998052612613</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3412,31 +3337,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.18209009077680571</v>
+        <v>0.1820900907768057</v>
       </c>
       <c r="C11">
-        <v>0.86116406970853576</v>
+        <v>0.8611640697085358</v>
       </c>
       <c r="D11">
-        <v>1.0975019949632779E-2</v>
+        <v>0.01097501994963278</v>
       </c>
       <c r="E11">
-        <v>0.49527319548159232</v>
+        <v>0.4952731954815923</v>
       </c>
       <c r="F11">
-        <v>0.36765585628896841</v>
+        <v>0.3676558562889684</v>
       </c>
       <c r="G11">
-        <v>0.49527319548159232</v>
+        <v>0.4952731954815923</v>
       </c>
       <c r="H11">
-        <v>5.8690899672810271E-2</v>
+        <v>0.05869089967281027</v>
       </c>
       <c r="I11">
-        <v>0.57365324403822127</v>
+        <v>0.5736532440382213</v>
       </c>
       <c r="J11">
-        <v>0.18556576551216269</v>
+        <v>0.1855657655121627</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3444,28 +3369,28 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.34046032419722838</v>
+        <v>0.3404603241972284</v>
       </c>
       <c r="C12">
         <v>0.6299890169268596</v>
       </c>
       <c r="D12">
-        <v>5.7282004893442059E-3</v>
+        <v>0.005728200489344206</v>
       </c>
       <c r="E12">
-        <v>1.0000000000293721</v>
+        <v>1.000000000029372</v>
       </c>
       <c r="F12">
-        <v>0.34046032419722838</v>
+        <v>0.3404603241972284</v>
       </c>
       <c r="G12">
-        <v>1.0000000000293721</v>
+        <v>1.000000000029372</v>
       </c>
       <c r="H12">
-        <v>0.20088891122379099</v>
+        <v>0.200888911223791</v>
       </c>
       <c r="I12">
-        <v>0.45865076457898057</v>
+        <v>0.4586507645789806</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -3476,31 +3401,31 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.57984430270829534</v>
+        <v>0.09699548935591462</v>
       </c>
       <c r="C13">
-        <v>0.159728618963382</v>
+        <v>0.1538207114543502</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0.737694807404546</v>
       </c>
       <c r="E13">
-        <v>1.000000000017174</v>
+        <v>0.229646204581281</v>
       </c>
       <c r="F13">
-        <v>0.57984430270833687</v>
+        <v>0.4223692245864246</v>
       </c>
       <c r="G13">
-        <v>1.000000000017174</v>
+        <v>0.229646204581281</v>
       </c>
       <c r="H13">
-        <v>0.42015569729166302</v>
+        <v>0.4544326079689146</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.1231981674446608</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.3253737352305096</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3508,22 +3433,22 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.30372546978261661</v>
+        <v>0.3037254697826166</v>
       </c>
       <c r="C14">
-        <v>0.99999999999999989</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>0.30372546978565379</v>
+        <v>0.3037254697856538</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.30372546978565379</v>
+        <v>0.3037254697856538</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -3532,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.69627453021738339</v>
+        <v>0.6962745302173834</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3540,31 +3465,31 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.1803316826443879</v>
+        <v>0.1713256028102247</v>
       </c>
       <c r="C15">
-        <v>0.43273305854531918</v>
+        <v>0.4327330585453191</v>
       </c>
       <c r="D15">
         <v>0.1147304513458401</v>
       </c>
       <c r="E15">
-        <v>0.64147415616843695</v>
+        <v>0.6094378141497252</v>
       </c>
       <c r="F15">
-        <v>0.28112072936489668</v>
+        <v>0.2811207293648967</v>
       </c>
       <c r="G15">
-        <v>0.64147415616843695</v>
+        <v>0.6094378141497252</v>
       </c>
       <c r="H15">
-        <v>0.29842030765915251</v>
+        <v>0.2984203076591525</v>
       </c>
       <c r="I15">
-        <v>0.42045896297595092</v>
+        <v>0.4204589629759509</v>
       </c>
       <c r="J15">
-        <v>0.1007890467205081</v>
+        <v>0.109795126554672</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -3572,31 +3497,31 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.1601721215787926</v>
+        <v>0.1437276244138808</v>
       </c>
       <c r="C16">
-        <v>9.5607669503776707E-2</v>
+        <v>0.09560766950377668</v>
       </c>
       <c r="D16">
-        <v>0.36128900015658139</v>
+        <v>0.3612890001565814</v>
       </c>
       <c r="E16">
-        <v>0.73901734224839932</v>
+        <v>0.6631441598890946</v>
       </c>
       <c r="F16">
-        <v>0.21673662095516219</v>
+        <v>0.2167366209551622</v>
       </c>
       <c r="G16">
-        <v>0.73901734224839932</v>
+        <v>0.6631441598890946</v>
       </c>
       <c r="H16">
-        <v>0.48643068335086459</v>
+        <v>0.4864306833508646</v>
       </c>
       <c r="I16">
-        <v>0.29683269569397308</v>
+        <v>0.2968326956939731</v>
       </c>
       <c r="J16">
-        <v>5.656449937636835E-2</v>
+        <v>0.07300899654128148</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -3604,31 +3529,31 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>8.4614644824716215E-2</v>
+        <v>0.08461464482471621</v>
       </c>
       <c r="C17">
-        <v>0.19113393015502489</v>
+        <v>0.1911339301550249</v>
       </c>
       <c r="D17">
-        <v>8.8923688277509044E-2</v>
+        <v>0.08892368827750904</v>
       </c>
       <c r="E17">
-        <v>0.61090904884823405</v>
+        <v>0.610909048848234</v>
       </c>
       <c r="F17">
         <v>0.1385061245865517</v>
       </c>
       <c r="G17">
-        <v>0.61090904884823405</v>
+        <v>0.610909048848234</v>
       </c>
       <c r="H17">
-        <v>0.41507703820171932</v>
+        <v>0.4150770382017193</v>
       </c>
       <c r="I17">
-        <v>0.44641683721172898</v>
+        <v>0.446416837211729</v>
       </c>
       <c r="J17">
-        <v>5.389147976183549E-2</v>
+        <v>0.05389147976183549</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -3636,31 +3561,31 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>5.2506012793749328E-2</v>
+        <v>0.04653059170536267</v>
       </c>
       <c r="C18">
-        <v>8.0890016250706812E-2</v>
+        <v>0.08089001625070681</v>
       </c>
       <c r="D18">
-        <v>3.0524744224019601E-2</v>
+        <v>0.0305247442240196</v>
       </c>
       <c r="E18">
-        <v>1.0000000001905309</v>
+        <v>0.8861954895910038</v>
       </c>
       <c r="F18">
-        <v>5.2506012793745303E-2</v>
+        <v>0.0525060127937453</v>
       </c>
       <c r="G18">
-        <v>1.0000000001905309</v>
+        <v>0.8861954895910038</v>
       </c>
       <c r="H18">
-        <v>0.46679952390164092</v>
+        <v>0.4667995239016409</v>
       </c>
       <c r="I18">
-        <v>0.48069446330461379</v>
+        <v>0.4806944633046139</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.005975421088382688</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3668,31 +3593,31 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.14301049826976661</v>
+        <v>0.1430104982697666</v>
       </c>
       <c r="C19">
-        <v>0.62831801090682682</v>
+        <v>0.6283180109068268</v>
       </c>
       <c r="D19">
-        <v>2.323160852745669E-2</v>
+        <v>0.02323160852745669</v>
       </c>
       <c r="E19">
-        <v>0.40886936459824957</v>
+        <v>0.4088693645982496</v>
       </c>
       <c r="F19">
-        <v>0.34977063741221071</v>
+        <v>0.3497706374122107</v>
       </c>
       <c r="G19">
-        <v>0.40886936459824957</v>
+        <v>0.4088693645982496</v>
       </c>
       <c r="H19">
-        <v>0.20420152201381861</v>
+        <v>0.2042015220138186</v>
       </c>
       <c r="I19">
-        <v>0.44602784057397071</v>
+        <v>0.4460278405739707</v>
       </c>
       <c r="J19">
-        <v>0.20676013914244401</v>
+        <v>0.206760139142444</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3700,31 +3625,31 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.24631839513934001</v>
+        <v>0.2404624072438187</v>
       </c>
       <c r="C20">
-        <v>0.4992818947879063</v>
+        <v>0.4733336230416609</v>
       </c>
       <c r="D20">
-        <v>1.9421419233629111E-2</v>
+        <v>0.02069596920067582</v>
       </c>
       <c r="E20">
-        <v>0.94182318092983619</v>
+        <v>0.9312619217322258</v>
       </c>
       <c r="F20">
-        <v>0.26153358733022108</v>
+        <v>0.2582113599210101</v>
       </c>
       <c r="G20">
-        <v>0.94182318092983619</v>
+        <v>0.9312619217322258</v>
       </c>
       <c r="H20">
-        <v>0.25480091349676731</v>
+        <v>0.2782835208304183</v>
       </c>
       <c r="I20">
-        <v>0.46852625111154012</v>
+        <v>0.4635051192485716</v>
       </c>
       <c r="J20">
-        <v>1.5215192190881169E-2</v>
+        <v>0.01774895267719145</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -3732,28 +3657,28 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>6.5056248047977619E-2</v>
+        <v>0.06505624804797761</v>
       </c>
       <c r="C21">
-        <v>0.12433490982954409</v>
+        <v>0.1243349098295441</v>
       </c>
       <c r="D21">
-        <v>9.2542566619353613E-3</v>
+        <v>0.009254256661935361</v>
       </c>
       <c r="E21">
         <v>1.000000000153713</v>
       </c>
       <c r="F21">
-        <v>6.5056248047977619E-2</v>
+        <v>0.06505624804797762</v>
       </c>
       <c r="G21">
         <v>1.000000000153713</v>
       </c>
       <c r="H21">
-        <v>0.45455029177322198</v>
+        <v>0.454550291773222</v>
       </c>
       <c r="I21">
-        <v>0.48039346017880041</v>
+        <v>0.4803934601788004</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -3764,31 +3689,31 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0.53207219906258274</v>
+        <v>0.0879656095253214</v>
       </c>
       <c r="C22">
-        <v>6.4196325187964254E-2</v>
+        <v>0.08124114352759387</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22">
-        <v>1.000000000018775</v>
+        <v>0.1402184368073507</v>
       </c>
       <c r="F22">
-        <v>0.53207219906259295</v>
+        <v>0.6273469561465836</v>
       </c>
       <c r="G22">
-        <v>1.000000000018775</v>
+        <v>0.1402184368073507</v>
       </c>
       <c r="H22">
-        <v>0.46792780093740721</v>
+        <v>0.3726530438534166</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.5393813466212619</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -3796,31 +3721,31 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0.1245232518644723</v>
+        <v>0.1089242735120985</v>
       </c>
       <c r="C23">
-        <v>6.052364782296743E-2</v>
+        <v>0.06052364782296744</v>
       </c>
       <c r="D23">
-        <v>0.95939165067187671</v>
+        <v>0.9593916506718768</v>
       </c>
       <c r="E23">
-        <v>0.26255685201398732</v>
+        <v>0.2296664593402465</v>
       </c>
       <c r="F23">
-        <v>0.47427157551563021</v>
+        <v>0.4742715755156303</v>
       </c>
       <c r="G23">
-        <v>0.26255685201398732</v>
+        <v>0.2296664593402465</v>
       </c>
       <c r="H23">
-        <v>0.5063874584683572</v>
+        <v>0.5063874584683571</v>
       </c>
       <c r="I23">
-        <v>1.9340966016012762E-2</v>
+        <v>0.01934096601601271</v>
       </c>
       <c r="J23">
-        <v>0.34974832365115782</v>
+        <v>0.3653473020035318</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -3828,31 +3753,31 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0.26708396725050632</v>
+        <v>0.1802807414967544</v>
       </c>
       <c r="C24">
-        <v>0.52981714118270196</v>
+        <v>0.458332139535685</v>
       </c>
       <c r="D24">
-        <v>0.29768313051598788</v>
+        <v>0.2234530546457441</v>
       </c>
       <c r="E24">
-        <v>0.71046943658559736</v>
+        <v>0.6252383752767001</v>
       </c>
       <c r="F24">
-        <v>0.39789491258320742</v>
+        <v>0.345213206727638</v>
       </c>
       <c r="G24">
-        <v>0.71046943658559736</v>
+        <v>0.6252383752767001</v>
       </c>
       <c r="H24">
-        <v>0.24652044671955811</v>
+        <v>0.2787809717760821</v>
       </c>
       <c r="I24">
-        <v>0.32349310862785718</v>
+        <v>0.3752924149934501</v>
       </c>
       <c r="J24">
-        <v>0.13081094533269891</v>
+        <v>0.1649324652308836</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -3860,51 +3785,45 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0.18597197520875541</v>
+        <v>0.07973068687231002</v>
       </c>
       <c r="C25">
-        <v>0.34598302540475889</v>
+        <v>0.299533828058696</v>
       </c>
       <c r="D25">
-        <v>0.43711679437408962</v>
+        <v>0.3337270999273232</v>
       </c>
       <c r="E25">
-        <v>0.24503520263640249</v>
+        <v>0.2489037927723307</v>
       </c>
       <c r="F25">
-        <v>0.22490407471912041</v>
+        <v>0.1991369065300528</v>
       </c>
       <c r="G25">
-        <v>0.24503520263640249</v>
+        <v>0.2489037927723307</v>
       </c>
       <c r="H25">
-        <v>0.1774044022989662</v>
+        <v>0.1535831320961816</v>
       </c>
       <c r="I25">
-        <v>0.19765036549807199</v>
+        <v>0.1640287785946744</v>
       </c>
       <c r="J25">
-        <v>0.16465291955550929</v>
+        <v>0.176309767942794</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
@@ -3940,31 +3859,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.22683689873146981</v>
+        <v>0.2268368987314698</v>
       </c>
       <c r="C2">
-        <v>0.99999999999999978</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="D2">
-        <v>3.3532296378577929E-2</v>
+        <v>0.03353229637857793</v>
       </c>
       <c r="E2">
-        <v>0.41793065011278818</v>
+        <v>0.4179306501127882</v>
       </c>
       <c r="F2">
-        <v>0.54276205554738011</v>
+        <v>0.5427620555473801</v>
       </c>
       <c r="G2">
-        <v>0.41793065011278818</v>
+        <v>0.4179306501127882</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.45723794445261973</v>
+        <v>0.4572379444526197</v>
       </c>
       <c r="J2">
-        <v>0.31592515681591021</v>
+        <v>0.3159251568159102</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3972,31 +3891,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.29259786366627172</v>
+        <v>0.2901327326596163</v>
       </c>
       <c r="C3">
-        <v>0.76245477885865931</v>
+        <v>0.7738781662191191</v>
       </c>
       <c r="D3">
-        <v>7.8184965877875656E-2</v>
+        <v>0.07953003704442722</v>
       </c>
       <c r="E3">
-        <v>0.69022706807212175</v>
+        <v>0.6908988960487976</v>
       </c>
       <c r="F3">
-        <v>0.42391537104380578</v>
+        <v>0.4199351516102646</v>
       </c>
       <c r="G3">
-        <v>0.69022706807212175</v>
+        <v>0.6908988960487976</v>
       </c>
       <c r="H3">
-        <v>0.12160920314235089</v>
+        <v>0.1175795701335332</v>
       </c>
       <c r="I3">
-        <v>0.44424564423305191</v>
+        <v>0.4528582501045618</v>
       </c>
       <c r="J3">
-        <v>0.131317507377534</v>
+        <v>0.1298024189506484</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4004,31 +3923,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.11500634227044609</v>
+        <v>0.1150063422704461</v>
       </c>
       <c r="C4">
-        <v>0.21141646090211619</v>
+        <v>0.2114164609021162</v>
       </c>
       <c r="D4">
-        <v>0.11674619626685601</v>
+        <v>0.116746196266856</v>
       </c>
       <c r="E4">
-        <v>0.68998622962340173</v>
+        <v>0.6899862296234017</v>
       </c>
       <c r="F4">
-        <v>0.16667918479071281</v>
+        <v>0.1666791847907128</v>
       </c>
       <c r="G4">
-        <v>0.68998622962340173</v>
+        <v>0.6899862296234017</v>
       </c>
       <c r="H4">
-        <v>0.41046131219218179</v>
+        <v>0.4104613121921818</v>
       </c>
       <c r="I4">
-        <v>0.42285950301710529</v>
+        <v>0.4228595030171053</v>
       </c>
       <c r="J4">
-        <v>5.1672842520266639E-2</v>
+        <v>0.05167284252026664</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4036,31 +3955,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.2129116733274597</v>
       </c>
       <c r="C5">
-        <v>0.99999999999999944</v>
+        <v>0.4601291031711646</v>
       </c>
       <c r="D5">
-        <v>1.0000000000000011</v>
+        <v>0.07770529447509593</v>
       </c>
       <c r="E5">
-        <v>0.99999999999999911</v>
+        <v>0.7796744067151237</v>
       </c>
       <c r="F5">
-        <v>1.0000000000000011</v>
+        <v>0.2730776738260348</v>
       </c>
       <c r="G5">
-        <v>0.99999999999999911</v>
+        <v>0.7796744067151237</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.2777814816686267</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.4475675617532</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.06016600049857507</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4068,31 +3987,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.31621868509176249</v>
+        <v>0.3099811796063345</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.9900247090276917</v>
       </c>
       <c r="D6">
-        <v>5.7359661187426657E-2</v>
+        <v>0.05839050954181605</v>
       </c>
       <c r="E6">
-        <v>0.58923663668225257</v>
+        <v>0.5861200494862048</v>
       </c>
       <c r="F6">
-        <v>0.53665822083341419</v>
+        <v>0.5288697765552728</v>
       </c>
       <c r="G6">
-        <v>0.58923663668225257</v>
+        <v>0.5861200494862048</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.005202330243632536</v>
       </c>
       <c r="I6">
-        <v>0.45258538795482361</v>
+        <v>0.4565573511422246</v>
       </c>
       <c r="J6">
-        <v>0.22043953574165201</v>
+        <v>0.2188885969489383</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4100,28 +4019,28 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.46773485107146212</v>
+        <v>0.2298456885223085</v>
       </c>
       <c r="C7">
-        <v>0.85255561983849193</v>
+        <v>0.5073603240343459</v>
       </c>
       <c r="D7">
-        <v>1.0003859233035379</v>
+        <v>0.05397362560686253</v>
       </c>
       <c r="E7">
-        <v>0.99991315557956373</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F7">
-        <v>0.46762595581477179</v>
+        <v>0.2298456885223085</v>
       </c>
       <c r="G7">
-        <v>0.99991315557956373</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H7">
-        <v>0.14734511357684729</v>
+        <v>0.2605013670003903</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.5067719124386031</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -4132,31 +4051,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.19356468231152249</v>
+        <v>0.1771394609806424</v>
       </c>
       <c r="C8">
-        <v>0.5258894051712526</v>
+        <v>0.4044969978794448</v>
       </c>
       <c r="D8">
-        <v>1.307194533459269E-2</v>
+        <v>0.01305833196986121</v>
       </c>
       <c r="E8">
-        <v>0.82558192778921047</v>
+        <v>0.825605631587963</v>
       </c>
       <c r="F8">
-        <v>0.2344584780699607</v>
+        <v>0.2145569921076408</v>
       </c>
       <c r="G8">
-        <v>0.82558192778921047</v>
+        <v>0.825605631587963</v>
       </c>
       <c r="H8">
-        <v>0.25621223163337409</v>
+        <v>0.3056873382234747</v>
       </c>
       <c r="I8">
-        <v>0.49175420332110731</v>
+        <v>0.4797556696688844</v>
       </c>
       <c r="J8">
-        <v>4.0893795758438177E-2</v>
+        <v>0.03741753112699847</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4164,31 +4083,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.20965043668358749</v>
+        <v>0.198817871952642</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.6574085307679829</v>
       </c>
       <c r="D9">
-        <v>-0.45041333468468819</v>
+        <v>0.04472258949273435</v>
       </c>
       <c r="E9">
-        <v>0.37808163546788542</v>
+        <v>0.5650259708792917</v>
       </c>
       <c r="F9">
-        <v>0.55451102887909354</v>
+        <v>0.3518738645645654</v>
       </c>
       <c r="G9">
-        <v>0.37808163546788542</v>
+        <v>0.5650259708792917</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.1763574616426234</v>
       </c>
       <c r="I9">
-        <v>0.32356684008961067</v>
+        <v>0.4686714946088478</v>
       </c>
       <c r="J9">
-        <v>0.34486059219550608</v>
+        <v>0.1530559926119234</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4196,31 +4115,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.20443213931561269</v>
+        <v>0.2018044204807101</v>
       </c>
       <c r="C10">
-        <v>0.53996673149222163</v>
+        <v>0.4877666136793575</v>
       </c>
       <c r="D10">
-        <v>7.4566298108371717E-2</v>
+        <v>0.07889448707801955</v>
       </c>
       <c r="E10">
-        <v>0.66905544235101022</v>
+        <v>0.6766392236010824</v>
       </c>
       <c r="F10">
-        <v>0.30555336131375538</v>
+        <v>0.2982452294247803</v>
       </c>
       <c r="G10">
-        <v>0.66905544235101022</v>
+        <v>0.6766392236010824</v>
       </c>
       <c r="H10">
-        <v>0.23496408499643801</v>
+        <v>0.2720203602384694</v>
       </c>
       <c r="I10">
-        <v>0.44689027842272422</v>
+        <v>0.4297344103367503</v>
       </c>
       <c r="J10">
-        <v>0.1011212219981427</v>
+        <v>0.09644080894407028</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4228,31 +4147,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.18246930098742101</v>
+        <v>0.182469300987421</v>
       </c>
       <c r="C11">
-        <v>0.86196269245621571</v>
+        <v>0.8619626924562157</v>
       </c>
       <c r="D11">
-        <v>1.0965400171603591E-2</v>
+        <v>0.01096540017160359</v>
       </c>
       <c r="E11">
-        <v>0.49509770360403071</v>
+        <v>0.4950977036040307</v>
       </c>
       <c r="F11">
-        <v>0.36855210528982041</v>
+        <v>0.3685521052898204</v>
       </c>
       <c r="G11">
-        <v>0.49509770360403071</v>
+        <v>0.4950977036040307</v>
       </c>
       <c r="H11">
-        <v>5.8003896357440909E-2</v>
+        <v>0.05800389635744091</v>
       </c>
       <c r="I11">
-        <v>0.57344399835273874</v>
+        <v>0.5734439983527387</v>
       </c>
       <c r="J11">
-        <v>0.18608280430239921</v>
+        <v>0.1860828043023992</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4260,28 +4179,28 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.34114330703408158</v>
+        <v>0.3411433070340816</v>
       </c>
       <c r="C12">
         <v>0.6248055426452882</v>
       </c>
       <c r="D12">
-        <v>5.7390920940877492E-3</v>
+        <v>0.005739092094087749</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.34114330703408158</v>
+        <v>0.3411433070340816</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12">
-        <v>0.2032784918971812</v>
+        <v>0.2032784918971811</v>
       </c>
       <c r="I12">
-        <v>0.45557820106873731</v>
+        <v>0.4555782010687373</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -4292,31 +4211,31 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.77826913802618947</v>
+        <v>0.09717442130180132</v>
       </c>
       <c r="C13">
-        <v>0.55655939260111775</v>
+        <v>0.1343867591295233</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0.7462772190829331</v>
       </c>
       <c r="E13">
-        <v>0.99999999999991218</v>
+        <v>0.2315335627565124</v>
       </c>
       <c r="F13">
-        <v>0.77826913802625786</v>
+        <v>0.4196990714646103</v>
       </c>
       <c r="G13">
-        <v>0.99999999999991218</v>
+        <v>0.2315335627565124</v>
       </c>
       <c r="H13">
-        <v>0.22173086197374201</v>
+        <v>0.4634837785010932</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.1168171500342965</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.3225246501628085</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4324,22 +4243,22 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.339450295768566</v>
+        <v>0.3167026105149929</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D14">
-        <v>1.000000000000012</v>
+        <v>1.000000000000156</v>
       </c>
       <c r="E14">
-        <v>0.339450295768566</v>
+        <v>0.3167026105149929</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.339450295768566</v>
+        <v>0.3167026105149929</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -4348,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.660549704231434</v>
+        <v>0.6832973894850071</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4356,31 +4275,31 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.18036928009958769</v>
+        <v>0.1714306400209578</v>
       </c>
       <c r="C15">
-        <v>0.43185319299746122</v>
+        <v>0.4318531929974611</v>
       </c>
       <c r="D15">
-        <v>0.1141419261488596</v>
+        <v>0.1141419261488597</v>
       </c>
       <c r="E15">
-        <v>0.64176358884413565</v>
+        <v>0.609959427220381</v>
       </c>
       <c r="F15">
-        <v>0.28105252967755051</v>
+        <v>0.2810525296775505</v>
       </c>
       <c r="G15">
-        <v>0.64176358884413565</v>
+        <v>0.609959427220381</v>
       </c>
       <c r="H15">
-        <v>0.29847862820172011</v>
+        <v>0.2984786282017203</v>
       </c>
       <c r="I15">
-        <v>0.42046884212072932</v>
+        <v>0.4204688421207292</v>
       </c>
       <c r="J15">
-        <v>0.1006832495779626</v>
+        <v>0.1096218896565927</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4388,31 +4307,31 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.1602147890343559</v>
+        <v>0.14391347879425</v>
       </c>
       <c r="C16">
-        <v>9.1125748411262489E-2</v>
+        <v>0.0911257484112625</v>
       </c>
       <c r="D16">
-        <v>0.36067604898368461</v>
+        <v>0.3606760489836846</v>
       </c>
       <c r="E16">
-        <v>0.74184454238590003</v>
+        <v>0.6663643816076787</v>
       </c>
       <c r="F16">
         <v>0.2159681441061459</v>
       </c>
       <c r="G16">
-        <v>0.74184454238590003</v>
+        <v>0.6663643816076787</v>
       </c>
       <c r="H16">
-        <v>0.48792440688061561</v>
+        <v>0.4879244068806156</v>
       </c>
       <c r="I16">
-        <v>0.29610744901323838</v>
+        <v>0.2961074490132385</v>
       </c>
       <c r="J16">
-        <v>5.5753355071790113E-2</v>
+        <v>0.07205466531189644</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4420,31 +4339,31 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>8.4622017886093637E-2</v>
+        <v>0.08462201788609364</v>
       </c>
       <c r="C17">
-        <v>0.18153353405079559</v>
+        <v>0.1815335340507956</v>
       </c>
       <c r="D17">
-        <v>8.8801874425776597E-2</v>
+        <v>0.0888018744257766</v>
       </c>
       <c r="E17">
-        <v>0.61275855693743231</v>
+        <v>0.6127585569374323</v>
       </c>
       <c r="F17">
-        <v>0.13810009983219909</v>
+        <v>0.1381000998321991</v>
       </c>
       <c r="G17">
-        <v>0.61275855693743231</v>
+        <v>0.6127585569374323</v>
       </c>
       <c r="H17">
-        <v>0.41951518895477602</v>
+        <v>0.419515188954776</v>
       </c>
       <c r="I17">
-        <v>0.44238471121302492</v>
+        <v>0.4423847112130249</v>
       </c>
       <c r="J17">
-        <v>5.3478081946105427E-2</v>
+        <v>0.05347808194610543</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4452,31 +4371,31 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>6.4267165736865195E-2</v>
+        <v>0.04730168358329001</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0.353369636712293</v>
       </c>
       <c r="D18">
-        <v>2.9804289973789869E-2</v>
+        <v>0.03032026941478206</v>
       </c>
       <c r="E18">
-        <v>0.9999999999999698</v>
+        <v>0.8389552204487626</v>
       </c>
       <c r="F18">
-        <v>6.4267165736867138E-2</v>
+        <v>0.05638165474193967</v>
       </c>
       <c r="G18">
-        <v>0.9999999999999698</v>
+        <v>0.8389552204487626</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.333918884793916</v>
       </c>
       <c r="I18">
-        <v>0.93573283426313292</v>
+        <v>0.6096994604641444</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.009079971158649659</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4484,31 +4403,31 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.14610211701705469</v>
+        <v>0.1435706074902705</v>
       </c>
       <c r="C19">
-        <v>0.46076148677179313</v>
+        <v>0.6110934936038201</v>
       </c>
       <c r="D19">
-        <v>1.1953977357333291E-2</v>
+        <v>0.02321125574838166</v>
       </c>
       <c r="E19">
-        <v>0.4050447366898744</v>
+        <v>0.4086924939904194</v>
       </c>
       <c r="F19">
-        <v>0.36070612399765328</v>
+        <v>0.3512924988870388</v>
       </c>
       <c r="G19">
-        <v>0.4050447366898744</v>
+        <v>0.4086924939904194</v>
       </c>
       <c r="H19">
-        <v>0.26963033437422179</v>
+        <v>0.2125951406739158</v>
       </c>
       <c r="I19">
-        <v>0.36966354162812493</v>
+        <v>0.4361123604390454</v>
       </c>
       <c r="J19">
-        <v>0.21460400698059859</v>
+        <v>0.2077218913967684</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -4516,31 +4435,31 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.2465346759199781</v>
+        <v>0.2408134708670045</v>
       </c>
       <c r="C20">
-        <v>0.50017791118805388</v>
+        <v>0.4702087861421297</v>
       </c>
       <c r="D20">
-        <v>1.974621991297754E-2</v>
+        <v>0.02057161056639975</v>
       </c>
       <c r="E20">
-        <v>0.9426781250092674</v>
+        <v>0.9311756525123852</v>
       </c>
       <c r="F20">
-        <v>0.26152582666279062</v>
+        <v>0.2586122931986793</v>
       </c>
       <c r="G20">
-        <v>0.9426781250092674</v>
+        <v>0.9311756525123852</v>
       </c>
       <c r="H20">
-        <v>0.25458404981562482</v>
+        <v>0.2792730903970801</v>
       </c>
       <c r="I20">
-        <v>0.46881393145631461</v>
+        <v>0.4621146164042406</v>
       </c>
       <c r="J20">
-        <v>1.499115074281249E-2</v>
+        <v>0.01779882233167482</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -4548,25 +4467,25 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>6.5078446337302615E-2</v>
+        <v>0.06507844633730261</v>
       </c>
       <c r="C21">
         <v>0.1122785851118414</v>
       </c>
       <c r="D21">
-        <v>9.2683330011814231E-3</v>
+        <v>0.009268333001181423</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21">
-        <v>6.5078446337302615E-2</v>
+        <v>0.06507844633730261</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>0.46004906924804512</v>
+        <v>0.4600490692480451</v>
       </c>
       <c r="I21">
         <v>0.4748724844146523</v>
@@ -4580,31 +4499,31 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0.63293803790872971</v>
+        <v>0.08488699944094424</v>
       </c>
       <c r="C22">
-        <v>0.26591680955785851</v>
+        <v>0.05339876709974645</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22">
-        <v>0.9999999999999668</v>
+        <v>0.1611758719893542</v>
       </c>
       <c r="F22">
-        <v>0.63293803790875081</v>
+        <v>0.526673120444176</v>
       </c>
       <c r="G22">
-        <v>0.9999999999999668</v>
+        <v>0.1611758719893542</v>
       </c>
       <c r="H22">
-        <v>0.36706196209124919</v>
+        <v>0.4733268795558241</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.4417861210032317</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -4612,31 +4531,31 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0.12459268838133181</v>
+        <v>0.1091640893613861</v>
       </c>
       <c r="C23">
-        <v>1.477237399520406E-2</v>
+        <v>0.01477237399520407</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23">
-        <v>0.26474926356725359</v>
+        <v>0.2319647536455854</v>
       </c>
       <c r="F23">
-        <v>0.47060636431074249</v>
+        <v>0.4706063643107427</v>
       </c>
       <c r="G23">
-        <v>0.26474926356725359</v>
+        <v>0.2319647536455854</v>
       </c>
       <c r="H23">
-        <v>0.52939363568925746</v>
+        <v>0.5293936356892573</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.34601367592941079</v>
+        <v>0.3614422749493566</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -4644,31 +4563,31 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0.28964059814907689</v>
+        <v>0.1813976064614284</v>
       </c>
       <c r="C24">
-        <v>0.59063773936589237</v>
+        <v>0.4742395462744001</v>
       </c>
       <c r="D24">
-        <v>0.29884232335644811</v>
+        <v>0.2257511998860044</v>
       </c>
       <c r="E24">
-        <v>0.71379088902202459</v>
+        <v>0.6243755133310084</v>
       </c>
       <c r="F24">
-        <v>0.41865322478241168</v>
+        <v>0.3417729660124204</v>
       </c>
       <c r="G24">
-        <v>0.71379088902202459</v>
+        <v>0.6243755133310084</v>
       </c>
       <c r="H24">
-        <v>0.21546556686477569</v>
+        <v>0.2747651051133544</v>
       </c>
       <c r="I24">
-        <v>0.33982753613735162</v>
+        <v>0.3822551532294384</v>
       </c>
       <c r="J24">
-        <v>0.1290175764177256</v>
+        <v>0.1603753595509919</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -4676,35 +4595,34 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0.22739084871590409</v>
+        <v>0.08121460850139454</v>
       </c>
       <c r="C25">
-        <v>0.32725043113647201</v>
+        <v>0.3016600539490683</v>
       </c>
       <c r="D25">
-        <v>0.43844813694425089</v>
+        <v>0.3381977112150029</v>
       </c>
       <c r="E25">
-        <v>0.24300832297154881</v>
+        <v>0.244059471062895</v>
       </c>
       <c r="F25">
-        <v>0.25023339117345389</v>
+        <v>0.1938675162960342</v>
       </c>
       <c r="G25">
-        <v>0.24300832297154881</v>
+        <v>0.244059471062895</v>
       </c>
       <c r="H25">
-        <v>0.17011841900431329</v>
+        <v>0.1585637185183368</v>
       </c>
       <c r="I25">
-        <v>0.23310543547696219</v>
+        <v>0.1731552923157543</v>
       </c>
       <c r="J25">
-        <v>0.1596197634539481</v>
+        <v>0.1660431023421844</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/result/life_2019_result.xlsx
+++ b/result/life_2019_result.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tungwu/Documents/GitHub/ORA_final_project/result/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F438CB3-9517-FF48-8166-790E1F89E411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -13,7 +19,7 @@
     <sheet name="VRS" sheetId="4" r:id="rId4"/>
     <sheet name="VRS_Z1split" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -152,12 +158,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -165,8 +171,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -212,15 +225,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -262,7 +283,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -294,9 +315,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -328,6 +367,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -503,12 +560,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
@@ -1317,34 +1374,34 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>7906898.727272728</v>
+        <v>7906898.7272727285</v>
       </c>
       <c r="C24">
-        <v>6450292.272727272</v>
+        <v>6450292.2727272715</v>
       </c>
       <c r="D24">
-        <v>3225146.136363636</v>
+        <v>3225146.1363636358</v>
       </c>
       <c r="E24">
-        <v>3225146.136363636</v>
+        <v>3225146.1363636358</v>
       </c>
       <c r="F24">
-        <v>135781097.4090909</v>
+        <v>135781097.40909091</v>
       </c>
       <c r="G24">
-        <v>980680.5909090909</v>
+        <v>980680.59090909094</v>
       </c>
       <c r="H24">
-        <v>134800416.8181818</v>
+        <v>134800416.81818181</v>
       </c>
       <c r="I24">
-        <v>1932334.454545455</v>
+        <v>1932334.4545454551</v>
       </c>
       <c r="J24">
         <v>163910509.1363636</v>
       </c>
       <c r="K24">
-        <v>44613073.95454545</v>
+        <v>44613073.954545453</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1352,16 +1409,16 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>9560529.304833516</v>
+        <v>9560529.3048335165</v>
       </c>
       <c r="C25">
-        <v>8199764.716936965</v>
+        <v>8199764.7169369645</v>
       </c>
       <c r="D25">
-        <v>4099882.358468483</v>
+        <v>4099882.3584684832</v>
       </c>
       <c r="E25">
-        <v>4099882.358468483</v>
+        <v>4099882.3584684832</v>
       </c>
       <c r="F25">
         <v>171390772.8406916</v>
@@ -1373,27 +1430,30 @@
         <v>170864227.6476731</v>
       </c>
       <c r="I25">
-        <v>2392903.153852054</v>
+        <v>2392903.1538520539</v>
       </c>
       <c r="J25">
-        <v>53241579.6633374</v>
+        <v>53241579.663337402</v>
       </c>
       <c r="K25">
-        <v>64110568.03288296</v>
+        <v>64110568.032882959</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="170" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
@@ -1435,25 +1495,25 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.03367955980608883</v>
+        <v>3.3679559806088832E-2</v>
       </c>
       <c r="E2">
-        <v>0.4178738642493248</v>
+        <v>0.41787386424932482</v>
       </c>
       <c r="F2">
-        <v>0.542233295546705</v>
+        <v>0.54223329554670496</v>
       </c>
       <c r="G2">
-        <v>0.4178738642493248</v>
+        <v>0.41787386424932482</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.457766704453295</v>
+        <v>0.45776670445329498</v>
       </c>
       <c r="J2">
-        <v>0.3156481730119572</v>
+        <v>0.31564817301195719</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1461,31 +1521,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.2656317726284538</v>
+        <v>0.26563177262845378</v>
       </c>
       <c r="C3">
-        <v>0.6853837985207542</v>
+        <v>0.68538379852075415</v>
       </c>
       <c r="D3">
-        <v>0.0828544553211305</v>
+        <v>8.2854455321130505E-2</v>
       </c>
       <c r="E3">
-        <v>0.6584902605132942</v>
+        <v>0.65849026051329418</v>
       </c>
       <c r="F3">
-        <v>0.4033951427336122</v>
+        <v>0.40339514273361221</v>
       </c>
       <c r="G3">
-        <v>0.6584902605132942</v>
+        <v>0.65849026051329418</v>
       </c>
       <c r="H3">
         <v>0.1685935678643341</v>
       </c>
       <c r="I3">
-        <v>0.4280112894020536</v>
+        <v>0.42801128940205357</v>
       </c>
       <c r="J3">
-        <v>0.1377633701051584</v>
+        <v>0.13776337010515841</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1496,28 +1556,28 @@
         <v>0.1008495964209625</v>
       </c>
       <c r="C4">
-        <v>0.2144844378013734</v>
+        <v>0.21448443780137341</v>
       </c>
       <c r="D4">
         <v>0.1176527144379093</v>
       </c>
       <c r="E4">
-        <v>0.6035895493279191</v>
+        <v>0.60358954932791908</v>
       </c>
       <c r="F4">
-        <v>0.1670830724840346</v>
+        <v>0.16708307248403459</v>
       </c>
       <c r="G4">
-        <v>0.6035895493279191</v>
+        <v>0.60358954932791908</v>
       </c>
       <c r="H4">
-        <v>0.409616414755568</v>
+        <v>0.40961641475556798</v>
       </c>
       <c r="I4">
-        <v>0.4233005127603974</v>
+        <v>0.42330051276039737</v>
       </c>
       <c r="J4">
-        <v>0.0662334760630721</v>
+        <v>6.6233476063072103E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1525,31 +1585,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.2043992060975436</v>
+        <v>0.20439920609754361</v>
       </c>
       <c r="C5">
-        <v>0.4280358716591826</v>
+        <v>0.42803587165918261</v>
       </c>
       <c r="D5">
-        <v>0.08169294237082632</v>
+        <v>8.1692942370826319E-2</v>
       </c>
       <c r="E5">
-        <v>0.7751320976788512</v>
+        <v>0.77513209767885116</v>
       </c>
       <c r="F5">
-        <v>0.2636959644809203</v>
+        <v>0.26369596448092031</v>
       </c>
       <c r="G5">
-        <v>0.7751320976788512</v>
+        <v>0.77513209767885116</v>
       </c>
       <c r="H5">
-        <v>0.3017429529142102</v>
+        <v>0.30174295291421022</v>
       </c>
       <c r="I5">
-        <v>0.4345610826048696</v>
+        <v>0.43456108260486959</v>
       </c>
       <c r="J5">
-        <v>0.0592967583833767</v>
+        <v>5.9296758383376703E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1557,31 +1617,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.2765570780088911</v>
+        <v>0.27655707800889112</v>
       </c>
       <c r="C6">
-        <v>0.887690063819803</v>
+        <v>0.88769006381980298</v>
       </c>
       <c r="D6">
-        <v>0.06070930449906282</v>
+        <v>6.0709304499062818E-2</v>
       </c>
       <c r="E6">
-        <v>0.5485034580879956</v>
+        <v>0.54850345808799561</v>
       </c>
       <c r="F6">
-        <v>0.5042029798188136</v>
+        <v>0.50420297981881357</v>
       </c>
       <c r="G6">
-        <v>0.5485034580879956</v>
+        <v>0.54850345808799561</v>
       </c>
       <c r="H6">
-        <v>0.06054104635075019</v>
+        <v>6.0541046350750187E-2</v>
       </c>
       <c r="I6">
-        <v>0.4352559738304363</v>
+        <v>0.43525597383043629</v>
       </c>
       <c r="J6">
-        <v>0.2276459018099224</v>
+        <v>0.22764590180992239</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1592,28 +1652,28 @@
         <v>0.17764773667358</v>
       </c>
       <c r="C7">
-        <v>0.385710687605066</v>
+        <v>0.38571068760506599</v>
       </c>
       <c r="D7">
-        <v>0.05026835093286388</v>
+        <v>5.026835093286388E-2</v>
       </c>
       <c r="E7">
-        <v>0.7993335161019015</v>
+        <v>0.79933351610190151</v>
       </c>
       <c r="F7">
-        <v>0.2222448240878379</v>
+        <v>0.22224482408783791</v>
       </c>
       <c r="G7">
-        <v>0.7993335161019015</v>
+        <v>0.79933351610190151</v>
       </c>
       <c r="H7">
-        <v>0.3178143298696239</v>
+        <v>0.31781432986962388</v>
       </c>
       <c r="I7">
-        <v>0.4599408460425383</v>
+        <v>0.45994084604253832</v>
       </c>
       <c r="J7">
-        <v>0.04459708741425786</v>
+        <v>4.4597087414257858E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1621,31 +1681,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.1738026136453613</v>
+        <v>0.17380261364536129</v>
       </c>
       <c r="C8">
-        <v>0.4066562491371959</v>
+        <v>0.40665624913719589</v>
       </c>
       <c r="D8">
-        <v>0.01317280087040199</v>
+        <v>1.317280087040199E-2</v>
       </c>
       <c r="E8">
-        <v>0.810292803654748</v>
+        <v>0.81029280365474798</v>
       </c>
       <c r="F8">
         <v>0.2144935915281998</v>
       </c>
       <c r="G8">
-        <v>0.810292803654748</v>
+        <v>0.81029280365474798</v>
       </c>
       <c r="H8">
-        <v>0.3049538973119787</v>
+        <v>0.30495389731197869</v>
       </c>
       <c r="I8">
-        <v>0.4805525111598214</v>
+        <v>0.48055251115982139</v>
       </c>
       <c r="J8">
-        <v>0.04069097788283849</v>
+        <v>4.0690977882838493E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1653,31 +1713,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.1858334231243604</v>
+        <v>0.18583342312436041</v>
       </c>
       <c r="C9">
-        <v>0.5976631892307389</v>
+        <v>0.59766318923073891</v>
       </c>
       <c r="D9">
-        <v>0.04611722239791143</v>
+        <v>4.6117222397911432E-2</v>
       </c>
       <c r="E9">
-        <v>0.5535998061383142</v>
+        <v>0.55359980613831417</v>
       </c>
       <c r="F9">
-        <v>0.3356818789743775</v>
+        <v>0.33568187897437751</v>
       </c>
       <c r="G9">
-        <v>0.5535998061383142</v>
+        <v>0.55359980613831417</v>
       </c>
       <c r="H9">
-        <v>0.2119317337691854</v>
+        <v>0.21193173376918539</v>
       </c>
       <c r="I9">
-        <v>0.4523863872564372</v>
+        <v>0.45238638725643721</v>
       </c>
       <c r="J9">
-        <v>0.149848455850017</v>
+        <v>0.14984845585001699</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1688,25 +1748,25 @@
         <v>0.1951346217965306</v>
       </c>
       <c r="C10">
-        <v>0.4971748401555002</v>
+        <v>0.49717484015550018</v>
       </c>
       <c r="D10">
-        <v>0.07876313946688296</v>
+        <v>7.8763139466882959E-2</v>
       </c>
       <c r="E10">
-        <v>0.6549117296881237</v>
+        <v>0.65491172968812372</v>
       </c>
       <c r="F10">
-        <v>0.2979556067646794</v>
+        <v>0.29795560676467941</v>
       </c>
       <c r="G10">
-        <v>0.6549117296881237</v>
+        <v>0.65491172968812372</v>
       </c>
       <c r="H10">
-        <v>0.2677362696337529</v>
+        <v>0.26773626963375291</v>
       </c>
       <c r="I10">
-        <v>0.4343081236015677</v>
+        <v>0.43430812360156767</v>
       </c>
       <c r="J10">
         <v>0.1028209849681488</v>
@@ -1717,31 +1777,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.1535151234667387</v>
+        <v>0.15351512346673871</v>
       </c>
       <c r="C11">
-        <v>0.6634781331343683</v>
+        <v>0.66347813313436832</v>
       </c>
       <c r="D11">
-        <v>0.01097783390916218</v>
+        <v>1.0977833909162181E-2</v>
       </c>
       <c r="E11">
-        <v>0.4170592767540635</v>
+        <v>0.41705927675406351</v>
       </c>
       <c r="F11">
-        <v>0.368089458797161</v>
+        <v>0.36808945879716098</v>
       </c>
       <c r="G11">
-        <v>0.4170592767540635</v>
+        <v>0.41705927675406351</v>
       </c>
       <c r="H11">
-        <v>0.1855897549640123</v>
+        <v>0.18558975496401231</v>
       </c>
       <c r="I11">
-        <v>0.4463207862388268</v>
+        <v>0.44632078623882682</v>
       </c>
       <c r="J11">
-        <v>0.2145743353304224</v>
+        <v>0.21457433533042239</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1749,28 +1809,28 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.3404603241972284</v>
+        <v>0.34046032419722838</v>
       </c>
       <c r="C12">
         <v>0.6299890169268596</v>
       </c>
       <c r="D12">
-        <v>0.005728200489344206</v>
+        <v>5.7282004893442059E-3</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.3404603241972284</v>
+        <v>0.34046032419722838</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12">
-        <v>0.200888911223791</v>
+        <v>0.20088891122379099</v>
       </c>
       <c r="I12">
-        <v>0.4586507645789806</v>
+        <v>0.45865076457898057</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1781,19 +1841,19 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.04692071852005738</v>
+        <v>4.6920718520057379E-2</v>
       </c>
       <c r="C13">
         <v>0.1538207114543502</v>
       </c>
       <c r="D13">
-        <v>0.737694807404546</v>
+        <v>0.73769480740454596</v>
       </c>
       <c r="E13">
         <v>0.111089340294623</v>
       </c>
       <c r="F13">
-        <v>0.4223692245864246</v>
+        <v>0.42236922458642462</v>
       </c>
       <c r="G13">
         <v>0.111089340294623</v>
@@ -1802,7 +1862,7 @@
         <v>0.4544326079689146</v>
       </c>
       <c r="I13">
-        <v>0.1231981674446608</v>
+        <v>0.12319816744466081</v>
       </c>
       <c r="J13">
         <v>0.3754485060663672</v>
@@ -1813,22 +1873,22 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.3037254697826166</v>
+        <v>0.30372546978261661</v>
       </c>
       <c r="C14">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>0.3037254697826166</v>
+        <v>0.30372546978261661</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3037254697826166</v>
+        <v>0.30372546978261661</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1837,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.6962745302173834</v>
+        <v>0.69627453021738339</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1845,10 +1905,10 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.1713208898773143</v>
+        <v>0.17132088987731431</v>
       </c>
       <c r="C15">
-        <v>0.4327330585453191</v>
+        <v>0.43273305854531913</v>
       </c>
       <c r="D15">
         <v>0.1147304513458401</v>
@@ -1857,16 +1917,16 @@
         <v>0.6094210493276665</v>
       </c>
       <c r="F15">
-        <v>0.2811207293648967</v>
+        <v>0.28112072936489668</v>
       </c>
       <c r="G15">
         <v>0.6094210493276665</v>
       </c>
       <c r="H15">
-        <v>0.2984203076591525</v>
+        <v>0.29842030765915251</v>
       </c>
       <c r="I15">
-        <v>0.4204589629759509</v>
+        <v>0.42045896297595092</v>
       </c>
       <c r="J15">
         <v>0.1097998394875824</v>
@@ -1877,31 +1937,31 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.1340494885684805</v>
+        <v>0.13404948856848051</v>
       </c>
       <c r="C16">
-        <v>0.09560766950377669</v>
+        <v>9.5607669503776693E-2</v>
       </c>
       <c r="D16">
         <v>0.3612890001565815</v>
       </c>
       <c r="E16">
-        <v>0.6184902577964075</v>
+        <v>0.61849025779640754</v>
       </c>
       <c r="F16">
-        <v>0.2167366209551622</v>
+        <v>0.21673662095516219</v>
       </c>
       <c r="G16">
-        <v>0.6184902577964075</v>
+        <v>0.61849025779640754</v>
       </c>
       <c r="H16">
         <v>0.4864306833508647</v>
       </c>
       <c r="I16">
-        <v>0.2968326956939731</v>
+        <v>0.29683269569397308</v>
       </c>
       <c r="J16">
-        <v>0.08268713238668168</v>
+        <v>8.2687132386681683E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1909,13 +1969,13 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.08461464482471621</v>
+        <v>8.4614644824716215E-2</v>
       </c>
       <c r="C17">
-        <v>0.1911339301550249</v>
+        <v>0.19113393015502489</v>
       </c>
       <c r="D17">
-        <v>0.08892368827750907</v>
+        <v>8.8923688277509072E-2</v>
       </c>
       <c r="E17">
         <v>0.610909048804127</v>
@@ -1927,13 +1987,13 @@
         <v>0.610909048804127</v>
       </c>
       <c r="H17">
-        <v>0.4150770382017193</v>
+        <v>0.41507703820171932</v>
       </c>
       <c r="I17">
-        <v>0.446416837211729</v>
+        <v>0.44641683721172898</v>
       </c>
       <c r="J17">
-        <v>0.05389147976183549</v>
+        <v>5.389147976183549E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1941,31 +2001,31 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.04276518025877969</v>
+        <v>4.2765180258779692E-2</v>
       </c>
       <c r="C18">
-        <v>0.0808900162507068</v>
+        <v>8.0890016250706798E-2</v>
       </c>
       <c r="D18">
-        <v>0.0305247442240196</v>
+        <v>3.0524744224019601E-2</v>
       </c>
       <c r="E18">
-        <v>0.8144815799815223</v>
+        <v>0.81448157998152226</v>
       </c>
       <c r="F18">
-        <v>0.0525060127937453</v>
+        <v>5.2506012793745303E-2</v>
       </c>
       <c r="G18">
-        <v>0.8144815799815223</v>
+        <v>0.81448157998152226</v>
       </c>
       <c r="H18">
-        <v>0.466799523901641</v>
+        <v>0.46679952390164098</v>
       </c>
       <c r="I18">
-        <v>0.4806944633046139</v>
+        <v>0.48069446330461391</v>
       </c>
       <c r="J18">
-        <v>0.00974083253494927</v>
+        <v>9.7408325349492703E-3</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1973,31 +2033,31 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.1327758779020131</v>
+        <v>0.13277587790201309</v>
       </c>
       <c r="C19">
-        <v>0.6283180109068268</v>
+        <v>0.62831801090682682</v>
       </c>
       <c r="D19">
-        <v>0.02323160852745669</v>
+        <v>2.323160852745669E-2</v>
       </c>
       <c r="E19">
         <v>0.3796084167738028</v>
       </c>
       <c r="F19">
-        <v>0.3497706374122107</v>
+        <v>0.34977063741221071</v>
       </c>
       <c r="G19">
         <v>0.3796084167738028</v>
       </c>
       <c r="H19">
-        <v>0.2042015220138186</v>
+        <v>0.20420152201381861</v>
       </c>
       <c r="I19">
-        <v>0.4460278405739707</v>
+        <v>0.44602784057397071</v>
       </c>
       <c r="J19">
-        <v>0.2169947595101976</v>
+        <v>0.21699475951019759</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2005,31 +2065,31 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.2363251110689983</v>
+        <v>0.23632511106899831</v>
       </c>
       <c r="C20">
-        <v>0.4733336230416609</v>
+        <v>0.47333362304166088</v>
       </c>
       <c r="D20">
-        <v>0.02069596920067582</v>
+        <v>2.0695969200675821E-2</v>
       </c>
       <c r="E20">
-        <v>0.9152390163674166</v>
+        <v>0.91523901636741656</v>
       </c>
       <c r="F20">
-        <v>0.2582113599210101</v>
+        <v>0.25821135992101008</v>
       </c>
       <c r="G20">
-        <v>0.9152390163674166</v>
+        <v>0.91523901636741656</v>
       </c>
       <c r="H20">
         <v>0.2782835208304183</v>
       </c>
       <c r="I20">
-        <v>0.4635051192485715</v>
+        <v>0.46350511924857152</v>
       </c>
       <c r="J20">
-        <v>0.02188624885201186</v>
+        <v>2.1886248852011861E-2</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2037,28 +2097,28 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0.06505624804797761</v>
+        <v>6.5056248047977605E-2</v>
       </c>
       <c r="C21">
-        <v>0.1243349098295441</v>
+        <v>0.12433490982954409</v>
       </c>
       <c r="D21">
-        <v>0.009254256661935361</v>
+        <v>9.2542566619353613E-3</v>
       </c>
       <c r="E21">
-        <v>0.9999999999999998</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="F21">
-        <v>0.06505624804797762</v>
+        <v>6.5056248047977619E-2</v>
       </c>
       <c r="G21">
-        <v>0.9999999999999998</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="H21">
-        <v>0.454550291773222</v>
+        <v>0.45455029177322198</v>
       </c>
       <c r="I21">
-        <v>0.4803934601788004</v>
+        <v>0.48039346017880041</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2069,10 +2129,10 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0.06301143701556665</v>
+        <v>6.3011437015566649E-2</v>
       </c>
       <c r="C22">
-        <v>0.06419632518796425</v>
+        <v>6.4196325187964254E-2</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2081,19 +2141,19 @@
         <v>0.1184264788248296</v>
       </c>
       <c r="F22">
-        <v>0.532072199062593</v>
+        <v>0.53207219906259295</v>
       </c>
       <c r="G22">
         <v>0.1184264788248296</v>
       </c>
       <c r="H22">
-        <v>0.4679278009374072</v>
+        <v>0.46792780093740721</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4690607620470262</v>
+        <v>0.46906076204702618</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2104,25 +2164,25 @@
         <v>0.1089113892655123</v>
       </c>
       <c r="C23">
-        <v>0.06052364782296744</v>
+        <v>6.0523647822967437E-2</v>
       </c>
       <c r="D23">
-        <v>0.9593916506718768</v>
+        <v>0.95939165067187682</v>
       </c>
       <c r="E23">
         <v>0.2296392929454045</v>
       </c>
       <c r="F23">
-        <v>0.4742715755156303</v>
+        <v>0.47427157551563032</v>
       </c>
       <c r="G23">
         <v>0.2296392929454045</v>
       </c>
       <c r="H23">
-        <v>0.5063874584683571</v>
+        <v>0.50638745846835709</v>
       </c>
       <c r="I23">
-        <v>0.01934096601601271</v>
+        <v>1.934096601601271E-2</v>
       </c>
       <c r="J23">
         <v>0.3653601862501179</v>
@@ -2136,10 +2196,10 @@
         <v>0.1677224124421105</v>
       </c>
       <c r="C24">
-        <v>0.4409617359404084</v>
+        <v>0.44096173594040838</v>
       </c>
       <c r="D24">
-        <v>0.2239705773169103</v>
+        <v>0.22397057731691031</v>
       </c>
       <c r="E24">
         <v>0.5886280142314978</v>
@@ -2151,10 +2211,10 @@
         <v>0.5886280142314978</v>
       </c>
       <c r="H24">
-        <v>0.2937236197164874</v>
+        <v>0.29372361971648742</v>
       </c>
       <c r="I24">
-        <v>0.3676328861171594</v>
+        <v>0.36763288611715939</v>
       </c>
       <c r="J24">
         <v>0.170921081724242</v>
@@ -2165,13 +2225,13 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0.08065420605092044</v>
+        <v>8.0654206050920441E-2</v>
       </c>
       <c r="C25">
-        <v>0.2851350154967618</v>
+        <v>0.28513501549676179</v>
       </c>
       <c r="D25">
-        <v>0.3334936599437626</v>
+        <v>0.33349365994376262</v>
       </c>
       <c r="E25">
         <v>0.2467234776580238</v>
@@ -2183,7 +2243,7 @@
         <v>0.2467234776580238</v>
       </c>
       <c r="H25">
-        <v>0.1477093754818533</v>
+        <v>0.14770937548185331</v>
       </c>
       <c r="I25">
         <v>0.1584580531481681</v>
@@ -2193,17 +2253,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
@@ -2239,31 +2302,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.2268368987314698</v>
+        <v>0.22683689873146981</v>
       </c>
       <c r="C2">
-        <v>0.9999999999999998</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="D2">
-        <v>0.03353229637857793</v>
+        <v>3.3532296378577929E-2</v>
       </c>
       <c r="E2">
-        <v>0.4179306501127882</v>
+        <v>0.41793065011278818</v>
       </c>
       <c r="F2">
-        <v>0.5427620555473801</v>
+        <v>0.54276205554738011</v>
       </c>
       <c r="G2">
-        <v>0.4179306501127882</v>
+        <v>0.41793065011278818</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4572379444526197</v>
+        <v>0.45723794445261973</v>
       </c>
       <c r="J2">
-        <v>0.3159251568159102</v>
+        <v>0.31592515681591021</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2271,31 +2334,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.2660542064547032</v>
+        <v>0.26605420645470318</v>
       </c>
       <c r="C3">
-        <v>0.6829916501381195</v>
+        <v>0.68299165013811947</v>
       </c>
       <c r="D3">
-        <v>0.08270514041016666</v>
+        <v>8.2705140410166661E-2</v>
       </c>
       <c r="E3">
-        <v>0.6588855665020977</v>
+        <v>0.65888556650209773</v>
       </c>
       <c r="F3">
-        <v>0.4037942549980812</v>
+        <v>0.40379425499808119</v>
       </c>
       <c r="G3">
-        <v>0.6588855665020977</v>
+        <v>0.65888556650209773</v>
       </c>
       <c r="H3">
-        <v>0.169572650384183</v>
+        <v>0.16957265038418301</v>
       </c>
       <c r="I3">
-        <v>0.4266330946177359</v>
+        <v>0.42663309461773591</v>
       </c>
       <c r="J3">
-        <v>0.137740048543378</v>
+        <v>0.13774004854337801</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2306,28 +2369,28 @@
         <v>0.1010042327324856</v>
       </c>
       <c r="C4">
-        <v>0.2104296755426386</v>
+        <v>0.21042967554263861</v>
       </c>
       <c r="D4">
         <v>0.1148523037091716</v>
       </c>
       <c r="E4">
-        <v>0.6092555521451242</v>
+        <v>0.60925555214512417</v>
       </c>
       <c r="F4">
-        <v>0.1657830320575009</v>
+        <v>0.16578303205750089</v>
       </c>
       <c r="G4">
-        <v>0.6092555521451242</v>
+        <v>0.60925555214512417</v>
       </c>
       <c r="H4">
-        <v>0.4107324063749787</v>
+        <v>0.41073240637497871</v>
       </c>
       <c r="I4">
-        <v>0.4234845615675205</v>
+        <v>0.42348456156752051</v>
       </c>
       <c r="J4">
-        <v>0.06477879932501537</v>
+        <v>6.4778799325015374E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2335,28 +2398,28 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.1594841556333534</v>
+        <v>0.15948415563335341</v>
       </c>
       <c r="C5">
-        <v>0.4272628440298291</v>
+        <v>0.42726284402982911</v>
       </c>
       <c r="D5">
-        <v>0.07959929956127493</v>
+        <v>7.9599299561274928E-2</v>
       </c>
       <c r="E5">
-        <v>0.6057940937199495</v>
+        <v>0.60579409371994952</v>
       </c>
       <c r="F5">
         <v>0.2632646261934023</v>
       </c>
       <c r="G5">
-        <v>0.6057940937199495</v>
+        <v>0.60579409371994952</v>
       </c>
       <c r="H5">
-        <v>0.30123205732259</v>
+        <v>0.30123205732259001</v>
       </c>
       <c r="I5">
-        <v>0.4355033164840078</v>
+        <v>0.43550331648400781</v>
       </c>
       <c r="J5">
         <v>0.1037804705600489</v>
@@ -2367,31 +2430,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.2770476027749995</v>
+        <v>0.27704760277499951</v>
       </c>
       <c r="C6">
-        <v>0.8864984897924034</v>
+        <v>0.88649848979240342</v>
       </c>
       <c r="D6">
-        <v>0.0605882390657452</v>
+        <v>6.0588239065745203E-2</v>
       </c>
       <c r="E6">
-        <v>0.5486830022140453</v>
+        <v>0.54868300221404531</v>
       </c>
       <c r="F6">
-        <v>0.5049319947165434</v>
+        <v>0.50493199471654338</v>
       </c>
       <c r="G6">
-        <v>0.5486830022140453</v>
+        <v>0.54868300221404531</v>
       </c>
       <c r="H6">
-        <v>0.06106609245485811</v>
+        <v>6.1066092454858112E-2</v>
       </c>
       <c r="I6">
         <v>0.4340019128285984</v>
       </c>
       <c r="J6">
-        <v>0.2278843919415439</v>
+        <v>0.22788439194154389</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2399,31 +2462,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.1778637196106752</v>
+        <v>0.17786371961067521</v>
       </c>
       <c r="C7">
-        <v>0.3801199713722903</v>
+        <v>0.38011997137229031</v>
       </c>
       <c r="D7">
-        <v>0.04916702153196416</v>
+        <v>4.9167021531964158E-2</v>
       </c>
       <c r="E7">
-        <v>0.801782050320541</v>
+        <v>0.80178205032054095</v>
       </c>
       <c r="F7">
-        <v>0.2218354969901956</v>
+        <v>0.22183549699019561</v>
       </c>
       <c r="G7">
-        <v>0.801782050320541</v>
+        <v>0.80178205032054095</v>
       </c>
       <c r="H7">
-        <v>0.3200673284156472</v>
+        <v>0.32006732841564722</v>
       </c>
       <c r="I7">
-        <v>0.4580971745941572</v>
+        <v>0.45809717459415722</v>
       </c>
       <c r="J7">
-        <v>0.04397177737952038</v>
+        <v>4.3971777379520377E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2431,31 +2494,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.1739084438274409</v>
+        <v>0.17390844382744089</v>
       </c>
       <c r="C8">
-        <v>0.4038036932826171</v>
+        <v>0.40380369328261712</v>
       </c>
       <c r="D8">
-        <v>0.01284239519762076</v>
+        <v>1.284239519762076E-2</v>
       </c>
       <c r="E8">
-        <v>0.8107987269368733</v>
+        <v>0.81079872693687327</v>
       </c>
       <c r="F8">
-        <v>0.2144902773644599</v>
+        <v>0.21449027736445991</v>
       </c>
       <c r="G8">
-        <v>0.8107987269368733</v>
+        <v>0.81079872693687327</v>
       </c>
       <c r="H8">
-        <v>0.3059224531958611</v>
+        <v>0.30592245319586109</v>
       </c>
       <c r="I8">
-        <v>0.4795872694396789</v>
+        <v>0.47958726943967889</v>
       </c>
       <c r="J8">
-        <v>0.04058183353701898</v>
+        <v>4.0581833537018983E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2463,28 +2526,28 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.1862396725198475</v>
+        <v>0.18623967251984749</v>
       </c>
       <c r="C9">
-        <v>0.5967677177736495</v>
+        <v>0.59676771777364945</v>
       </c>
       <c r="D9">
-        <v>0.04498254155395445</v>
+        <v>4.4982541553954453E-2</v>
       </c>
       <c r="E9">
-        <v>0.5544965302841777</v>
+        <v>0.55449653028417767</v>
       </c>
       <c r="F9">
-        <v>0.3358716643806595</v>
+        <v>0.33587166438065952</v>
       </c>
       <c r="G9">
-        <v>0.5544965302841777</v>
+        <v>0.55449653028417767</v>
       </c>
       <c r="H9">
-        <v>0.2117744712914371</v>
+        <v>0.21177447129143709</v>
       </c>
       <c r="I9">
-        <v>0.4523538643279034</v>
+        <v>0.45235386432790342</v>
       </c>
       <c r="J9">
         <v>0.149631991860812</v>
@@ -2495,28 +2558,28 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.1954070521275715</v>
+        <v>0.19540705212757151</v>
       </c>
       <c r="C10">
-        <v>0.491390692459187</v>
+        <v>0.49139069245918698</v>
       </c>
       <c r="D10">
-        <v>0.07884364931139939</v>
+        <v>7.8843649311399394E-2</v>
       </c>
       <c r="E10">
-        <v>0.6554339707728462</v>
+        <v>0.65543397077284615</v>
       </c>
       <c r="F10">
-        <v>0.2981338484747134</v>
+        <v>0.29813384847471341</v>
       </c>
       <c r="G10">
-        <v>0.6554339707728462</v>
+        <v>0.65543397077284615</v>
       </c>
       <c r="H10">
-        <v>0.2703728162183998</v>
+        <v>0.27037281621839981</v>
       </c>
       <c r="I10">
-        <v>0.4314933353068869</v>
+        <v>0.43149333530688688</v>
       </c>
       <c r="J10">
         <v>0.102726796347142</v>
@@ -2527,28 +2590,28 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.1538985408576969</v>
+        <v>0.15389854085769691</v>
       </c>
       <c r="C11">
-        <v>0.6617455968051515</v>
+        <v>0.66174559680515155</v>
       </c>
       <c r="D11">
-        <v>0.01096540649004562</v>
+        <v>1.0965406490045621E-2</v>
       </c>
       <c r="E11">
-        <v>0.4170755175077877</v>
+        <v>0.41707551750778771</v>
       </c>
       <c r="F11">
-        <v>0.3689944252237806</v>
+        <v>0.36899442522378062</v>
       </c>
       <c r="G11">
-        <v>0.4170755175077877</v>
+        <v>0.41707551750778771</v>
       </c>
       <c r="H11">
         <v>0.1860950648120811</v>
       </c>
       <c r="I11">
-        <v>0.4449105099641383</v>
+        <v>0.44491050996413828</v>
       </c>
       <c r="J11">
         <v>0.2150958843660836</v>
@@ -2559,28 +2622,28 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.3411433070340816</v>
+        <v>0.34114330703408158</v>
       </c>
       <c r="C12">
         <v>0.6248055426452882</v>
       </c>
       <c r="D12">
-        <v>0.005739092094087749</v>
+        <v>5.7390920940877492E-3</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.3411433070340816</v>
+        <v>0.34114330703408158</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12">
-        <v>0.2032784918971811</v>
+        <v>0.20327849189718111</v>
       </c>
       <c r="I12">
-        <v>0.4555782010687373</v>
+        <v>0.45557820106873731</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -2591,31 +2654,31 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.04698104744614357</v>
+        <v>4.6981047446143571E-2</v>
       </c>
       <c r="C13">
-        <v>0.1418477522810175</v>
+        <v>0.14184775228101751</v>
       </c>
       <c r="D13">
-        <v>0.7429478599096254</v>
+        <v>0.74294785990962542</v>
       </c>
       <c r="E13">
         <v>0.1116675951923084</v>
       </c>
       <c r="F13">
-        <v>0.4207222996540324</v>
+        <v>0.42072229965403241</v>
       </c>
       <c r="G13">
         <v>0.1116675951923084</v>
       </c>
       <c r="H13">
-        <v>0.4600152834698049</v>
+        <v>0.46001528346980491</v>
       </c>
       <c r="I13">
-        <v>0.1192624168761627</v>
+        <v>0.11926241687616269</v>
       </c>
       <c r="J13">
-        <v>0.3737412522078888</v>
+        <v>0.37374125220788879</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2623,22 +2686,22 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.3167026105149929</v>
+        <v>0.31670261051499288</v>
       </c>
       <c r="C14">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="D14">
-        <v>1.000000000000156</v>
+        <v>1.0000000000001561</v>
       </c>
       <c r="E14">
-        <v>0.3167026105149929</v>
+        <v>0.31670261051499288</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3167026105149929</v>
+        <v>0.31670261051499288</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -2647,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.6832973894850071</v>
+        <v>0.68329738948500707</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2655,31 +2718,31 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.1714259270880475</v>
+        <v>0.17142592708804749</v>
       </c>
       <c r="C15">
-        <v>0.4318531929974611</v>
+        <v>0.43185319299746111</v>
       </c>
       <c r="D15">
-        <v>0.1141419261488597</v>
+        <v>0.11414192614885969</v>
       </c>
       <c r="E15">
-        <v>0.6099426583518859</v>
+        <v>0.60994265835188588</v>
       </c>
       <c r="F15">
-        <v>0.2810525296775505</v>
+        <v>0.28105252967755051</v>
       </c>
       <c r="G15">
-        <v>0.6099426583518859</v>
+        <v>0.60994265835188588</v>
       </c>
       <c r="H15">
-        <v>0.2984786282017203</v>
+        <v>0.29847862820172028</v>
       </c>
       <c r="I15">
-        <v>0.4204688421207292</v>
+        <v>0.42046884212072921</v>
       </c>
       <c r="J15">
-        <v>0.109626602589503</v>
+        <v>0.10962660258950301</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2687,31 +2750,31 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.1342228376798882</v>
+        <v>0.13422283767988821</v>
       </c>
       <c r="C16">
-        <v>0.09112574841126249</v>
+        <v>9.1125748411262489E-2</v>
       </c>
       <c r="D16">
-        <v>0.3606760489836846</v>
+        <v>0.36067604898368461</v>
       </c>
       <c r="E16">
-        <v>0.6214936847997322</v>
+        <v>0.62149368479973222</v>
       </c>
       <c r="F16">
         <v>0.2159681441061459</v>
       </c>
       <c r="G16">
-        <v>0.6214936847997322</v>
+        <v>0.62149368479973222</v>
       </c>
       <c r="H16">
-        <v>0.4879244068806156</v>
+        <v>0.48792440688061561</v>
       </c>
       <c r="I16">
-        <v>0.2961074490132385</v>
+        <v>0.29610744901323849</v>
       </c>
       <c r="J16">
-        <v>0.08174530642625771</v>
+        <v>8.1745306426257713E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2719,31 +2782,31 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.08462201788609364</v>
+        <v>8.4622017886093637E-2</v>
       </c>
       <c r="C17">
         <v>0.1815335340507955</v>
       </c>
       <c r="D17">
-        <v>0.08880187442577661</v>
+        <v>8.8801874425776611E-2</v>
       </c>
       <c r="E17">
-        <v>0.6127585569374324</v>
+        <v>0.61275855693743242</v>
       </c>
       <c r="F17">
-        <v>0.138100099832199</v>
+        <v>0.13810009983219901</v>
       </c>
       <c r="G17">
-        <v>0.6127585569374324</v>
+        <v>0.61275855693743242</v>
       </c>
       <c r="H17">
-        <v>0.4195151889547761</v>
+        <v>0.41951518895477607</v>
       </c>
       <c r="I17">
-        <v>0.4423847112130248</v>
+        <v>0.44238471121302481</v>
       </c>
       <c r="J17">
-        <v>0.05347808194610541</v>
+        <v>5.3478081946105413E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2751,31 +2814,31 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.04345971027892451</v>
+        <v>4.3459710278924507E-2</v>
       </c>
       <c r="C18">
-        <v>0.353369636712293</v>
+        <v>0.35336963671229299</v>
       </c>
       <c r="D18">
-        <v>0.03032026941478206</v>
+        <v>3.032026941478206E-2</v>
       </c>
       <c r="E18">
-        <v>0.770812961730917</v>
+        <v>0.77081296173091696</v>
       </c>
       <c r="F18">
-        <v>0.05638165474193967</v>
+        <v>5.6381654741939673E-2</v>
       </c>
       <c r="G18">
-        <v>0.770812961730917</v>
+        <v>0.77081296173091696</v>
       </c>
       <c r="H18">
-        <v>0.333918884793916</v>
+        <v>0.33391888479391602</v>
       </c>
       <c r="I18">
-        <v>0.6096994604641444</v>
+        <v>0.60969946046414436</v>
       </c>
       <c r="J18">
-        <v>0.01292194446301515</v>
+        <v>1.292194446301515E-2</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2783,31 +2846,31 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.133082866660589</v>
+        <v>0.13308286666058899</v>
       </c>
       <c r="C19">
-        <v>0.6203001885926759</v>
+        <v>0.62030018859267588</v>
       </c>
       <c r="D19">
-        <v>0.0233715430407432</v>
+        <v>2.3371543040743199E-2</v>
       </c>
       <c r="E19">
-        <v>0.3796418908690378</v>
+        <v>0.37964189086903782</v>
       </c>
       <c r="F19">
-        <v>0.3505484243478746</v>
+        <v>0.35054842434787459</v>
       </c>
       <c r="G19">
-        <v>0.3796418908690378</v>
+        <v>0.37964189086903782</v>
       </c>
       <c r="H19">
         <v>0.2081191403069414</v>
       </c>
       <c r="I19">
-        <v>0.441332435345184</v>
+        <v>0.44133243534518402</v>
       </c>
       <c r="J19">
-        <v>0.2174655576872856</v>
+        <v>0.21746555768728559</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2818,28 +2881,28 @@
         <v>0.2365998682459777</v>
       </c>
       <c r="C20">
-        <v>0.4714104655895706</v>
+        <v>0.47141046558957062</v>
       </c>
       <c r="D20">
-        <v>0.02061945614135863</v>
+        <v>2.0619456141358631E-2</v>
       </c>
       <c r="E20">
-        <v>0.9154275003573716</v>
+        <v>0.91542750035737164</v>
       </c>
       <c r="F20">
-        <v>0.2584583357541826</v>
+        <v>0.25845833575418259</v>
       </c>
       <c r="G20">
-        <v>0.9154275003573716</v>
+        <v>0.91542750035737164</v>
       </c>
       <c r="H20">
-        <v>0.2788930979890649</v>
+        <v>0.27889309798906492</v>
       </c>
       <c r="I20">
-        <v>0.4626485662567525</v>
+        <v>0.46264856625675249</v>
       </c>
       <c r="J20">
-        <v>0.02185846750820495</v>
+        <v>2.185846750820495E-2</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2847,28 +2910,28 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0.06506995864935353</v>
+        <v>6.5069958649353526E-2</v>
       </c>
       <c r="C21">
-        <v>0.1168931122066258</v>
+        <v>0.11689311220662579</v>
       </c>
       <c r="D21">
-        <v>0.009262912373442012</v>
+        <v>9.2629123734420116E-3</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21">
-        <v>0.06506995864935353</v>
+        <v>6.5069958649353526E-2</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>0.4579465690677654</v>
+        <v>0.45794656906776537</v>
       </c>
       <c r="I21">
-        <v>0.476983472282881</v>
+        <v>0.47698347228288102</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2879,31 +2942,31 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0.06313181328414963</v>
+        <v>6.3131813284149629E-2</v>
       </c>
       <c r="C22">
-        <v>0.05780813650340148</v>
+        <v>5.7808136503401483E-2</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22">
-        <v>0.1193693478279196</v>
+        <v>0.11936934782791959</v>
       </c>
       <c r="F22">
-        <v>0.5288779274823482</v>
+        <v>0.52887792748234819</v>
       </c>
       <c r="G22">
-        <v>0.1193693478279196</v>
+        <v>0.11936934782791959</v>
       </c>
       <c r="H22">
-        <v>0.471122072517652</v>
+        <v>0.47112207251765198</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4657461141981984</v>
+        <v>0.46574611419819839</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2914,28 +2977,28 @@
         <v>0.1090594948946657</v>
       </c>
       <c r="C23">
-        <v>0.03230226993235325</v>
+        <v>3.2302269932353252E-2</v>
       </c>
       <c r="D23">
-        <v>0.9839919703171001</v>
+        <v>0.98399197031710006</v>
       </c>
       <c r="E23">
-        <v>0.231054329855447</v>
+        <v>0.23105432985544699</v>
       </c>
       <c r="F23">
-        <v>0.4720080119809739</v>
+        <v>0.47200801198097392</v>
       </c>
       <c r="G23">
-        <v>0.231054329855447</v>
+        <v>0.23105432985544699</v>
       </c>
       <c r="H23">
-        <v>0.5205956284531116</v>
+        <v>0.52059562845311158</v>
       </c>
       <c r="I23">
-        <v>0.007396359565914445</v>
+        <v>7.3963595659144454E-3</v>
       </c>
       <c r="J23">
-        <v>0.3629485170863082</v>
+        <v>0.36294851708630821</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2943,31 +3006,31 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0.1665111811333251</v>
+        <v>0.16651118113332511</v>
       </c>
       <c r="C24">
-        <v>0.4483754505053923</v>
+        <v>0.44837545050539229</v>
       </c>
       <c r="D24">
         <v>0.224906874820888</v>
       </c>
       <c r="E24">
-        <v>0.5804093998615125</v>
+        <v>0.58040939986151252</v>
       </c>
       <c r="F24">
-        <v>0.3385541986003364</v>
+        <v>0.33855419860033642</v>
       </c>
       <c r="G24">
-        <v>0.5804093998615125</v>
+        <v>0.58040939986151252</v>
       </c>
       <c r="H24">
-        <v>0.2898473969546629</v>
+        <v>0.28984739695466288</v>
       </c>
       <c r="I24">
-        <v>0.3715984044450008</v>
+        <v>0.37159840444500081</v>
       </c>
       <c r="J24">
-        <v>0.1720430174670113</v>
+        <v>0.17204301746701131</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2975,45 +3038,51 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0.08135734005865383</v>
+        <v>8.1357340058653832E-2</v>
       </c>
       <c r="C25">
-        <v>0.2787806889725187</v>
+        <v>0.27878068897251868</v>
       </c>
       <c r="D25">
-        <v>0.3363809425024248</v>
+        <v>0.33638094250242478</v>
       </c>
       <c r="E25">
-        <v>0.2412367173695643</v>
+        <v>0.24123671736956431</v>
       </c>
       <c r="F25">
-        <v>0.1932031485674409</v>
+        <v>0.19320314856744089</v>
       </c>
       <c r="G25">
-        <v>0.2412367173695643</v>
+        <v>0.24123671736956431</v>
       </c>
       <c r="H25">
-        <v>0.1450130383923001</v>
+        <v>0.14501303839230009</v>
       </c>
       <c r="I25">
-        <v>0.1654045414122343</v>
+        <v>0.16540454141223429</v>
       </c>
       <c r="J25">
-        <v>0.1670745367078539</v>
+        <v>0.16707453670785391</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="10" width="7.796875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
@@ -3055,25 +3124,25 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.03367955980608883</v>
+        <v>3.3679559806088832E-2</v>
       </c>
       <c r="E2">
-        <v>0.4178738642570313</v>
+        <v>0.41787386425703132</v>
       </c>
       <c r="F2">
-        <v>0.5422332955467051</v>
+        <v>0.54223329554670507</v>
       </c>
       <c r="G2">
-        <v>0.4178738642570313</v>
+        <v>0.41787386425703132</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.457766704453295</v>
+        <v>0.45776670445329498</v>
       </c>
       <c r="J2">
-        <v>0.3156481730119572</v>
+        <v>0.31564817301195719</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3081,31 +3150,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.2875518483343993</v>
+        <v>0.28755184833439928</v>
       </c>
       <c r="C3">
         <v>0.7249321375096639</v>
       </c>
       <c r="D3">
-        <v>0.0802846681081795</v>
+        <v>8.0284668108179497E-2</v>
       </c>
       <c r="E3">
-        <v>0.6938225427951678</v>
+        <v>0.69382254279516775</v>
       </c>
       <c r="F3">
         <v>0.4144458137320729</v>
       </c>
       <c r="G3">
-        <v>0.6938225427951678</v>
+        <v>0.69382254279516775</v>
       </c>
       <c r="H3">
         <v>0.1438185734658923</v>
       </c>
       <c r="I3">
-        <v>0.4362820367033906</v>
+        <v>0.43628203670339061</v>
       </c>
       <c r="J3">
-        <v>0.1268939653976736</v>
+        <v>0.12689396539767361</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3113,31 +3182,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.1149312645413016</v>
+        <v>0.11493126454130161</v>
       </c>
       <c r="C4">
-        <v>0.2144844378013734</v>
+        <v>0.21448443780137341</v>
       </c>
       <c r="D4">
         <v>0.1176527144379093</v>
       </c>
       <c r="E4">
-        <v>0.6878689913914675</v>
+        <v>0.68786899139146751</v>
       </c>
       <c r="F4">
-        <v>0.1670830724840346</v>
+        <v>0.16708307248403459</v>
       </c>
       <c r="G4">
-        <v>0.6878689913914675</v>
+        <v>0.68786899139146751</v>
       </c>
       <c r="H4">
-        <v>0.4096164147555679</v>
+        <v>0.40961641475556793</v>
       </c>
       <c r="I4">
-        <v>0.4233005127603975</v>
+        <v>0.42330051276039748</v>
       </c>
       <c r="J4">
-        <v>0.05215180794273295</v>
+        <v>5.2151807942732949E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3145,31 +3214,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.2127813587662671</v>
+        <v>0.21278135876626711</v>
       </c>
       <c r="C5">
-        <v>0.4516302189490696</v>
+        <v>0.45163021894906957</v>
       </c>
       <c r="D5">
-        <v>0.07845532615307817</v>
+        <v>7.8455326153078167E-2</v>
       </c>
       <c r="E5">
-        <v>0.7859980644626985</v>
+        <v>0.78599806446269849</v>
       </c>
       <c r="F5">
         <v>0.2707148635432361</v>
       </c>
       <c r="G5">
-        <v>0.7859980644626985</v>
+        <v>0.78599806446269849</v>
       </c>
       <c r="H5">
-        <v>0.2837474054612983</v>
+        <v>0.28374740546129829</v>
       </c>
       <c r="I5">
-        <v>0.4443646979063666</v>
+        <v>0.44436469790636662</v>
       </c>
       <c r="J5">
-        <v>0.05793350477696899</v>
+        <v>5.7933504776968993E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3180,28 +3249,28 @@
         <v>0.3074881328582495</v>
       </c>
       <c r="C6">
-        <v>0.9457455522424295</v>
+        <v>0.94574555224242951</v>
       </c>
       <c r="D6">
-        <v>0.05886318272886346</v>
+        <v>5.8863182728863463E-2</v>
       </c>
       <c r="E6">
-        <v>0.5894275862553304</v>
+        <v>0.58942758625533043</v>
       </c>
       <c r="F6">
-        <v>0.5216724497265905</v>
+        <v>0.52167244972659055</v>
       </c>
       <c r="G6">
-        <v>0.5894275862553304</v>
+        <v>0.58942758625533043</v>
       </c>
       <c r="H6">
-        <v>0.02848016337998033</v>
+        <v>2.8480163379980331E-2</v>
       </c>
       <c r="I6">
-        <v>0.4441250569537207</v>
+        <v>0.44412505695372068</v>
       </c>
       <c r="J6">
-        <v>0.2141843168683411</v>
+        <v>0.21418431686834111</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3209,28 +3278,28 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.2262630306865474</v>
+        <v>0.22626303068654741</v>
       </c>
       <c r="C7">
         <v>0.3999454415628016</v>
       </c>
       <c r="D7">
-        <v>0.0483138151398794</v>
+        <v>4.8313815139879403E-2</v>
       </c>
       <c r="E7">
-        <v>0.9999999999999997</v>
+        <v>0.99999999999999967</v>
       </c>
       <c r="F7">
-        <v>0.2262630306865475</v>
+        <v>0.22626303068654749</v>
       </c>
       <c r="G7">
-        <v>0.9999999999999997</v>
+        <v>0.99999999999999967</v>
       </c>
       <c r="H7">
-        <v>0.3065710934227761</v>
+        <v>0.30657109342277611</v>
       </c>
       <c r="I7">
-        <v>0.4655771134233186</v>
+        <v>0.46557711342331859</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -3241,31 +3310,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.1771261140696384</v>
+        <v>0.17712611406963841</v>
       </c>
       <c r="C8">
-        <v>0.4066562491371959</v>
+        <v>0.40665624913719589</v>
       </c>
       <c r="D8">
-        <v>0.01317280087040199</v>
+        <v>1.317280087040199E-2</v>
       </c>
       <c r="E8">
-        <v>0.8257874410882302</v>
+        <v>0.82578744108823021</v>
       </c>
       <c r="F8">
         <v>0.2144935915281998</v>
       </c>
       <c r="G8">
-        <v>0.8257874410882302</v>
+        <v>0.82578744108823021</v>
       </c>
       <c r="H8">
-        <v>0.3049538973119787</v>
+        <v>0.30495389731197869</v>
       </c>
       <c r="I8">
-        <v>0.4805525111598214</v>
+        <v>0.48055251115982139</v>
       </c>
       <c r="J8">
-        <v>0.03736747745856148</v>
+        <v>3.7367477458561477E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3273,28 +3342,28 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.1970549404331607</v>
+        <v>0.19705494043316071</v>
       </c>
       <c r="C9">
-        <v>0.6296483847538673</v>
+        <v>0.62964838475386731</v>
       </c>
       <c r="D9">
-        <v>0.0443425985856688</v>
+        <v>4.4342598585668802E-2</v>
       </c>
       <c r="E9">
-        <v>0.5698240762539818</v>
+        <v>0.56982407625398179</v>
       </c>
       <c r="F9">
         <v>0.3458171541795812</v>
       </c>
       <c r="G9">
-        <v>0.5698240762539818</v>
+        <v>0.56982407625398179</v>
       </c>
       <c r="H9">
-        <v>0.1914417527244346</v>
+        <v>0.19144175272443459</v>
       </c>
       <c r="I9">
-        <v>0.4609838516285392</v>
+        <v>0.46098385162853922</v>
       </c>
       <c r="J9">
         <v>0.1487622137464206</v>
@@ -3305,31 +3374,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.2015056262385533</v>
+        <v>0.20150562623855331</v>
       </c>
       <c r="C10">
-        <v>0.4971748401555001</v>
+        <v>0.49717484015550012</v>
       </c>
       <c r="D10">
-        <v>0.07876313946688294</v>
+        <v>7.8763139466882945E-2</v>
       </c>
       <c r="E10">
-        <v>0.6762941245957562</v>
+        <v>0.67629412459575622</v>
       </c>
       <c r="F10">
-        <v>0.2979556067646794</v>
+        <v>0.29795560676467941</v>
       </c>
       <c r="G10">
-        <v>0.6762941245957562</v>
+        <v>0.67629412459575622</v>
       </c>
       <c r="H10">
-        <v>0.267736269633753</v>
+        <v>0.26773626963375302</v>
       </c>
       <c r="I10">
-        <v>0.4343081236015677</v>
+        <v>0.43430812360156767</v>
       </c>
       <c r="J10">
-        <v>0.09644998052612613</v>
+        <v>9.6449980526126133E-2</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3337,31 +3406,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.1820900907768057</v>
+        <v>0.18209009077680571</v>
       </c>
       <c r="C11">
-        <v>0.8611640697085358</v>
+        <v>0.86116406970853576</v>
       </c>
       <c r="D11">
-        <v>0.01097501994963278</v>
+        <v>1.0975019949632779E-2</v>
       </c>
       <c r="E11">
-        <v>0.4952731954815923</v>
+        <v>0.49527319548159232</v>
       </c>
       <c r="F11">
-        <v>0.3676558562889684</v>
+        <v>0.36765585628896841</v>
       </c>
       <c r="G11">
-        <v>0.4952731954815923</v>
+        <v>0.49527319548159232</v>
       </c>
       <c r="H11">
-        <v>0.05869089967281027</v>
+        <v>5.8690899672810271E-2</v>
       </c>
       <c r="I11">
-        <v>0.5736532440382213</v>
+        <v>0.57365324403822127</v>
       </c>
       <c r="J11">
-        <v>0.1855657655121627</v>
+        <v>0.18556576551216269</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3369,28 +3438,28 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.3404603241972284</v>
+        <v>0.34046032419722838</v>
       </c>
       <c r="C12">
         <v>0.6299890169268596</v>
       </c>
       <c r="D12">
-        <v>0.005728200489344206</v>
+        <v>5.7282004893442059E-3</v>
       </c>
       <c r="E12">
-        <v>1.000000000029372</v>
+        <v>1.0000000000293721</v>
       </c>
       <c r="F12">
-        <v>0.3404603241972284</v>
+        <v>0.34046032419722838</v>
       </c>
       <c r="G12">
-        <v>1.000000000029372</v>
+        <v>1.0000000000293721</v>
       </c>
       <c r="H12">
-        <v>0.200888911223791</v>
+        <v>0.20088891122379099</v>
       </c>
       <c r="I12">
-        <v>0.4586507645789806</v>
+        <v>0.45865076457898057</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -3401,31 +3470,31 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.09699548935591462</v>
+        <v>9.6995489355914621E-2</v>
       </c>
       <c r="C13">
         <v>0.1538207114543502</v>
       </c>
       <c r="D13">
-        <v>0.737694807404546</v>
+        <v>0.73769480740454596</v>
       </c>
       <c r="E13">
-        <v>0.229646204581281</v>
+        <v>0.22964620458128099</v>
       </c>
       <c r="F13">
-        <v>0.4223692245864246</v>
+        <v>0.42236922458642462</v>
       </c>
       <c r="G13">
-        <v>0.229646204581281</v>
+        <v>0.22964620458128099</v>
       </c>
       <c r="H13">
         <v>0.4544326079689146</v>
       </c>
       <c r="I13">
-        <v>0.1231981674446608</v>
+        <v>0.12319816744466081</v>
       </c>
       <c r="J13">
-        <v>0.3253737352305096</v>
+        <v>0.32537373523050961</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3433,22 +3502,22 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.3037254697826166</v>
+        <v>0.30372546978261661</v>
       </c>
       <c r="C14">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>0.3037254697856538</v>
+        <v>0.30372546978565379</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3037254697856538</v>
+        <v>0.30372546978565379</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -3457,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.6962745302173834</v>
+        <v>0.69627453021738339</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3465,10 +3534,10 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.1713256028102247</v>
+        <v>0.17132560281022469</v>
       </c>
       <c r="C15">
-        <v>0.4327330585453191</v>
+        <v>0.43273305854531913</v>
       </c>
       <c r="D15">
         <v>0.1147304513458401</v>
@@ -3477,16 +3546,16 @@
         <v>0.6094378141497252</v>
       </c>
       <c r="F15">
-        <v>0.2811207293648967</v>
+        <v>0.28112072936489668</v>
       </c>
       <c r="G15">
         <v>0.6094378141497252</v>
       </c>
       <c r="H15">
-        <v>0.2984203076591525</v>
+        <v>0.29842030765915251</v>
       </c>
       <c r="I15">
-        <v>0.4204589629759509</v>
+        <v>0.42045896297595092</v>
       </c>
       <c r="J15">
         <v>0.109795126554672</v>
@@ -3497,31 +3566,31 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.1437276244138808</v>
+        <v>0.14372762441388079</v>
       </c>
       <c r="C16">
-        <v>0.09560766950377668</v>
+        <v>9.5607669503776679E-2</v>
       </c>
       <c r="D16">
-        <v>0.3612890001565814</v>
+        <v>0.36128900015658139</v>
       </c>
       <c r="E16">
-        <v>0.6631441598890946</v>
+        <v>0.66314415988909459</v>
       </c>
       <c r="F16">
-        <v>0.2167366209551622</v>
+        <v>0.21673662095516219</v>
       </c>
       <c r="G16">
-        <v>0.6631441598890946</v>
+        <v>0.66314415988909459</v>
       </c>
       <c r="H16">
-        <v>0.4864306833508646</v>
+        <v>0.48643068335086459</v>
       </c>
       <c r="I16">
-        <v>0.2968326956939731</v>
+        <v>0.29683269569397308</v>
       </c>
       <c r="J16">
-        <v>0.07300899654128148</v>
+        <v>7.3008996541281485E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -3529,31 +3598,31 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.08461464482471621</v>
+        <v>8.4614644824716215E-2</v>
       </c>
       <c r="C17">
-        <v>0.1911339301550249</v>
+        <v>0.19113393015502489</v>
       </c>
       <c r="D17">
-        <v>0.08892368827750904</v>
+        <v>8.8923688277509044E-2</v>
       </c>
       <c r="E17">
-        <v>0.610909048848234</v>
+        <v>0.61090904884823405</v>
       </c>
       <c r="F17">
         <v>0.1385061245865517</v>
       </c>
       <c r="G17">
-        <v>0.610909048848234</v>
+        <v>0.61090904884823405</v>
       </c>
       <c r="H17">
-        <v>0.4150770382017193</v>
+        <v>0.41507703820171932</v>
       </c>
       <c r="I17">
-        <v>0.446416837211729</v>
+        <v>0.44641683721172898</v>
       </c>
       <c r="J17">
-        <v>0.05389147976183549</v>
+        <v>5.389147976183549E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -3561,31 +3630,31 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.04653059170536267</v>
+        <v>4.6530591705362667E-2</v>
       </c>
       <c r="C18">
-        <v>0.08089001625070681</v>
+        <v>8.0890016250706812E-2</v>
       </c>
       <c r="D18">
-        <v>0.0305247442240196</v>
+        <v>3.0524744224019601E-2</v>
       </c>
       <c r="E18">
         <v>0.8861954895910038</v>
       </c>
       <c r="F18">
-        <v>0.0525060127937453</v>
+        <v>5.2506012793745303E-2</v>
       </c>
       <c r="G18">
         <v>0.8861954895910038</v>
       </c>
       <c r="H18">
-        <v>0.4667995239016409</v>
+        <v>0.46679952390164092</v>
       </c>
       <c r="I18">
-        <v>0.4806944633046139</v>
+        <v>0.48069446330461391</v>
       </c>
       <c r="J18">
-        <v>0.005975421088382688</v>
+        <v>5.9754210883826882E-3</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3593,31 +3662,31 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.1430104982697666</v>
+        <v>0.14301049826976661</v>
       </c>
       <c r="C19">
-        <v>0.6283180109068268</v>
+        <v>0.62831801090682682</v>
       </c>
       <c r="D19">
-        <v>0.02323160852745669</v>
+        <v>2.323160852745669E-2</v>
       </c>
       <c r="E19">
-        <v>0.4088693645982496</v>
+        <v>0.40886936459824957</v>
       </c>
       <c r="F19">
-        <v>0.3497706374122107</v>
+        <v>0.34977063741221071</v>
       </c>
       <c r="G19">
-        <v>0.4088693645982496</v>
+        <v>0.40886936459824957</v>
       </c>
       <c r="H19">
-        <v>0.2042015220138186</v>
+        <v>0.20420152201381861</v>
       </c>
       <c r="I19">
-        <v>0.4460278405739707</v>
+        <v>0.44602784057397071</v>
       </c>
       <c r="J19">
-        <v>0.206760139142444</v>
+        <v>0.20676013914244401</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3628,28 +3697,28 @@
         <v>0.2404624072438187</v>
       </c>
       <c r="C20">
-        <v>0.4733336230416609</v>
+        <v>0.47333362304166088</v>
       </c>
       <c r="D20">
-        <v>0.02069596920067582</v>
+        <v>2.0695969200675821E-2</v>
       </c>
       <c r="E20">
-        <v>0.9312619217322258</v>
+        <v>0.93126192173222577</v>
       </c>
       <c r="F20">
-        <v>0.2582113599210101</v>
+        <v>0.25821135992101008</v>
       </c>
       <c r="G20">
-        <v>0.9312619217322258</v>
+        <v>0.93126192173222577</v>
       </c>
       <c r="H20">
         <v>0.2782835208304183</v>
       </c>
       <c r="I20">
-        <v>0.4635051192485716</v>
+        <v>0.46350511924857157</v>
       </c>
       <c r="J20">
-        <v>0.01774895267719145</v>
+        <v>1.7748952677191451E-2</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -3657,28 +3726,28 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0.06505624804797761</v>
+        <v>6.5056248047977605E-2</v>
       </c>
       <c r="C21">
-        <v>0.1243349098295441</v>
+        <v>0.12433490982954409</v>
       </c>
       <c r="D21">
-        <v>0.009254256661935361</v>
+        <v>9.2542566619353613E-3</v>
       </c>
       <c r="E21">
         <v>1.000000000153713</v>
       </c>
       <c r="F21">
-        <v>0.06505624804797762</v>
+        <v>6.5056248047977619E-2</v>
       </c>
       <c r="G21">
         <v>1.000000000153713</v>
       </c>
       <c r="H21">
-        <v>0.454550291773222</v>
+        <v>0.45455029177322198</v>
       </c>
       <c r="I21">
-        <v>0.4803934601788004</v>
+        <v>0.48039346017880041</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -3689,31 +3758,31 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0.0879656095253214</v>
+        <v>8.7965609525321398E-2</v>
       </c>
       <c r="C22">
-        <v>0.08124114352759387</v>
+        <v>8.1241143527593873E-2</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22">
-        <v>0.1402184368073507</v>
+        <v>0.14021843680735069</v>
       </c>
       <c r="F22">
-        <v>0.6273469561465836</v>
+        <v>0.62734695614658365</v>
       </c>
       <c r="G22">
-        <v>0.1402184368073507</v>
+        <v>0.14021843680735069</v>
       </c>
       <c r="H22">
-        <v>0.3726530438534166</v>
+        <v>0.37265304385341658</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.5393813466212619</v>
+        <v>0.53938134662126191</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -3724,28 +3793,28 @@
         <v>0.1089242735120985</v>
       </c>
       <c r="C23">
-        <v>0.06052364782296744</v>
+        <v>6.0523647822967437E-2</v>
       </c>
       <c r="D23">
-        <v>0.9593916506718768</v>
+        <v>0.95939165067187682</v>
       </c>
       <c r="E23">
-        <v>0.2296664593402465</v>
+        <v>0.22966645934024649</v>
       </c>
       <c r="F23">
-        <v>0.4742715755156303</v>
+        <v>0.47427157551563032</v>
       </c>
       <c r="G23">
-        <v>0.2296664593402465</v>
+        <v>0.22966645934024649</v>
       </c>
       <c r="H23">
-        <v>0.5063874584683571</v>
+        <v>0.50638745846835709</v>
       </c>
       <c r="I23">
-        <v>0.01934096601601271</v>
+        <v>1.934096601601271E-2</v>
       </c>
       <c r="J23">
-        <v>0.3653473020035318</v>
+        <v>0.36534730200353183</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -3753,31 +3822,31 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0.1802807414967544</v>
+        <v>0.18028074149675441</v>
       </c>
       <c r="C24">
-        <v>0.458332139535685</v>
+        <v>0.45833213953568502</v>
       </c>
       <c r="D24">
-        <v>0.2234530546457441</v>
+        <v>0.22345305464574411</v>
       </c>
       <c r="E24">
-        <v>0.6252383752767001</v>
+        <v>0.62523837527670012</v>
       </c>
       <c r="F24">
         <v>0.345213206727638</v>
       </c>
       <c r="G24">
-        <v>0.6252383752767001</v>
+        <v>0.62523837527670012</v>
       </c>
       <c r="H24">
-        <v>0.2787809717760821</v>
+        <v>0.27878097177608208</v>
       </c>
       <c r="I24">
-        <v>0.3752924149934501</v>
+        <v>0.37529241499345012</v>
       </c>
       <c r="J24">
-        <v>0.1649324652308836</v>
+        <v>0.16493246523088359</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -3785,45 +3854,48 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0.07973068687231002</v>
+        <v>7.9730686872310025E-2</v>
       </c>
       <c r="C25">
-        <v>0.299533828058696</v>
+        <v>0.29953382805869599</v>
       </c>
       <c r="D25">
-        <v>0.3337270999273232</v>
+        <v>0.33372709992732319</v>
       </c>
       <c r="E25">
-        <v>0.2489037927723307</v>
+        <v>0.24890379277233071</v>
       </c>
       <c r="F25">
-        <v>0.1991369065300528</v>
+        <v>0.19913690653005281</v>
       </c>
       <c r="G25">
-        <v>0.2489037927723307</v>
+        <v>0.24890379277233071</v>
       </c>
       <c r="H25">
         <v>0.1535831320961816</v>
       </c>
       <c r="I25">
-        <v>0.1640287785946744</v>
+        <v>0.16402877859467441</v>
       </c>
       <c r="J25">
-        <v>0.176309767942794</v>
+        <v>0.17630976794279399</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
@@ -3859,31 +3931,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.2268368987314698</v>
+        <v>0.22683689873146981</v>
       </c>
       <c r="C2">
-        <v>0.9999999999999998</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="D2">
-        <v>0.03353229637857793</v>
+        <v>3.3532296378577929E-2</v>
       </c>
       <c r="E2">
-        <v>0.4179306501127882</v>
+        <v>0.41793065011278818</v>
       </c>
       <c r="F2">
-        <v>0.5427620555473801</v>
+        <v>0.54276205554738011</v>
       </c>
       <c r="G2">
-        <v>0.4179306501127882</v>
+        <v>0.41793065011278818</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4572379444526197</v>
+        <v>0.45723794445261973</v>
       </c>
       <c r="J2">
-        <v>0.3159251568159102</v>
+        <v>0.31592515681591021</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3891,28 +3963,28 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.2901327326596163</v>
+        <v>0.29013273265961631</v>
       </c>
       <c r="C3">
-        <v>0.7738781662191191</v>
+        <v>0.77387816621911909</v>
       </c>
       <c r="D3">
-        <v>0.07953003704442722</v>
+        <v>7.9530037044427224E-2</v>
       </c>
       <c r="E3">
-        <v>0.6908988960487976</v>
+        <v>0.69089889604879762</v>
       </c>
       <c r="F3">
-        <v>0.4199351516102646</v>
+        <v>0.41993515161026462</v>
       </c>
       <c r="G3">
-        <v>0.6908988960487976</v>
+        <v>0.69089889604879762</v>
       </c>
       <c r="H3">
-        <v>0.1175795701335332</v>
+        <v>0.11757957013353321</v>
       </c>
       <c r="I3">
-        <v>0.4528582501045618</v>
+        <v>0.45285825010456182</v>
       </c>
       <c r="J3">
         <v>0.1298024189506484</v>
@@ -3923,31 +3995,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.1150063422704461</v>
+        <v>0.11500634227044609</v>
       </c>
       <c r="C4">
-        <v>0.2114164609021162</v>
+        <v>0.21141646090211619</v>
       </c>
       <c r="D4">
-        <v>0.116746196266856</v>
+        <v>0.11674619626685601</v>
       </c>
       <c r="E4">
-        <v>0.6899862296234017</v>
+        <v>0.68998622962340173</v>
       </c>
       <c r="F4">
-        <v>0.1666791847907128</v>
+        <v>0.16667918479071281</v>
       </c>
       <c r="G4">
-        <v>0.6899862296234017</v>
+        <v>0.68998622962340173</v>
       </c>
       <c r="H4">
-        <v>0.4104613121921818</v>
+        <v>0.41046131219218179</v>
       </c>
       <c r="I4">
-        <v>0.4228595030171053</v>
+        <v>0.42285950301710529</v>
       </c>
       <c r="J4">
-        <v>0.05167284252026664</v>
+        <v>5.1672842520266639E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3955,31 +4027,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.2129116733274597</v>
+        <v>0.21291167332745969</v>
       </c>
       <c r="C5">
-        <v>0.4601291031711646</v>
+        <v>0.46012910317116462</v>
       </c>
       <c r="D5">
-        <v>0.07770529447509593</v>
+        <v>7.7705294475095929E-2</v>
       </c>
       <c r="E5">
-        <v>0.7796744067151237</v>
+        <v>0.77967440671512367</v>
       </c>
       <c r="F5">
-        <v>0.2730776738260348</v>
+        <v>0.27307767382603482</v>
       </c>
       <c r="G5">
-        <v>0.7796744067151237</v>
+        <v>0.77967440671512367</v>
       </c>
       <c r="H5">
-        <v>0.2777814816686267</v>
+        <v>0.27778148166862671</v>
       </c>
       <c r="I5">
-        <v>0.4475675617532</v>
+        <v>0.44756756175320001</v>
       </c>
       <c r="J5">
-        <v>0.06016600049857507</v>
+        <v>6.0166000498575067E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3987,31 +4059,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.3099811796063345</v>
+        <v>0.30998117960633448</v>
       </c>
       <c r="C6">
-        <v>0.9900247090276917</v>
+        <v>0.99002470902769169</v>
       </c>
       <c r="D6">
-        <v>0.05839050954181605</v>
+        <v>5.8390509541816051E-2</v>
       </c>
       <c r="E6">
-        <v>0.5861200494862048</v>
+        <v>0.58612004948620477</v>
       </c>
       <c r="F6">
-        <v>0.5288697765552728</v>
+        <v>0.52886977655527279</v>
       </c>
       <c r="G6">
-        <v>0.5861200494862048</v>
+        <v>0.58612004948620477</v>
       </c>
       <c r="H6">
-        <v>0.005202330243632536</v>
+        <v>5.2023302436325358E-3</v>
       </c>
       <c r="I6">
-        <v>0.4565573511422246</v>
+        <v>0.45655735114222462</v>
       </c>
       <c r="J6">
-        <v>0.2188885969489383</v>
+        <v>0.21888859694893831</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4019,28 +4091,28 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.2298456885223085</v>
+        <v>0.22984568852230849</v>
       </c>
       <c r="C7">
-        <v>0.5073603240343459</v>
+        <v>0.50736032403434594</v>
       </c>
       <c r="D7">
-        <v>0.05397362560686253</v>
+        <v>5.397362560686253E-2</v>
       </c>
       <c r="E7">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="F7">
-        <v>0.2298456885223085</v>
+        <v>0.22984568852230849</v>
       </c>
       <c r="G7">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="H7">
-        <v>0.2605013670003903</v>
+        <v>0.26050136700039028</v>
       </c>
       <c r="I7">
-        <v>0.5067719124386031</v>
+        <v>0.50677191243860309</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -4054,28 +4126,28 @@
         <v>0.1771394609806424</v>
       </c>
       <c r="C8">
-        <v>0.4044969978794448</v>
+        <v>0.40449699787944482</v>
       </c>
       <c r="D8">
-        <v>0.01305833196986121</v>
+        <v>1.305833196986121E-2</v>
       </c>
       <c r="E8">
-        <v>0.825605631587963</v>
+        <v>0.82560563158796296</v>
       </c>
       <c r="F8">
-        <v>0.2145569921076408</v>
+        <v>0.21455699210764079</v>
       </c>
       <c r="G8">
-        <v>0.825605631587963</v>
+        <v>0.82560563158796296</v>
       </c>
       <c r="H8">
-        <v>0.3056873382234747</v>
+        <v>0.30568733822347471</v>
       </c>
       <c r="I8">
-        <v>0.4797556696688844</v>
+        <v>0.47975566966888439</v>
       </c>
       <c r="J8">
-        <v>0.03741753112699847</v>
+        <v>3.7417531126998471E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4086,25 +4158,25 @@
         <v>0.198817871952642</v>
       </c>
       <c r="C9">
-        <v>0.6574085307679829</v>
+        <v>0.65740853076798289</v>
       </c>
       <c r="D9">
-        <v>0.04472258949273435</v>
+        <v>4.4722589492734353E-2</v>
       </c>
       <c r="E9">
-        <v>0.5650259708792917</v>
+        <v>0.56502597087929174</v>
       </c>
       <c r="F9">
-        <v>0.3518738645645654</v>
+        <v>0.35187386456456538</v>
       </c>
       <c r="G9">
-        <v>0.5650259708792917</v>
+        <v>0.56502597087929174</v>
       </c>
       <c r="H9">
-        <v>0.1763574616426234</v>
+        <v>0.17635746164262339</v>
       </c>
       <c r="I9">
-        <v>0.4686714946088478</v>
+        <v>0.46867149460884783</v>
       </c>
       <c r="J9">
         <v>0.1530559926119234</v>
@@ -4115,31 +4187,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.2018044204807101</v>
+        <v>0.20180442048071009</v>
       </c>
       <c r="C10">
-        <v>0.4877666136793575</v>
+        <v>0.48776661367935747</v>
       </c>
       <c r="D10">
-        <v>0.07889448707801955</v>
+        <v>7.8894487078019548E-2</v>
       </c>
       <c r="E10">
-        <v>0.6766392236010824</v>
+        <v>0.67663922360108242</v>
       </c>
       <c r="F10">
-        <v>0.2982452294247803</v>
+        <v>0.29824522942478032</v>
       </c>
       <c r="G10">
-        <v>0.6766392236010824</v>
+        <v>0.67663922360108242</v>
       </c>
       <c r="H10">
-        <v>0.2720203602384694</v>
+        <v>0.27202036023846943</v>
       </c>
       <c r="I10">
-        <v>0.4297344103367503</v>
+        <v>0.42973441033675031</v>
       </c>
       <c r="J10">
-        <v>0.09644080894407028</v>
+        <v>9.6440808944070283E-2</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4147,31 +4219,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.182469300987421</v>
+        <v>0.18246930098742101</v>
       </c>
       <c r="C11">
-        <v>0.8619626924562157</v>
+        <v>0.86196269245621571</v>
       </c>
       <c r="D11">
-        <v>0.01096540017160359</v>
+        <v>1.0965400171603591E-2</v>
       </c>
       <c r="E11">
-        <v>0.4950977036040307</v>
+        <v>0.49509770360403071</v>
       </c>
       <c r="F11">
-        <v>0.3685521052898204</v>
+        <v>0.36855210528982041</v>
       </c>
       <c r="G11">
-        <v>0.4950977036040307</v>
+        <v>0.49509770360403071</v>
       </c>
       <c r="H11">
-        <v>0.05800389635744091</v>
+        <v>5.8003896357440909E-2</v>
       </c>
       <c r="I11">
-        <v>0.5734439983527387</v>
+        <v>0.57344399835273874</v>
       </c>
       <c r="J11">
-        <v>0.1860828043023992</v>
+        <v>0.18608280430239921</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4179,28 +4251,28 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.3411433070340816</v>
+        <v>0.34114330703408158</v>
       </c>
       <c r="C12">
         <v>0.6248055426452882</v>
       </c>
       <c r="D12">
-        <v>0.005739092094087749</v>
+        <v>5.7390920940877492E-3</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.3411433070340816</v>
+        <v>0.34114330703408158</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12">
-        <v>0.2032784918971811</v>
+        <v>0.20327849189718111</v>
       </c>
       <c r="I12">
-        <v>0.4555782010687373</v>
+        <v>0.45557820106873731</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -4211,7 +4283,7 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.09717442130180132</v>
+        <v>9.7174421301801317E-2</v>
       </c>
       <c r="C13">
         <v>0.1343867591295233</v>
@@ -4220,22 +4292,22 @@
         <v>0.7462772190829331</v>
       </c>
       <c r="E13">
-        <v>0.2315335627565124</v>
+        <v>0.23153356275651241</v>
       </c>
       <c r="F13">
-        <v>0.4196990714646103</v>
+        <v>0.41969907146461027</v>
       </c>
       <c r="G13">
-        <v>0.2315335627565124</v>
+        <v>0.23153356275651241</v>
       </c>
       <c r="H13">
-        <v>0.4634837785010932</v>
+        <v>0.46348377850109318</v>
       </c>
       <c r="I13">
         <v>0.1168171500342965</v>
       </c>
       <c r="J13">
-        <v>0.3225246501628085</v>
+        <v>0.32252465016280851</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4243,22 +4315,22 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.3167026105149929</v>
+        <v>0.31670261051499288</v>
       </c>
       <c r="C14">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="D14">
-        <v>1.000000000000156</v>
+        <v>1.0000000000001561</v>
       </c>
       <c r="E14">
-        <v>0.3167026105149929</v>
+        <v>0.31670261051499288</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3167026105149929</v>
+        <v>0.31670261051499288</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -4267,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.6832973894850071</v>
+        <v>0.68329738948500707</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4275,28 +4347,28 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.1714306400209578</v>
+        <v>0.17143064002095779</v>
       </c>
       <c r="C15">
-        <v>0.4318531929974611</v>
+        <v>0.43185319299746111</v>
       </c>
       <c r="D15">
-        <v>0.1141419261488597</v>
+        <v>0.11414192614885969</v>
       </c>
       <c r="E15">
-        <v>0.609959427220381</v>
+        <v>0.60995942722038099</v>
       </c>
       <c r="F15">
-        <v>0.2810525296775505</v>
+        <v>0.28105252967755051</v>
       </c>
       <c r="G15">
-        <v>0.609959427220381</v>
+        <v>0.60995942722038099</v>
       </c>
       <c r="H15">
-        <v>0.2984786282017203</v>
+        <v>0.29847862820172028</v>
       </c>
       <c r="I15">
-        <v>0.4204688421207292</v>
+        <v>0.42046884212072921</v>
       </c>
       <c r="J15">
         <v>0.1096218896565927</v>
@@ -4307,31 +4379,31 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.14391347879425</v>
+        <v>0.14391347879425001</v>
       </c>
       <c r="C16">
-        <v>0.0911257484112625</v>
+        <v>9.1125748411262503E-2</v>
       </c>
       <c r="D16">
-        <v>0.3606760489836846</v>
+        <v>0.36067604898368461</v>
       </c>
       <c r="E16">
-        <v>0.6663643816076787</v>
+        <v>0.66636438160767875</v>
       </c>
       <c r="F16">
         <v>0.2159681441061459</v>
       </c>
       <c r="G16">
-        <v>0.6663643816076787</v>
+        <v>0.66636438160767875</v>
       </c>
       <c r="H16">
-        <v>0.4879244068806156</v>
+        <v>0.48792440688061561</v>
       </c>
       <c r="I16">
-        <v>0.2961074490132385</v>
+        <v>0.29610744901323849</v>
       </c>
       <c r="J16">
-        <v>0.07205466531189644</v>
+        <v>7.2054665311896443E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4339,31 +4411,31 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.08462201788609364</v>
+        <v>8.4622017886093637E-2</v>
       </c>
       <c r="C17">
-        <v>0.1815335340507956</v>
+        <v>0.18153353405079559</v>
       </c>
       <c r="D17">
-        <v>0.0888018744257766</v>
+        <v>8.8801874425776597E-2</v>
       </c>
       <c r="E17">
-        <v>0.6127585569374323</v>
+        <v>0.61275855693743231</v>
       </c>
       <c r="F17">
-        <v>0.1381000998321991</v>
+        <v>0.13810009983219909</v>
       </c>
       <c r="G17">
-        <v>0.6127585569374323</v>
+        <v>0.61275855693743231</v>
       </c>
       <c r="H17">
-        <v>0.419515188954776</v>
+        <v>0.41951518895477602</v>
       </c>
       <c r="I17">
-        <v>0.4423847112130249</v>
+        <v>0.44238471121302492</v>
       </c>
       <c r="J17">
-        <v>0.05347808194610543</v>
+        <v>5.3478081946105427E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4371,31 +4443,31 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.04730168358329001</v>
+        <v>4.7301683583290011E-2</v>
       </c>
       <c r="C18">
-        <v>0.353369636712293</v>
+        <v>0.35336963671229299</v>
       </c>
       <c r="D18">
-        <v>0.03032026941478206</v>
+        <v>3.032026941478206E-2</v>
       </c>
       <c r="E18">
-        <v>0.8389552204487626</v>
+        <v>0.83895522044876258</v>
       </c>
       <c r="F18">
-        <v>0.05638165474193967</v>
+        <v>5.6381654741939673E-2</v>
       </c>
       <c r="G18">
-        <v>0.8389552204487626</v>
+        <v>0.83895522044876258</v>
       </c>
       <c r="H18">
-        <v>0.333918884793916</v>
+        <v>0.33391888479391602</v>
       </c>
       <c r="I18">
-        <v>0.6096994604641444</v>
+        <v>0.60969946046414436</v>
       </c>
       <c r="J18">
-        <v>0.009079971158649659</v>
+        <v>9.0799711586496586E-3</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4403,19 +4475,19 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.1435706074902705</v>
+        <v>0.14357060749027051</v>
       </c>
       <c r="C19">
-        <v>0.6110934936038201</v>
+        <v>0.61109349360382015</v>
       </c>
       <c r="D19">
-        <v>0.02321125574838166</v>
+        <v>2.3211255748381659E-2</v>
       </c>
       <c r="E19">
         <v>0.4086924939904194</v>
       </c>
       <c r="F19">
-        <v>0.3512924988870388</v>
+        <v>0.35129249888703878</v>
       </c>
       <c r="G19">
         <v>0.4086924939904194</v>
@@ -4424,10 +4496,10 @@
         <v>0.2125951406739158</v>
       </c>
       <c r="I19">
-        <v>0.4361123604390454</v>
+        <v>0.43611236043904539</v>
       </c>
       <c r="J19">
-        <v>0.2077218913967684</v>
+        <v>0.20772189139676839</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -4438,28 +4510,28 @@
         <v>0.2408134708670045</v>
       </c>
       <c r="C20">
-        <v>0.4702087861421297</v>
+        <v>0.47020878614212969</v>
       </c>
       <c r="D20">
-        <v>0.02057161056639975</v>
+        <v>2.0571610566399751E-2</v>
       </c>
       <c r="E20">
-        <v>0.9311756525123852</v>
+        <v>0.93117565251238521</v>
       </c>
       <c r="F20">
-        <v>0.2586122931986793</v>
+        <v>0.25861229319867929</v>
       </c>
       <c r="G20">
-        <v>0.9311756525123852</v>
+        <v>0.93117565251238521</v>
       </c>
       <c r="H20">
-        <v>0.2792730903970801</v>
+        <v>0.27927309039708009</v>
       </c>
       <c r="I20">
-        <v>0.4621146164042406</v>
+        <v>0.46211461640424062</v>
       </c>
       <c r="J20">
-        <v>0.01779882233167482</v>
+        <v>1.7798822331674818E-2</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -4467,25 +4539,25 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0.06507844633730261</v>
+        <v>6.5078446337302615E-2</v>
       </c>
       <c r="C21">
         <v>0.1122785851118414</v>
       </c>
       <c r="D21">
-        <v>0.009268333001181423</v>
+        <v>9.2683330011814231E-3</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21">
-        <v>0.06507844633730261</v>
+        <v>6.5078446337302615E-2</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>0.4600490692480451</v>
+        <v>0.46004906924804512</v>
       </c>
       <c r="I21">
         <v>0.4748724844146523</v>
@@ -4499,31 +4571,31 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0.08488699944094424</v>
+        <v>8.4886999440944244E-2</v>
       </c>
       <c r="C22">
-        <v>0.05339876709974645</v>
+        <v>5.3398767099746447E-2</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22">
-        <v>0.1611758719893542</v>
+        <v>0.16117587198935421</v>
       </c>
       <c r="F22">
-        <v>0.526673120444176</v>
+        <v>0.52667312044417602</v>
       </c>
       <c r="G22">
-        <v>0.1611758719893542</v>
+        <v>0.16117587198935421</v>
       </c>
       <c r="H22">
-        <v>0.4733268795558241</v>
+        <v>0.47332687955582409</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4417861210032317</v>
+        <v>0.44178612100323172</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -4531,25 +4603,25 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0.1091640893613861</v>
+        <v>0.10916408936138609</v>
       </c>
       <c r="C23">
-        <v>0.01477237399520407</v>
+        <v>1.477237399520407E-2</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23">
-        <v>0.2319647536455854</v>
+        <v>0.23196475364558539</v>
       </c>
       <c r="F23">
-        <v>0.4706063643107427</v>
+        <v>0.47060636431074271</v>
       </c>
       <c r="G23">
-        <v>0.2319647536455854</v>
+        <v>0.23196475364558539</v>
       </c>
       <c r="H23">
-        <v>0.5293936356892573</v>
+        <v>0.52939363568925735</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -4563,31 +4635,31 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0.1813976064614284</v>
+        <v>0.18139760646142841</v>
       </c>
       <c r="C24">
-        <v>0.4742395462744001</v>
+        <v>0.47423954627440013</v>
       </c>
       <c r="D24">
-        <v>0.2257511998860044</v>
+        <v>0.22575119988600439</v>
       </c>
       <c r="E24">
-        <v>0.6243755133310084</v>
+        <v>0.62437551333100838</v>
       </c>
       <c r="F24">
-        <v>0.3417729660124204</v>
+        <v>0.34177296601242041</v>
       </c>
       <c r="G24">
-        <v>0.6243755133310084</v>
+        <v>0.62437551333100838</v>
       </c>
       <c r="H24">
-        <v>0.2747651051133544</v>
+        <v>0.27476510511335439</v>
       </c>
       <c r="I24">
-        <v>0.3822551532294384</v>
+        <v>0.38225515322943843</v>
       </c>
       <c r="J24">
-        <v>0.1603753595509919</v>
+        <v>0.16037535955099191</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -4595,34 +4667,35 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0.08121460850139454</v>
+        <v>8.1214608501394545E-2</v>
       </c>
       <c r="C25">
-        <v>0.3016600539490683</v>
+        <v>0.30166005394906831</v>
       </c>
       <c r="D25">
-        <v>0.3381977112150029</v>
+        <v>0.33819771121500292</v>
       </c>
       <c r="E25">
-        <v>0.244059471062895</v>
+        <v>0.24405947106289499</v>
       </c>
       <c r="F25">
-        <v>0.1938675162960342</v>
+        <v>0.19386751629603419</v>
       </c>
       <c r="G25">
-        <v>0.244059471062895</v>
+        <v>0.24405947106289499</v>
       </c>
       <c r="H25">
-        <v>0.1585637185183368</v>
+        <v>0.15856371851833681</v>
       </c>
       <c r="I25">
         <v>0.1731552923157543</v>
       </c>
       <c r="J25">
-        <v>0.1660431023421844</v>
+        <v>0.16604310234218439</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>